--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>177.8786108897715</v>
+        <v>184.2462866944958</v>
       </c>
       <c r="C2">
-        <v>157.1421059794376</v>
+        <v>165.5155353409132</v>
       </c>
       <c r="D2">
-        <v>149.8549743560333</v>
+        <v>161.0645639706364</v>
       </c>
       <c r="E2">
-        <v>133.1079033448964</v>
+        <v>135.9008850921489</v>
       </c>
       <c r="F2">
-        <v>153.8153657382615</v>
+        <v>157.6446796196259</v>
       </c>
       <c r="G2">
-        <v>158.1407786193156</v>
+        <v>161.572361524105</v>
       </c>
       <c r="H2">
-        <v>179.6270275719957</v>
+        <v>191.9385990862488</v>
       </c>
       <c r="I2">
-        <v>176.1608664457415</v>
+        <v>181.5585531613492</v>
       </c>
       <c r="J2">
-        <v>154.0716314374042</v>
+        <v>161.703281976525</v>
       </c>
       <c r="K2">
-        <v>157.4908278348816</v>
+        <v>165.630059693575</v>
       </c>
       <c r="L2">
-        <v>199.4854702420948</v>
+        <v>211.8958196709629</v>
       </c>
       <c r="M2">
-        <v>177.535012121654</v>
+        <v>182.8845770564456</v>
       </c>
       <c r="N2">
-        <v>133.6934436110367</v>
+        <v>140.7857177538173</v>
       </c>
       <c r="O2">
-        <v>167.1151746669093</v>
+        <v>172.5089609940896</v>
       </c>
       <c r="P2">
-        <v>147.4029002605519</v>
+        <v>162.0126334320906</v>
       </c>
       <c r="Q2">
-        <v>150.1471455669094</v>
+        <v>156.2905535499399</v>
       </c>
       <c r="R2">
-        <v>165.7533121115968</v>
+        <v>178.1653773730293</v>
       </c>
       <c r="S2">
-        <v>196.303202577616</v>
+        <v>200.6474777998771</v>
       </c>
       <c r="T2">
-        <v>183.2730623727852</v>
+        <v>228.8498447353932</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.45877645292252</v>
+        <v>13.94057201424257</v>
       </c>
       <c r="C3">
-        <v>10.63506006656192</v>
+        <v>11.20175683868014</v>
       </c>
       <c r="D3">
-        <v>9.19134454676542</v>
+        <v>9.878883954905945</v>
       </c>
       <c r="E3">
-        <v>11.08720745564386</v>
+        <v>11.31984854812188</v>
       </c>
       <c r="F3">
-        <v>15.13009977279463</v>
+        <v>15.50677151042181</v>
       </c>
       <c r="G3">
-        <v>9.393564972562515</v>
+        <v>9.597401056185646</v>
       </c>
       <c r="H3">
-        <v>9.684679698406542</v>
+        <v>10.34846414282584</v>
       </c>
       <c r="I3">
-        <v>11.44029254382697</v>
+        <v>11.79083075547626</v>
       </c>
       <c r="J3">
-        <v>10.89644021078912</v>
+        <v>11.43617502785667</v>
       </c>
       <c r="K3">
-        <v>12.03031069538048</v>
+        <v>12.65204523972157</v>
       </c>
       <c r="L3">
-        <v>13.65532547390711</v>
+        <v>14.5048477999715</v>
       </c>
       <c r="M3">
-        <v>12.27688917594316</v>
+        <v>12.64682192925801</v>
       </c>
       <c r="N3">
-        <v>9.617783953924457</v>
+        <v>10.12799566367533</v>
       </c>
       <c r="O3">
-        <v>12.66483314285948</v>
+        <v>13.07360155050488</v>
       </c>
       <c r="P3">
-        <v>8.817841225584099</v>
+        <v>9.691815260199848</v>
       </c>
       <c r="Q3">
-        <v>8.00221501560301</v>
+        <v>8.329632972322505</v>
       </c>
       <c r="R3">
-        <v>8.680202242672836</v>
+        <v>9.330199731989675</v>
       </c>
       <c r="S3">
-        <v>16.32494263473689</v>
+        <v>16.68622071304476</v>
       </c>
       <c r="T3">
-        <v>16.99936913977777</v>
+        <v>21.22681281073777</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.882743319834743</v>
+        <v>10.23652450357138</v>
       </c>
       <c r="C4">
-        <v>7.632762979367456</v>
+        <v>8.039480206696604</v>
       </c>
       <c r="D4">
-        <v>8.016996296781807</v>
+        <v>8.616691027069542</v>
       </c>
       <c r="E4">
-        <v>9.790840613638895</v>
+        <v>9.996280248979682</v>
       </c>
       <c r="F4">
-        <v>8.04472358412578</v>
+        <v>8.245001180220134</v>
       </c>
       <c r="G4">
-        <v>8.859940239681636</v>
+        <v>9.052196909526016</v>
       </c>
       <c r="H4">
-        <v>8.15649301415481</v>
+        <v>8.715536095848202</v>
       </c>
       <c r="I4">
-        <v>8.78246900703089</v>
+        <v>9.051569728694787</v>
       </c>
       <c r="J4">
-        <v>9.154539589983328</v>
+        <v>9.607992612746209</v>
       </c>
       <c r="K4">
-        <v>8.057741680124773</v>
+        <v>8.474171187122819</v>
       </c>
       <c r="L4">
-        <v>8.676220145379023</v>
+        <v>9.215983385254415</v>
       </c>
       <c r="M4">
-        <v>11.28689249258377</v>
+        <v>11.62699422000931</v>
       </c>
       <c r="N4">
-        <v>7.351828288240022</v>
+        <v>7.741833813286901</v>
       </c>
       <c r="O4">
-        <v>11.75030308853865</v>
+        <v>12.12955425029287</v>
       </c>
       <c r="P4">
-        <v>7.533349730518053</v>
+        <v>8.280012308094255</v>
       </c>
       <c r="Q4">
-        <v>8.220234962981094</v>
+        <v>8.5565734055355</v>
       </c>
       <c r="R4">
-        <v>9.454176460202099</v>
+        <v>10.16213127402882</v>
       </c>
       <c r="S4">
-        <v>9.68979610508838</v>
+        <v>9.904235505848813</v>
       </c>
       <c r="T4">
-        <v>7.83695652173913</v>
+        <v>9.785869565217391</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>18.62860193958264</v>
+        <v>19.29546625369643</v>
       </c>
       <c r="C5">
-        <v>13.66694710100998</v>
+        <v>14.39520013939236</v>
       </c>
       <c r="D5">
-        <v>12.03812184571017</v>
+        <v>12.9386085075703</v>
       </c>
       <c r="E5">
-        <v>12.18798444970471</v>
+        <v>12.44372296896919</v>
       </c>
       <c r="F5">
-        <v>12.1573072263787</v>
+        <v>12.45996974061153</v>
       </c>
       <c r="G5">
-        <v>13.34197960960586</v>
+        <v>13.63149449339548</v>
       </c>
       <c r="H5">
-        <v>13.6419879078677</v>
+        <v>14.57700482594799</v>
       </c>
       <c r="I5">
-        <v>16.0033659277887</v>
+        <v>16.49371975844518</v>
       </c>
       <c r="J5">
-        <v>11.51810055210663</v>
+        <v>12.08862815324939</v>
       </c>
       <c r="K5">
-        <v>14.97116705086704</v>
+        <v>15.74488702870596</v>
       </c>
       <c r="L5">
-        <v>18.33367947386639</v>
+        <v>19.47425060574594</v>
       </c>
       <c r="M5">
-        <v>13.17928239397788</v>
+        <v>13.57640646611431</v>
       </c>
       <c r="N5">
-        <v>14.08105076346103</v>
+        <v>14.82803333444951</v>
       </c>
       <c r="O5">
-        <v>20.11966119505817</v>
+        <v>20.7690406046642</v>
       </c>
       <c r="P5">
-        <v>11.28895139323341</v>
+        <v>12.40784774703702</v>
       </c>
       <c r="Q5">
-        <v>11.00287584898733</v>
+        <v>11.45306859205776</v>
       </c>
       <c r="R5">
-        <v>14.45615132683481</v>
+        <v>15.53866781722635</v>
       </c>
       <c r="S5">
-        <v>18.20809320672601</v>
+        <v>18.61104622595311</v>
       </c>
       <c r="T5">
-        <v>20.74643277219794</v>
+        <v>25.90570516617171</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>39.51866600247741</v>
+        <v>40.93335016309802</v>
       </c>
       <c r="C6">
-        <v>37.43489180595593</v>
+        <v>39.4296367550447</v>
       </c>
       <c r="D6">
-        <v>36.75695992003671</v>
+        <v>39.50648784164645</v>
       </c>
       <c r="E6">
-        <v>28.44397071978955</v>
+        <v>29.04080598684286</v>
       </c>
       <c r="F6">
-        <v>26.8457031148453</v>
+        <v>27.51404091776413</v>
       </c>
       <c r="G6">
-        <v>37.98400745299788</v>
+        <v>38.80824312307051</v>
       </c>
       <c r="H6">
-        <v>36.46862928057265</v>
+        <v>38.96817594391983</v>
       </c>
       <c r="I6">
-        <v>39.717864217779</v>
+        <v>40.93484612974436</v>
       </c>
       <c r="J6">
-        <v>30.33340873484639</v>
+        <v>31.83591748979985</v>
       </c>
       <c r="K6">
-        <v>34.69654793151368</v>
+        <v>36.48968885402468</v>
       </c>
       <c r="L6">
-        <v>40.59459409932197</v>
+        <v>43.12005671614441</v>
       </c>
       <c r="M6">
-        <v>44.98786807779628</v>
+        <v>46.34346277815373</v>
       </c>
       <c r="N6">
-        <v>30.37451446557728</v>
+        <v>31.98584541588535</v>
       </c>
       <c r="O6">
-        <v>39.88803612938047</v>
+        <v>41.17545688169429</v>
       </c>
       <c r="P6">
-        <v>42.0424496577513</v>
+        <v>46.20945702525812</v>
       </c>
       <c r="Q6">
-        <v>35.95359481123417</v>
+        <v>37.42466907340554</v>
       </c>
       <c r="R6">
-        <v>36.13704860009002</v>
+        <v>38.84309048767469</v>
       </c>
       <c r="S6">
-        <v>38.50881506811573</v>
+        <v>39.3610318885362</v>
       </c>
       <c r="T6">
-        <v>48.89076003536987</v>
+        <v>61.04903087356936</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>11.78575600455386</v>
+        <v>12.20766099344028</v>
       </c>
       <c r="C7">
-        <v>10.05119988782626</v>
+        <v>10.58678525327757</v>
       </c>
       <c r="D7">
-        <v>11.32677828210002</v>
+        <v>12.1740543684866</v>
       </c>
       <c r="E7">
-        <v>9.318888318429059</v>
+        <v>9.514425054595785</v>
       </c>
       <c r="F7">
-        <v>10.62806428300327</v>
+        <v>10.89265549530251</v>
       </c>
       <c r="G7">
-        <v>11.74859249267456</v>
+        <v>12.00353160139268</v>
       </c>
       <c r="H7">
-        <v>11.65001949514267</v>
+        <v>12.44850761853716</v>
       </c>
       <c r="I7">
-        <v>12.82013310621656</v>
+        <v>13.21295055515355</v>
       </c>
       <c r="J7">
-        <v>10.39299268605323</v>
+        <v>10.90779017015608</v>
       </c>
       <c r="K7">
-        <v>9.722667070836581</v>
+        <v>10.22514104130419</v>
       </c>
       <c r="L7">
-        <v>11.87436116710443</v>
+        <v>12.61308650459146</v>
       </c>
       <c r="M7">
-        <v>15.36471751566163</v>
+        <v>15.82769410305409</v>
       </c>
       <c r="N7">
-        <v>9.298586927404232</v>
+        <v>9.791865624162872</v>
       </c>
       <c r="O7">
-        <v>11.42495568671787</v>
+        <v>11.79370598060643</v>
       </c>
       <c r="P7">
-        <v>11.604001865605</v>
+        <v>12.75412422194167</v>
       </c>
       <c r="Q7">
-        <v>10.80658997736034</v>
+        <v>11.24875150421179</v>
       </c>
       <c r="R7">
-        <v>10.72390854173194</v>
+        <v>11.52694439653281</v>
       </c>
       <c r="S7">
-        <v>11.13031661882329</v>
+        <v>11.37663536486595</v>
       </c>
       <c r="T7">
-        <v>13.89736581968033</v>
+        <v>17.3533959049351</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>248</v>
+        <v>221.08</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>262.7</v>
       </c>
       <c r="D8">
-        <v>315</v>
+        <v>263.76</v>
       </c>
       <c r="E8">
-        <v>359</v>
+        <v>345.55</v>
       </c>
       <c r="F8">
-        <v>330</v>
+        <v>313.32</v>
       </c>
       <c r="G8">
-        <v>341</v>
+        <v>326.7</v>
       </c>
       <c r="H8">
-        <v>281</v>
+        <v>231.72</v>
       </c>
       <c r="I8">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="J8">
-        <v>336</v>
+        <v>303.11</v>
       </c>
       <c r="K8">
-        <v>286</v>
+        <v>249.1</v>
       </c>
       <c r="L8">
-        <v>254</v>
+        <v>207.59</v>
       </c>
       <c r="M8">
-        <v>245</v>
+        <v>222.25</v>
       </c>
       <c r="N8">
-        <v>344</v>
+        <v>309.2</v>
       </c>
       <c r="O8">
-        <v>275</v>
+        <v>251.6</v>
       </c>
       <c r="P8">
-        <v>300</v>
+        <v>230.62</v>
       </c>
       <c r="Q8">
-        <v>334</v>
+        <v>306.75</v>
       </c>
       <c r="R8">
-        <v>275</v>
+        <v>220.71</v>
       </c>
       <c r="S8">
-        <v>310</v>
+        <v>294.73</v>
       </c>
       <c r="T8">
-        <v>279</v>
+        <v>99.70000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.11735078500828</v>
+        <v>10.47953041683331</v>
       </c>
       <c r="C9">
-        <v>8.472828798957444</v>
+        <v>8.924309533530458</v>
       </c>
       <c r="D9">
-        <v>9.446698646522908</v>
+        <v>10.15333928688471</v>
       </c>
       <c r="E9">
-        <v>10.18602556238603</v>
+        <v>10.39975730000552</v>
       </c>
       <c r="F9">
-        <v>10.64130146565663</v>
+        <v>10.90622222453298</v>
       </c>
       <c r="G9">
-        <v>10.2838470524199</v>
+        <v>10.50700185188819</v>
       </c>
       <c r="H9">
-        <v>8.160191433042158</v>
+        <v>8.719488003028692</v>
       </c>
       <c r="I9">
-        <v>8.201367803645368</v>
+        <v>8.452663195957619</v>
       </c>
       <c r="J9">
-        <v>8.092710349276564</v>
+        <v>8.49356764353516</v>
       </c>
       <c r="K9">
-        <v>6.74086393367244</v>
+        <v>7.089236313437864</v>
       </c>
       <c r="L9">
-        <v>10.02656323173091</v>
+        <v>10.65033374055749</v>
       </c>
       <c r="M9">
-        <v>9.548777720389742</v>
+        <v>9.83650579077235</v>
       </c>
       <c r="N9">
-        <v>7.069699303509241</v>
+        <v>7.44473822997589</v>
       </c>
       <c r="O9">
-        <v>9.853060836463033</v>
+        <v>10.17107686897784</v>
       </c>
       <c r="P9">
-        <v>12.38698444546728</v>
+        <v>13.61471156093374</v>
       </c>
       <c r="Q9">
-        <v>7.055424340696321</v>
+        <v>7.344103489771361</v>
       </c>
       <c r="R9">
-        <v>5.490333359528808</v>
+        <v>5.901464667237524</v>
       </c>
       <c r="S9">
-        <v>5.76136466424556</v>
+        <v>5.888866169206473</v>
       </c>
       <c r="T9">
-        <v>6.140853882345089</v>
+        <v>7.667976075277787</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>25.90912540800075</v>
+        <v>26.83661697180844</v>
       </c>
       <c r="C10">
-        <v>29.02918166784201</v>
+        <v>30.57602234814273</v>
       </c>
       <c r="D10">
-        <v>24.78969182178672</v>
+        <v>26.64403314871862</v>
       </c>
       <c r="E10">
-        <v>24.59492272236391</v>
+        <v>25.11099403377701</v>
       </c>
       <c r="F10">
-        <v>21.19899967244992</v>
+        <v>21.72675984339986</v>
       </c>
       <c r="G10">
-        <v>24.06620319541087</v>
+        <v>24.58842884896833</v>
       </c>
       <c r="H10">
-        <v>25.68773822395649</v>
+        <v>27.44836651279736</v>
       </c>
       <c r="I10">
-        <v>22.37056435933576</v>
+        <v>23.05601340655773</v>
       </c>
       <c r="J10">
-        <v>24.5229011151046</v>
+        <v>25.73759722606211</v>
       </c>
       <c r="K10">
-        <v>24.92269738358012</v>
+        <v>26.21071913911808</v>
       </c>
       <c r="L10">
-        <v>24.70489890660314</v>
+        <v>26.2418350436748</v>
       </c>
       <c r="M10">
-        <v>19.60379493508934</v>
+        <v>20.1945053122725</v>
       </c>
       <c r="N10">
-        <v>31.14127377444415</v>
+        <v>32.79328037101527</v>
       </c>
       <c r="O10">
-        <v>28.66985020372865</v>
+        <v>29.59519433444211</v>
       </c>
       <c r="P10">
-        <v>23.06583809855252</v>
+        <v>25.35199216609191</v>
       </c>
       <c r="Q10">
-        <v>27.83387994860185</v>
+        <v>28.97272864019255</v>
       </c>
       <c r="R10">
-        <v>28.80057214999189</v>
+        <v>30.95723844243749</v>
       </c>
       <c r="S10">
-        <v>24.38913142701486</v>
+        <v>24.92887350946488</v>
       </c>
       <c r="T10">
-        <v>20.21715251593313</v>
+        <v>25.24480223314091</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>39.76327313010097</v>
+        <v>41.1867137054498</v>
       </c>
       <c r="C11">
-        <v>46.64530416816164</v>
+        <v>49.13083251883651</v>
       </c>
       <c r="D11">
-        <v>42.53189109916759</v>
+        <v>45.71340073408927</v>
       </c>
       <c r="E11">
-        <v>33.82169022503772</v>
+        <v>34.53136531634312</v>
       </c>
       <c r="F11">
-        <v>25.71148556959919</v>
+        <v>26.35158643422742</v>
       </c>
       <c r="G11">
-        <v>38.04934925702411</v>
+        <v>38.87500281449822</v>
       </c>
       <c r="H11">
-        <v>52.53382124343003</v>
+        <v>56.13447035452355</v>
       </c>
       <c r="I11">
-        <v>53.49062224757837</v>
+        <v>55.12961067299162</v>
       </c>
       <c r="J11">
-        <v>41.30147200509379</v>
+        <v>43.34726329161117</v>
       </c>
       <c r="K11">
-        <v>40.11834054114392</v>
+        <v>42.1916833506232</v>
       </c>
       <c r="L11">
-        <v>45.45825952395496</v>
+        <v>48.28629950318654</v>
       </c>
       <c r="M11">
-        <v>44.02035369969719</v>
+        <v>45.34679482111192</v>
       </c>
       <c r="N11">
-        <v>37.1964070452719</v>
+        <v>39.16963107755156</v>
       </c>
       <c r="O11">
-        <v>33.147638362729</v>
+        <v>34.21750696643641</v>
       </c>
       <c r="P11">
-        <v>43.18977632130862</v>
+        <v>47.47050015155489</v>
       </c>
       <c r="Q11">
-        <v>38.41633726977911</v>
+        <v>39.98817689530686</v>
       </c>
       <c r="R11">
-        <v>53.07050937270684</v>
+        <v>57.04457551594029</v>
       </c>
       <c r="S11">
-        <v>28.23147598456675</v>
+        <v>28.85625082265998</v>
       </c>
       <c r="T11">
-        <v>31.93274091561279</v>
+        <v>39.87385110447462</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.044310083640791</v>
+        <v>9.368077141422191</v>
       </c>
       <c r="C12">
-        <v>9.637662332306448</v>
+        <v>10.15121205372792</v>
       </c>
       <c r="D12">
-        <v>8.947214803041227</v>
+        <v>9.616492593563608</v>
       </c>
       <c r="E12">
-        <v>8.317575103698141</v>
+        <v>8.492101445577614</v>
       </c>
       <c r="F12">
-        <v>7.085376188668847</v>
+        <v>7.261770330201676</v>
       </c>
       <c r="G12">
-        <v>7.827403607308812</v>
+        <v>7.997254702277727</v>
       </c>
       <c r="H12">
-        <v>8.802236951885577</v>
+        <v>9.405539089561406</v>
       </c>
       <c r="I12">
-        <v>8.279043374337506</v>
+        <v>8.532718798063723</v>
       </c>
       <c r="J12">
-        <v>7.441844488568293</v>
+        <v>7.810462357889094</v>
       </c>
       <c r="K12">
-        <v>8.57835076145407</v>
+        <v>9.021685695764511</v>
       </c>
       <c r="L12">
-        <v>8.674701199275143</v>
+        <v>9.214369942785009</v>
       </c>
       <c r="M12">
-        <v>10.548852678521</v>
+        <v>10.86671545790691</v>
       </c>
       <c r="N12">
-        <v>7.879704661130456</v>
+        <v>8.297713384007499</v>
       </c>
       <c r="O12">
-        <v>9.426181329746019</v>
+        <v>9.730419458181961</v>
       </c>
       <c r="P12">
-        <v>10.32593997201593</v>
+        <v>11.34938813667087</v>
       </c>
       <c r="Q12">
-        <v>9.794597075200391</v>
+        <v>10.19535198555957</v>
       </c>
       <c r="R12">
-        <v>9.903318286244415</v>
+        <v>10.64490607901712</v>
       </c>
       <c r="S12">
-        <v>6.539733567334395</v>
+        <v>6.684460714541925</v>
       </c>
       <c r="T12">
-        <v>9.711991975040874</v>
+        <v>12.12719330808502</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.676798962391818</v>
+        <v>3.80842054226893</v>
       </c>
       <c r="C13">
-        <v>3.72761164792293</v>
+        <v>3.926240097162251</v>
       </c>
       <c r="D13">
-        <v>3.515328005177951</v>
+        <v>3.778284803696664</v>
       </c>
       <c r="E13">
-        <v>3.026636077059981</v>
+        <v>3.090143495525593</v>
       </c>
       <c r="F13">
-        <v>3.208971752704888</v>
+        <v>3.288860780817002</v>
       </c>
       <c r="G13">
-        <v>2.497282072627481</v>
+        <v>2.551471956752781</v>
       </c>
       <c r="H13">
-        <v>3.387012017032273</v>
+        <v>3.619156595890897</v>
       </c>
       <c r="I13">
-        <v>3.425052994481634</v>
+        <v>3.529998907961572</v>
       </c>
       <c r="J13">
-        <v>2.729325324017057</v>
+        <v>2.864517357009409</v>
       </c>
       <c r="K13">
-        <v>3.12219210291586</v>
+        <v>3.283549089747226</v>
       </c>
       <c r="L13">
-        <v>3.29383462627003</v>
+        <v>3.498749994909699</v>
       </c>
       <c r="M13">
-        <v>3.515767391569983</v>
+        <v>3.621706077872259</v>
       </c>
       <c r="N13">
-        <v>2.574169568711492</v>
+        <v>2.710726125100456</v>
       </c>
       <c r="O13">
-        <v>3.510639276594614</v>
+        <v>3.623948185659876</v>
       </c>
       <c r="P13">
-        <v>3.833471280603117</v>
+        <v>4.213423048386322</v>
       </c>
       <c r="Q13">
-        <v>3.332784678455608</v>
+        <v>3.469148616125151</v>
       </c>
       <c r="R13">
-        <v>3.22686573866646</v>
+        <v>3.468502346876394</v>
       </c>
       <c r="S13">
-        <v>2.733975935181152</v>
+        <v>2.794480011311899</v>
       </c>
       <c r="T13">
-        <v>4.331978461076446</v>
+        <v>5.409265199039006</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.471286259772326</v>
+        <v>7.738742411518433</v>
       </c>
       <c r="C14">
-        <v>6.348847950973479</v>
+        <v>6.687150848932491</v>
       </c>
       <c r="D14">
-        <v>6.237935865504358</v>
+        <v>6.704551681195515</v>
       </c>
       <c r="E14">
-        <v>6.901718218068626</v>
+        <v>7.046535862425918</v>
       </c>
       <c r="F14">
-        <v>4.75632873550071</v>
+        <v>4.874740024020339</v>
       </c>
       <c r="G14">
-        <v>5.664317636523821</v>
+        <v>5.787230750639586</v>
       </c>
       <c r="H14">
-        <v>6.805090752718259</v>
+        <v>7.271509212097893</v>
       </c>
       <c r="I14">
-        <v>5.799287419411137</v>
+        <v>5.97698146290284</v>
       </c>
       <c r="J14">
-        <v>5.593552332839035</v>
+        <v>5.870618501855716</v>
       </c>
       <c r="K14">
-        <v>7.460357383150006</v>
+        <v>7.845913668077507</v>
       </c>
       <c r="L14">
-        <v>6.275525828192128</v>
+        <v>6.665937562356201</v>
       </c>
       <c r="M14">
-        <v>6.744691578094564</v>
+        <v>6.947925662070263</v>
       </c>
       <c r="N14">
-        <v>5.102347307795339</v>
+        <v>5.373020610099116</v>
       </c>
       <c r="O14">
-        <v>7.499294667481718</v>
+        <v>7.741340867783888</v>
       </c>
       <c r="P14">
-        <v>6.703931139988754</v>
+        <v>7.368386486406496</v>
       </c>
       <c r="Q14">
-        <v>5.784660099125007</v>
+        <v>6.021344765342961</v>
       </c>
       <c r="R14">
-        <v>5.458516063779517</v>
+        <v>5.867264804610675</v>
       </c>
       <c r="S14">
-        <v>5.4521692750923</v>
+        <v>5.572828151658473</v>
       </c>
       <c r="T14">
-        <v>5.76043369815476</v>
+        <v>7.1929520921619</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.643790665822451</v>
+        <v>1.702634874231946</v>
       </c>
       <c r="C15">
-        <v>1.703226232158396</v>
+        <v>1.793983858529121</v>
       </c>
       <c r="D15">
-        <v>1.388312536868323</v>
+        <v>1.492162368093334</v>
       </c>
       <c r="E15">
-        <v>1.265659903419878</v>
+        <v>1.292217041798969</v>
       </c>
       <c r="F15">
-        <v>1.743824641124693</v>
+        <v>1.787238066518662</v>
       </c>
       <c r="G15">
-        <v>1.701609479849742</v>
+        <v>1.738533630929941</v>
       </c>
       <c r="H15">
-        <v>1.69535521795981</v>
+        <v>1.811554251535693</v>
       </c>
       <c r="I15">
-        <v>1.304363356905714</v>
+        <v>1.344329922159092</v>
       </c>
       <c r="J15">
-        <v>1.434547297693552</v>
+        <v>1.505604919110933</v>
       </c>
       <c r="K15">
-        <v>1.672237316011375</v>
+        <v>1.758659664695997</v>
       </c>
       <c r="L15">
-        <v>1.449834056156211</v>
+        <v>1.540030837049254</v>
       </c>
       <c r="M15">
-        <v>2.460649548146224</v>
+        <v>2.534794948438048</v>
       </c>
       <c r="N15">
-        <v>1.127143048486472</v>
+        <v>1.186936612643986</v>
       </c>
       <c r="O15">
-        <v>1.994327695443552</v>
+        <v>2.058696341062006</v>
       </c>
       <c r="P15">
-        <v>2.001034859666294</v>
+        <v>2.199366000471504</v>
       </c>
       <c r="Q15">
-        <v>1.502367986293826</v>
+        <v>1.563838748495789</v>
       </c>
       <c r="R15">
-        <v>1.158741514962549</v>
+        <v>1.245511276131262</v>
       </c>
       <c r="S15">
-        <v>1.206651147461217</v>
+        <v>1.233354861985467</v>
       </c>
       <c r="T15">
-        <v>2.166741049084054</v>
+        <v>2.705571382094832</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.751479338361123</v>
+        <v>1.814178572122668</v>
       </c>
       <c r="C16">
-        <v>1.608682742152994</v>
+        <v>1.694402551127717</v>
       </c>
       <c r="D16">
-        <v>1.849212656485548</v>
+        <v>1.987539162351707</v>
       </c>
       <c r="E16">
-        <v>1.831068098671268</v>
+        <v>1.869489106357896</v>
       </c>
       <c r="F16">
-        <v>1.915211321794559</v>
+        <v>1.96289150813416</v>
       </c>
       <c r="G16">
-        <v>1.508306642938811</v>
+        <v>1.5410362104563</v>
       </c>
       <c r="H16">
-        <v>1.746393398605197</v>
+        <v>1.866090570626427</v>
       </c>
       <c r="I16">
-        <v>1.431135750582506</v>
+        <v>1.474986706728487</v>
       </c>
       <c r="J16">
-        <v>1.35179832608641</v>
+        <v>1.418757131726444</v>
       </c>
       <c r="K16">
-        <v>1.464578637503623</v>
+        <v>1.540269046080491</v>
       </c>
       <c r="L16">
-        <v>1.440720379532914</v>
+        <v>1.53035018223281</v>
       </c>
       <c r="M16">
-        <v>1.944331779064502</v>
+        <v>2.002919259824393</v>
       </c>
       <c r="N16">
-        <v>1.467619876774712</v>
+        <v>1.545475321457273</v>
       </c>
       <c r="O16">
-        <v>1.705294696103907</v>
+        <v>1.760334552502296</v>
       </c>
       <c r="P16">
-        <v>1.469521137569998</v>
+        <v>1.615171675462293</v>
       </c>
       <c r="Q16">
-        <v>1.463654163862204</v>
+        <v>1.52354091456077</v>
       </c>
       <c r="R16">
-        <v>1.617502523440697</v>
+        <v>1.738625574471863</v>
       </c>
       <c r="S16">
-        <v>1.147825110545747</v>
+        <v>1.17322697929652</v>
       </c>
       <c r="T16">
-        <v>1.232982415162334</v>
+        <v>1.539603423537655</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>23.6745854528233</v>
+        <v>24.52208524057597</v>
       </c>
       <c r="C17">
-        <v>21.89583926163287</v>
+        <v>23.06257469657415</v>
       </c>
       <c r="D17">
-        <v>18.91444296060824</v>
+        <v>20.32929851871272</v>
       </c>
       <c r="E17">
-        <v>22.4527799849829</v>
+        <v>22.9239030595508</v>
       </c>
       <c r="F17">
-        <v>21.62816306794845</v>
+        <v>22.16660748581916</v>
       </c>
       <c r="G17">
-        <v>17.9472155058712</v>
+        <v>18.33666191214427</v>
       </c>
       <c r="H17">
-        <v>21.65646163674839</v>
+        <v>23.14078768606545</v>
       </c>
       <c r="I17">
-        <v>20.29384202592519</v>
+        <v>20.91565891251343</v>
       </c>
       <c r="J17">
-        <v>19.66018213654376</v>
+        <v>20.6340125438795</v>
       </c>
       <c r="K17">
-        <v>23.71476732409136</v>
+        <v>24.94036244210112</v>
       </c>
       <c r="L17">
-        <v>22.25256042188423</v>
+        <v>23.63693217681673</v>
       </c>
       <c r="M17">
-        <v>21.75046746149668</v>
+        <v>22.405862341959</v>
       </c>
       <c r="N17">
-        <v>22.50853870881329</v>
+        <v>23.70258923787838</v>
       </c>
       <c r="O17">
-        <v>22.93588016298293</v>
+        <v>23.67615546755369</v>
       </c>
       <c r="P17">
-        <v>20.17180303375133</v>
+        <v>22.17111688301085</v>
       </c>
       <c r="Q17">
-        <v>19.05331334516307</v>
+        <v>19.83289711191336</v>
       </c>
       <c r="R17">
-        <v>18.70043059236814</v>
+        <v>20.1007704225194</v>
       </c>
       <c r="S17">
-        <v>25.37482624069602</v>
+        <v>25.93638217793577</v>
       </c>
       <c r="T17">
-        <v>26.56926740965664</v>
+        <v>33.17657621208583</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>19.35319286480714</v>
+        <v>20.04599599236115</v>
       </c>
       <c r="C18">
-        <v>17.6016883797081</v>
+        <v>18.5396069176554</v>
       </c>
       <c r="D18">
-        <v>17.30024025856984</v>
+        <v>18.59434874156125</v>
       </c>
       <c r="E18">
-        <v>16.5870871730892</v>
+        <v>16.93513135792236</v>
       </c>
       <c r="F18">
-        <v>19.73942611146061</v>
+        <v>20.23084943614593</v>
       </c>
       <c r="G18">
-        <v>15.82088429985096</v>
+        <v>16.16419028693422</v>
       </c>
       <c r="H18">
-        <v>16.55930072620692</v>
+        <v>17.69426920991691</v>
       </c>
       <c r="I18">
-        <v>18.15849662029416</v>
+        <v>18.71488509612489</v>
       </c>
       <c r="J18">
-        <v>16.69929876592857</v>
+        <v>17.52646734486139</v>
       </c>
       <c r="K18">
-        <v>19.65226162765096</v>
+        <v>20.66790372017241</v>
       </c>
       <c r="L18">
-        <v>17.22105145277218</v>
+        <v>18.2924039969051</v>
       </c>
       <c r="M18">
-        <v>19.32470424909922</v>
+        <v>19.90700494004891</v>
       </c>
       <c r="N18">
-        <v>17.21879185641575</v>
+        <v>18.13222776587195</v>
       </c>
       <c r="O18">
-        <v>17.93783260517121</v>
+        <v>18.51679161615192</v>
       </c>
       <c r="P18">
-        <v>19.34738524437078</v>
+        <v>21.2649875133057</v>
       </c>
       <c r="Q18">
-        <v>14.38999571682066</v>
+        <v>14.97877557160048</v>
       </c>
       <c r="R18">
-        <v>19.57651613113931</v>
+        <v>21.04245966322145</v>
       </c>
       <c r="S18">
-        <v>17.97709340322868</v>
+        <v>18.37493429636969</v>
       </c>
       <c r="T18">
-        <v>15.0942609446428</v>
+        <v>18.84793776485702</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.171998081079504</v>
+        <v>9.500336097492617</v>
       </c>
       <c r="C19">
-        <v>9.812315191705741</v>
+        <v>10.33517141549234</v>
       </c>
       <c r="D19">
-        <v>10.35096082945533</v>
+        <v>11.12524292128203</v>
       </c>
       <c r="E19">
-        <v>8.871635082515914</v>
+        <v>9.057787175901</v>
       </c>
       <c r="F19">
-        <v>9.29459230413285</v>
+        <v>9.525986034928275</v>
       </c>
       <c r="G19">
-        <v>8.888527278943112</v>
+        <v>9.081404274525639</v>
       </c>
       <c r="H19">
-        <v>9.07074216310696</v>
+        <v>9.692447550864834</v>
       </c>
       <c r="I19">
-        <v>8.398487883986736</v>
+        <v>8.655823167340088</v>
       </c>
       <c r="J19">
-        <v>9.151758111946112</v>
+        <v>9.605073359388747</v>
       </c>
       <c r="K19">
-        <v>10.40779447140617</v>
+        <v>10.94567628652506</v>
       </c>
       <c r="L19">
-        <v>7.821812961944902</v>
+        <v>8.308421996212816</v>
       </c>
       <c r="M19">
-        <v>10.93957963890717</v>
+        <v>11.26921597901994</v>
       </c>
       <c r="N19">
-        <v>9.467452451111706</v>
+        <v>9.969689257969462</v>
       </c>
       <c r="O19">
-        <v>7.773505461727023</v>
+        <v>8.024402051802078</v>
       </c>
       <c r="P19">
-        <v>12.68131731307975</v>
+        <v>13.93821702048185</v>
       </c>
       <c r="Q19">
-        <v>8.323471822798751</v>
+        <v>8.664034296028882</v>
       </c>
       <c r="R19">
-        <v>12.81053119319707</v>
+        <v>13.76981910834006</v>
       </c>
       <c r="S19">
-        <v>7.755710793818795</v>
+        <v>7.927348045734176</v>
       </c>
       <c r="T19">
-        <v>7.156560737762354</v>
+        <v>8.936271334545697</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5861340605319174</v>
+        <v>0.6071164128052144</v>
       </c>
       <c r="C20">
-        <v>0.7743905708076096</v>
+        <v>0.8156545255092148</v>
       </c>
       <c r="D20">
-        <v>1.349728813003867</v>
+        <v>1.450692469030609</v>
       </c>
       <c r="E20">
-        <v>0.9746115290047581</v>
+        <v>0.9950616461110203</v>
       </c>
       <c r="F20">
-        <v>0.6207541970603681</v>
+        <v>0.6362081970707663</v>
       </c>
       <c r="G20">
-        <v>1.324532819115039</v>
+        <v>1.353274578315866</v>
       </c>
       <c r="H20">
-        <v>0.5044643362341146</v>
+        <v>0.5390401394185612</v>
       </c>
       <c r="I20">
-        <v>0.6052832206764719</v>
+        <v>0.623829503204163</v>
       </c>
       <c r="J20">
-        <v>1.627860021279983</v>
+        <v>1.708493027454529</v>
       </c>
       <c r="K20">
-        <v>1.281780505014404</v>
+        <v>1.348023783214728</v>
       </c>
       <c r="L20">
-        <v>1.212878463950482</v>
+        <v>1.288333811821717</v>
       </c>
       <c r="M20">
-        <v>1.030309782446859</v>
+        <v>1.061355540792113</v>
       </c>
       <c r="N20">
-        <v>1.190296008572194</v>
+        <v>1.253439760246451</v>
       </c>
       <c r="O20">
-        <v>0.6818214343396759</v>
+        <v>0.7038278089100878</v>
       </c>
       <c r="P20">
-        <v>1.444517131826221</v>
+        <v>1.587689415549226</v>
       </c>
       <c r="Q20">
-        <v>0.8856635868567582</v>
+        <v>0.9219013237063781</v>
       </c>
       <c r="R20">
-        <v>0.6533644685261372</v>
+        <v>0.702290202314115</v>
       </c>
       <c r="S20">
-        <v>0.5746299459669647</v>
+        <v>0.5873467565103205</v>
       </c>
       <c r="T20">
-        <v>0.4781565951483199</v>
+        <v>0.5970657179085055</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>24.55763256764041</v>
+        <v>25.43674356327988</v>
       </c>
       <c r="C21">
-        <v>21.10484945212202</v>
+        <v>22.2294364300708</v>
       </c>
       <c r="D21">
-        <v>20.0172359408796</v>
+        <v>21.51458363374189</v>
       </c>
       <c r="E21">
-        <v>19.93080576814731</v>
+        <v>20.34901066297037</v>
       </c>
       <c r="F21">
-        <v>20.83462880257049</v>
+        <v>21.35331777037179</v>
       </c>
       <c r="G21">
-        <v>17.28426845252174</v>
+        <v>17.65932920953396</v>
       </c>
       <c r="H21">
-        <v>21.9486367288488</v>
+        <v>23.452988353324</v>
       </c>
       <c r="I21">
-        <v>22.4365153155838</v>
+        <v>23.12398514419499</v>
       </c>
       <c r="J21">
-        <v>18.57540570202998</v>
+        <v>19.49550373446939</v>
       </c>
       <c r="K21">
-        <v>22.37522260921036</v>
+        <v>23.53158915582081</v>
       </c>
       <c r="L21">
-        <v>22.58900698389428</v>
+        <v>23.99430968379045</v>
       </c>
       <c r="M21">
-        <v>22.78620400728223</v>
+        <v>23.47280816776657</v>
       </c>
       <c r="N21">
-        <v>17.94711023305652</v>
+        <v>18.89918254420038</v>
       </c>
       <c r="O21">
-        <v>21.73676377085075</v>
+        <v>22.43833656014443</v>
       </c>
       <c r="P21">
-        <v>24.60179845138456</v>
+        <v>27.04018813218036</v>
       </c>
       <c r="Q21">
-        <v>17.55366211833812</v>
+        <v>18.27188628158845</v>
       </c>
       <c r="R21">
-        <v>21.0874677106754</v>
+        <v>22.6665554651755</v>
       </c>
       <c r="S21">
-        <v>13.82268389374716</v>
+        <v>14.12858589817835</v>
       </c>
       <c r="T21">
-        <v>17.51586848076345</v>
+        <v>21.87175643998799</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>68.36153853235314</v>
+        <v>70.80873616172941</v>
       </c>
       <c r="C22">
-        <v>57.23273163670557</v>
+        <v>60.28241862248999</v>
       </c>
       <c r="D22">
-        <v>60.33301824572327</v>
+        <v>64.84610416530117</v>
       </c>
       <c r="E22">
-        <v>64.28964872287004</v>
+        <v>65.63862809154806</v>
       </c>
       <c r="F22">
-        <v>65.93649687787581</v>
+        <v>67.57802041208917</v>
       </c>
       <c r="G22">
-        <v>65.20091076129854</v>
+        <v>66.61574084306874</v>
       </c>
       <c r="H22">
-        <v>60.52906319409652</v>
+        <v>64.67770329730247</v>
       </c>
       <c r="I22">
-        <v>69.95051535028409</v>
+        <v>72.09384590419249</v>
       </c>
       <c r="J22">
-        <v>57.71566927220784</v>
+        <v>60.57450716733273</v>
       </c>
       <c r="K22">
-        <v>66.52097160535675</v>
+        <v>69.95882013790251</v>
       </c>
       <c r="L22">
-        <v>63.16917109522937</v>
+        <v>67.09903869647549</v>
       </c>
       <c r="M22">
-        <v>78.41750549607394</v>
+        <v>80.7804170855252</v>
       </c>
       <c r="N22">
-        <v>55.92812416287168</v>
+        <v>58.89504294468256</v>
       </c>
       <c r="O22">
-        <v>70.10680676546774</v>
+        <v>72.36956439072561</v>
       </c>
       <c r="P22">
-        <v>55.19955748012692</v>
+        <v>60.67062219151434</v>
       </c>
       <c r="Q22">
-        <v>53.35579758918191</v>
+        <v>55.53889891696753</v>
       </c>
       <c r="R22">
-        <v>60.65264494347391</v>
+        <v>65.19448231448246</v>
       </c>
       <c r="S22">
-        <v>44.45598392213088</v>
+        <v>45.4398141750163</v>
       </c>
       <c r="T22">
-        <v>55.08499303446895</v>
+        <v>68.78366051169543</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>5.911338917569272</v>
+        <v>6.122952273501406</v>
       </c>
       <c r="C23">
-        <v>5.497956540924856</v>
+        <v>5.790919082319849</v>
       </c>
       <c r="D23">
-        <v>5.599550616110638</v>
+        <v>6.018413351248607</v>
       </c>
       <c r="E23">
-        <v>6.663405672962669</v>
+        <v>6.803222843479593</v>
       </c>
       <c r="F23">
-        <v>10.24836614899889</v>
+        <v>10.50350457790233</v>
       </c>
       <c r="G23">
-        <v>5.234831403809746</v>
+        <v>5.34842486219287</v>
       </c>
       <c r="H23">
-        <v>4.603052147191928</v>
+        <v>4.918543676835347</v>
       </c>
       <c r="I23">
-        <v>3.811965271136812</v>
+        <v>3.928766435433482</v>
       </c>
       <c r="J23">
-        <v>5.428054389624752</v>
+        <v>5.696922927086739</v>
       </c>
       <c r="K23">
-        <v>4.99477617213542</v>
+        <v>5.252909562544099</v>
       </c>
       <c r="L23">
-        <v>3.463956589904913</v>
+        <v>3.679455551483315</v>
       </c>
       <c r="M23">
-        <v>4.925175355820088</v>
+        <v>5.073582957601424</v>
       </c>
       <c r="N23">
-        <v>11.04421711759979</v>
+        <v>11.63009936713099</v>
       </c>
       <c r="O23">
-        <v>3.756687881160671</v>
+        <v>3.877938221049168</v>
       </c>
       <c r="P23">
-        <v>4.108515343784668</v>
+        <v>4.515727907430068</v>
       </c>
       <c r="Q23">
-        <v>5.597882885639113</v>
+        <v>5.826925391095068</v>
       </c>
       <c r="R23">
-        <v>3.607193413437054</v>
+        <v>3.877310007113602</v>
       </c>
       <c r="S23">
-        <v>10.09942619141439</v>
+        <v>10.32293088408526</v>
       </c>
       <c r="T23">
-        <v>11.11638901865261</v>
+        <v>13.88083915879742</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2138389354696497</v>
+        <v>0.2214939143830047</v>
       </c>
       <c r="C24">
-        <v>0.2562056408543349</v>
+        <v>0.2698577414312873</v>
       </c>
       <c r="D24">
-        <v>0.2490403994887593</v>
+        <v>0.2676693484957724</v>
       </c>
       <c r="E24">
-        <v>0.09879623718678371</v>
+        <v>0.1008692627564596</v>
       </c>
       <c r="F24">
-        <v>0.1644197424312535</v>
+        <v>0.1685130578099897</v>
       </c>
       <c r="G24">
-        <v>0.3008445560374344</v>
+        <v>0.3073727459484136</v>
       </c>
       <c r="H24">
-        <v>0.304749716317383</v>
+        <v>0.3256371516722099</v>
       </c>
       <c r="I24">
-        <v>0.1187117212464751</v>
+        <v>0.1223491277470635</v>
       </c>
       <c r="J24">
-        <v>0.1738423773259272</v>
+        <v>0.1824533348413636</v>
       </c>
       <c r="K24">
-        <v>0.1257651151525827</v>
+        <v>0.1322647408516447</v>
       </c>
       <c r="L24">
-        <v>0.1792356402581801</v>
+        <v>0.1903862113900597</v>
       </c>
       <c r="M24">
-        <v>0.1356690834674194</v>
+        <v>0.1397571253864708</v>
       </c>
       <c r="N24">
-        <v>0.137975488882936</v>
+        <v>0.1452949203053844</v>
       </c>
       <c r="O24">
-        <v>0.3253474018207801</v>
+        <v>0.335848269686444</v>
       </c>
       <c r="P24">
-        <v>0.2236072513657801</v>
+        <v>0.2457699243654341</v>
       </c>
       <c r="Q24">
-        <v>0.2777886556935691</v>
+        <v>0.2891546329723225</v>
       </c>
       <c r="R24">
-        <v>0.2249408815763825</v>
+        <v>0.2417850753153918</v>
       </c>
       <c r="S24">
-        <v>0.2331519755796049</v>
+        <v>0.2383117301696057</v>
       </c>
       <c r="T24">
-        <v>0.2879465030531549</v>
+        <v>0.3595537263505623</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.043777163823234</v>
+        <v>2.116940037826056</v>
       </c>
       <c r="C25">
-        <v>1.932007043850859</v>
+        <v>2.034955419187482</v>
       </c>
       <c r="D25">
-        <v>2.378160434554631</v>
+        <v>2.556053778593432</v>
       </c>
       <c r="E25">
-        <v>1.485948810660679</v>
+        <v>1.517128235782967</v>
       </c>
       <c r="F25">
-        <v>2.003691437424936</v>
+        <v>2.053574382464112</v>
       </c>
       <c r="G25">
-        <v>1.209504018277197</v>
+        <v>1.235749704865002</v>
       </c>
       <c r="H25">
-        <v>2.082209833576294</v>
+        <v>2.224923742614736</v>
       </c>
       <c r="I25">
-        <v>1.563037663078589</v>
+        <v>1.610930182003002</v>
       </c>
       <c r="J25">
-        <v>2.095843701041379</v>
+        <v>2.19965740484748</v>
       </c>
       <c r="K25">
-        <v>2.734660062038717</v>
+        <v>2.87598913247181</v>
       </c>
       <c r="L25">
-        <v>2.575373119133427</v>
+        <v>2.735591706880053</v>
       </c>
       <c r="M25">
-        <v>2.081551366342978</v>
+        <v>2.144273609500995</v>
       </c>
       <c r="N25">
-        <v>1.520476158585588</v>
+        <v>1.601135564559336</v>
       </c>
       <c r="O25">
-        <v>1.975058828820909</v>
+        <v>2.038805555158026</v>
       </c>
       <c r="P25">
-        <v>2.510402176675243</v>
+        <v>2.759218895271997</v>
       </c>
       <c r="Q25">
-        <v>1.722425503273573</v>
+        <v>1.792900120336944</v>
       </c>
       <c r="R25">
-        <v>2.372978313208745</v>
+        <v>2.550673475448886</v>
       </c>
       <c r="S25">
-        <v>0.6384777177410719</v>
+        <v>0.6526075072336895</v>
       </c>
       <c r="T25">
-        <v>2.321615669525176</v>
+        <v>2.898960592612366</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>25.84297379486986</v>
+        <v>26.76809727167557</v>
       </c>
       <c r="C26">
-        <v>24.76534243920142</v>
+        <v>26.08498140060457</v>
       </c>
       <c r="D26">
-        <v>25.18394732745625</v>
+        <v>27.0677801173232</v>
       </c>
       <c r="E26">
-        <v>24.79051257030802</v>
+        <v>25.3106879120719</v>
       </c>
       <c r="F26">
-        <v>24.35014583777433</v>
+        <v>24.95635543863115</v>
       </c>
       <c r="G26">
-        <v>22.05217821506071</v>
+        <v>22.53070044339966</v>
       </c>
       <c r="H26">
-        <v>25.70844936972563</v>
+        <v>27.47049719300809</v>
       </c>
       <c r="I26">
-        <v>23.74161146089227</v>
+        <v>24.46907030788338</v>
       </c>
       <c r="J26">
-        <v>23.82683623629159</v>
+        <v>25.0070540733573</v>
       </c>
       <c r="K26">
-        <v>25.96025958358893</v>
+        <v>27.30190325114415</v>
       </c>
       <c r="L26">
-        <v>26.99395068515464</v>
+        <v>28.67329284507157</v>
       </c>
       <c r="M26">
-        <v>25.08870216670072</v>
+        <v>25.84468623861125</v>
       </c>
       <c r="N26">
-        <v>24.33860166086258</v>
+        <v>25.6297347977498</v>
       </c>
       <c r="O26">
-        <v>22.46675737174704</v>
+        <v>23.19189133381447</v>
       </c>
       <c r="P26">
-        <v>22.5050339697278</v>
+        <v>24.73560433661311</v>
       </c>
       <c r="Q26">
-        <v>22.43092455485529</v>
+        <v>23.34870637785801</v>
       </c>
       <c r="R26">
-        <v>26.75686585093278</v>
+        <v>28.76049377789435</v>
       </c>
       <c r="S26">
-        <v>27.58582435988476</v>
+        <v>28.19631064680569</v>
       </c>
       <c r="T26">
-        <v>24.63709374687177</v>
+        <v>30.76390499349328</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.425167726539509</v>
+        <v>6.655175060579993</v>
       </c>
       <c r="C27">
-        <v>6.824452225122792</v>
+        <v>7.188098036547189</v>
       </c>
       <c r="D27">
-        <v>6.103243593104804</v>
+        <v>6.559784033558365</v>
       </c>
       <c r="E27">
-        <v>5.184132283733529</v>
+        <v>5.292910098423413</v>
       </c>
       <c r="F27">
-        <v>6.378231957449684</v>
+        <v>6.537021373942609</v>
       </c>
       <c r="G27">
-        <v>5.106870370925045</v>
+        <v>5.217687133146939</v>
       </c>
       <c r="H27">
-        <v>5.968508400400397</v>
+        <v>6.377587807871512</v>
       </c>
       <c r="I27">
-        <v>5.221850158039394</v>
+        <v>5.381851137812187</v>
       </c>
       <c r="J27">
-        <v>6.495446586405945</v>
+        <v>6.81718640301271</v>
       </c>
       <c r="K27">
-        <v>6.723315312953476</v>
+        <v>7.070780768202751</v>
       </c>
       <c r="L27">
-        <v>5.898067721377232</v>
+        <v>6.264997108708489</v>
       </c>
       <c r="M27">
-        <v>5.809737780027663</v>
+        <v>5.984799415121214</v>
       </c>
       <c r="N27">
-        <v>6.101125100455398</v>
+        <v>6.424782346638093</v>
       </c>
       <c r="O27">
-        <v>5.310054975047584</v>
+        <v>5.481441577000846</v>
       </c>
       <c r="P27">
-        <v>6.551763905033765</v>
+        <v>7.201137304649825</v>
       </c>
       <c r="Q27">
-        <v>6.349066878786025</v>
+        <v>6.608844765342962</v>
       </c>
       <c r="R27">
-        <v>6.387137137392544</v>
+        <v>6.865423585929151</v>
       </c>
       <c r="S27">
-        <v>5.698234283165544</v>
+        <v>5.824338685345164</v>
       </c>
       <c r="T27">
-        <v>6.133335696886783</v>
+        <v>7.658588249524509</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6422860112127966</v>
+        <v>0.6652784838482335</v>
       </c>
       <c r="C28">
-        <v>0.4756042741493148</v>
+        <v>0.5009471876146996</v>
       </c>
       <c r="D28">
-        <v>0.2665784557907846</v>
+        <v>0.286519302615193</v>
       </c>
       <c r="E28">
-        <v>0.596115133836472</v>
+        <v>0.6086233219021516</v>
       </c>
       <c r="F28">
-        <v>0.1741734559653109</v>
+        <v>0.178509595137701</v>
       </c>
       <c r="G28">
-        <v>0.2627285036888001</v>
+        <v>0.2684295926155829</v>
       </c>
       <c r="H28">
-        <v>0.6457439377307653</v>
+        <v>0.6900029937132023</v>
       </c>
       <c r="I28">
-        <v>0.3202285320043804</v>
+        <v>0.3300405483053502</v>
       </c>
       <c r="J28">
-        <v>0.5695076281197375</v>
+        <v>0.5977171249403072</v>
       </c>
       <c r="K28">
-        <v>0.6836650155096792</v>
+        <v>0.7189972831179524</v>
       </c>
       <c r="L28">
-        <v>0.4982143220735855</v>
+        <v>0.5292091299655897</v>
       </c>
       <c r="M28">
-        <v>0.4426688380565513</v>
+        <v>0.4560075348324276</v>
       </c>
       <c r="N28">
-        <v>0.5285628181087597</v>
+        <v>0.5566024310206269</v>
       </c>
       <c r="O28">
-        <v>0.1489631611981249</v>
+        <v>0.1537710756423126</v>
       </c>
       <c r="P28">
-        <v>0.4436425019110205</v>
+        <v>0.4876138116004299</v>
       </c>
       <c r="Q28">
-        <v>0.6683228293458973</v>
+        <v>0.6956678700361012</v>
       </c>
       <c r="R28">
-        <v>0.6126679274514627</v>
+        <v>0.6585461919774486</v>
       </c>
       <c r="S28">
-        <v>0.1893911432400483</v>
+        <v>0.1935824515839259</v>
       </c>
       <c r="T28">
-        <v>0.1887064550035036</v>
+        <v>0.2356344264072876</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>9.372760534883744</v>
+        <v>9.708285419988893</v>
       </c>
       <c r="C29">
-        <v>9.443523410081616</v>
+        <v>9.946728300361674</v>
       </c>
       <c r="D29">
-        <v>8.458955315592842</v>
+        <v>9.09170987087894</v>
       </c>
       <c r="E29">
-        <v>10.19470361024703</v>
+        <v>10.40861743795034</v>
       </c>
       <c r="F29">
-        <v>12.55302931833189</v>
+        <v>12.86554354076438</v>
       </c>
       <c r="G29">
-        <v>8.606060105288055</v>
+        <v>8.792807691791269</v>
       </c>
       <c r="H29">
-        <v>7.834730570955633</v>
+        <v>8.37172017114575</v>
       </c>
       <c r="I29">
-        <v>8.136882424202838</v>
+        <v>8.386201941378966</v>
       </c>
       <c r="J29">
-        <v>9.944479352552341</v>
+        <v>10.43706056626536</v>
       </c>
       <c r="K29">
-        <v>9.898153278026232</v>
+        <v>10.40969649365532</v>
       </c>
       <c r="L29">
-        <v>7.503593753181439</v>
+        <v>7.97040579887199</v>
       </c>
       <c r="M29">
-        <v>10.33565840450077</v>
+        <v>10.64709711801388</v>
       </c>
       <c r="N29">
-        <v>8.30598714170908</v>
+        <v>8.746609630324135</v>
       </c>
       <c r="O29">
-        <v>9.874553033849828</v>
+        <v>10.19326274556305</v>
       </c>
       <c r="P29">
-        <v>8.612808378485125</v>
+        <v>9.466460728912692</v>
       </c>
       <c r="Q29">
-        <v>8.675971363886678</v>
+        <v>9.030956678700361</v>
       </c>
       <c r="R29">
-        <v>7.320937770778709</v>
+        <v>7.869149786745021</v>
       </c>
       <c r="S29">
-        <v>9.839730760153417</v>
+        <v>10.05748828001942</v>
       </c>
       <c r="T29">
-        <v>10.03677758683973</v>
+        <v>12.53274738062665</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>16.83943156583299</v>
+        <v>17.44224738731201</v>
       </c>
       <c r="C30">
-        <v>19.22624865453376</v>
+        <v>20.25073304712533</v>
       </c>
       <c r="D30">
-        <v>18.4802006865701</v>
+        <v>19.86257365471587</v>
       </c>
       <c r="E30">
-        <v>17.07506047973473</v>
+        <v>17.43334373005054</v>
       </c>
       <c r="F30">
-        <v>19.23780655828052</v>
+        <v>19.71674180214935</v>
       </c>
       <c r="G30">
-        <v>16.31707362417514</v>
+        <v>16.67114669371339</v>
       </c>
       <c r="H30">
-        <v>16.62957068506651</v>
+        <v>17.76935544634618</v>
       </c>
       <c r="I30">
-        <v>14.99504908559642</v>
+        <v>15.45450741412444</v>
       </c>
       <c r="J30">
-        <v>21.43754660232404</v>
+        <v>22.4994154392976</v>
       </c>
       <c r="K30">
-        <v>20.30375417184253</v>
+        <v>21.35306583702599</v>
       </c>
       <c r="L30">
-        <v>15.11958951805021</v>
+        <v>16.06020634048012</v>
       </c>
       <c r="M30">
-        <v>16.89351427336306</v>
+        <v>17.40255725312335</v>
       </c>
       <c r="N30">
-        <v>21.72255893383338</v>
+        <v>22.87491419434771</v>
       </c>
       <c r="O30">
-        <v>16.75576174889754</v>
+        <v>17.29656840396541</v>
       </c>
       <c r="P30">
-        <v>21.99638105288296</v>
+        <v>24.1765366492387</v>
       </c>
       <c r="Q30">
-        <v>19.16741724285627</v>
+        <v>19.95166967509025</v>
       </c>
       <c r="R30">
-        <v>20.2017629894684</v>
+        <v>21.71452673112114</v>
       </c>
       <c r="S30">
-        <v>17.80276746456454</v>
+        <v>18.19675044888903</v>
       </c>
       <c r="T30">
-        <v>17.49857665420935</v>
+        <v>21.85016444075545</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.045848493248489</v>
+        <v>9.36967062282063</v>
       </c>
       <c r="C31">
-        <v>8.523348221097736</v>
+        <v>8.977520919164798</v>
       </c>
       <c r="D31">
-        <v>9.504223471193551</v>
+        <v>10.21516713639641</v>
       </c>
       <c r="E31">
-        <v>7.480477256183096</v>
+        <v>7.637438908438421</v>
       </c>
       <c r="F31">
-        <v>9.250003899405732</v>
+        <v>9.480287578573023</v>
       </c>
       <c r="G31">
-        <v>8.029554813514963</v>
+        <v>8.203792497632206</v>
       </c>
       <c r="H31">
-        <v>8.472337987134235</v>
+        <v>9.053028969061879</v>
       </c>
       <c r="I31">
-        <v>6.806138684797907</v>
+        <v>7.014683324164971</v>
       </c>
       <c r="J31">
-        <v>8.267248096111794</v>
+        <v>8.676750791715888</v>
       </c>
       <c r="K31">
-        <v>8.813063563570227</v>
+        <v>9.26852861328415</v>
       </c>
       <c r="L31">
-        <v>7.619033657076538</v>
+        <v>8.093027426546945</v>
       </c>
       <c r="M31">
-        <v>9.277439553454903</v>
+        <v>9.556991539999409</v>
       </c>
       <c r="N31">
-        <v>9.626021296544334</v>
+        <v>10.13666998727565</v>
       </c>
       <c r="O31">
-        <v>9.089717274104483</v>
+        <v>9.383095735089377</v>
       </c>
       <c r="P31">
-        <v>9.745132638596184</v>
+        <v>10.71101449926162</v>
       </c>
       <c r="Q31">
-        <v>8.83693936241816</v>
+        <v>9.198510830324912</v>
       </c>
       <c r="R31">
-        <v>8.174085259125977</v>
+        <v>8.786183312530044</v>
       </c>
       <c r="S31">
-        <v>8.848296820919529</v>
+        <v>9.044113476652052</v>
       </c>
       <c r="T31">
-        <v>9.52178188294571</v>
+        <v>11.88968131652708</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>3.36680942644121</v>
+        <v>3.487334040483494</v>
       </c>
       <c r="C32">
-        <v>4.653560485151415</v>
+        <v>4.90152877957448</v>
       </c>
       <c r="D32">
-        <v>4.950642532935702</v>
+        <v>5.320965048830045</v>
       </c>
       <c r="E32">
-        <v>3.300328355753098</v>
+        <v>3.369578615323894</v>
       </c>
       <c r="F32">
-        <v>3.823455705350505</v>
+        <v>3.918642632462812</v>
       </c>
       <c r="G32">
-        <v>4.164178719088288</v>
+        <v>4.254539501611752</v>
       </c>
       <c r="H32">
-        <v>4.231730890902301</v>
+        <v>4.521772195914354</v>
       </c>
       <c r="I32">
-        <v>3.693253549890337</v>
+        <v>3.806417307686418</v>
       </c>
       <c r="J32">
-        <v>5.887693635274504</v>
+        <v>6.179329544407304</v>
       </c>
       <c r="K32">
-        <v>4.489522133935218</v>
+        <v>4.721543655983131</v>
       </c>
       <c r="L32">
-        <v>3.24598782399772</v>
+        <v>3.447926557123369</v>
       </c>
       <c r="M32">
-        <v>3.669267268864548</v>
+        <v>3.779831282595237</v>
       </c>
       <c r="N32">
-        <v>5.859496383605679</v>
+        <v>6.170335521028663</v>
       </c>
       <c r="O32">
-        <v>5.092168560160776</v>
+        <v>5.256522690240449</v>
       </c>
       <c r="P32">
-        <v>6.85681277510785</v>
+        <v>7.536420875589252</v>
       </c>
       <c r="Q32">
-        <v>5.44166921617818</v>
+        <v>5.664320096269556</v>
       </c>
       <c r="R32">
-        <v>6.01198902239509</v>
+        <v>6.462183345189337</v>
       </c>
       <c r="S32">
-        <v>3.325823257806302</v>
+        <v>3.399425172511668</v>
       </c>
       <c r="T32">
-        <v>5.174767050952651</v>
+        <v>6.461640465981515</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.279153833800618</v>
+        <v>2.360742691787205</v>
       </c>
       <c r="C33">
-        <v>2.72083173526998</v>
+        <v>2.865813197735079</v>
       </c>
       <c r="D33">
-        <v>2.181032681719866</v>
+        <v>2.344180294291145</v>
       </c>
       <c r="E33">
-        <v>3.794977083830171</v>
+        <v>3.87460647817887</v>
       </c>
       <c r="F33">
-        <v>3.479985650186912</v>
+        <v>3.566621710851266</v>
       </c>
       <c r="G33">
-        <v>2.069157127497286</v>
+        <v>2.114056895210808</v>
       </c>
       <c r="H33">
-        <v>2.514924843395879</v>
+        <v>2.68729688273183</v>
       </c>
       <c r="I33">
-        <v>1.869343215430605</v>
+        <v>1.926621141251598</v>
       </c>
       <c r="J33">
-        <v>4.396126037818047</v>
+        <v>4.613879931468404</v>
       </c>
       <c r="K33">
-        <v>2.518227073171481</v>
+        <v>2.648370741238747</v>
       </c>
       <c r="L33">
-        <v>1.710333312972125</v>
+        <v>1.816736220552603</v>
       </c>
       <c r="M33">
-        <v>2.748268005097153</v>
+        <v>2.831080054257366</v>
       </c>
       <c r="N33">
-        <v>5.098915081703724</v>
+        <v>5.369406308598982</v>
       </c>
       <c r="O33">
-        <v>1.508159368349175</v>
+        <v>1.556836512100031</v>
       </c>
       <c r="P33">
-        <v>3.860618486839218</v>
+        <v>4.243260930577653</v>
       </c>
       <c r="Q33">
-        <v>3.58816006853087</v>
+        <v>3.734972924187727</v>
       </c>
       <c r="R33">
-        <v>1.839483656575285</v>
+        <v>1.977229267217316</v>
       </c>
       <c r="S33">
-        <v>1.409672713888996</v>
+        <v>1.440869383948539</v>
       </c>
       <c r="T33">
-        <v>1.897590009676666</v>
+        <v>2.369487220127465</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.19688267478696</v>
+        <v>1.239728527985451</v>
       </c>
       <c r="C34">
-        <v>1.428256234509096</v>
+        <v>1.504361888147937</v>
       </c>
       <c r="D34">
-        <v>1.144884315396212</v>
+        <v>1.230525004915776</v>
       </c>
       <c r="E34">
-        <v>1.991945755171369</v>
+        <v>2.033742432873483</v>
       </c>
       <c r="F34">
-        <v>1.826731206164181</v>
+        <v>1.872208633804208</v>
       </c>
       <c r="G34">
-        <v>1.086307491936075</v>
+        <v>1.109879869985674</v>
       </c>
       <c r="H34">
-        <v>1.320335542782836</v>
+        <v>1.410830863434211</v>
       </c>
       <c r="I34">
-        <v>0.9812036712903097</v>
+        <v>1.011268407736531</v>
       </c>
       <c r="J34">
-        <v>2.30793140137901</v>
+        <v>2.422250473353944</v>
       </c>
       <c r="K34">
-        <v>1.321996094162032</v>
+        <v>1.390317741045196</v>
       </c>
       <c r="L34">
-        <v>0.8976971473947833</v>
+        <v>0.9535444994197057</v>
       </c>
       <c r="M34">
-        <v>1.442743796187814</v>
+        <v>1.486217201966984</v>
       </c>
       <c r="N34">
-        <v>2.676449906241629</v>
+        <v>2.818432309804447</v>
       </c>
       <c r="O34">
-        <v>0.7915057520377976</v>
+        <v>0.8170522825173627</v>
       </c>
       <c r="P34">
-        <v>2.02603886541007</v>
+        <v>2.226848260384572</v>
       </c>
       <c r="Q34">
-        <v>1.883393501805054</v>
+        <v>1.960454271961493</v>
       </c>
       <c r="R34">
-        <v>0.9656179291354574</v>
+        <v>1.037926063442718</v>
       </c>
       <c r="S34">
-        <v>0.7396298056079157</v>
+        <v>0.7559981347841952</v>
       </c>
       <c r="T34">
-        <v>0.9961595732256664</v>
+        <v>1.243886912309386</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.062973528921385</v>
+        <v>3.172621464291816</v>
       </c>
       <c r="C35">
-        <v>3.927524218392369</v>
+        <v>4.136805151743847</v>
       </c>
       <c r="D35">
-        <v>4.057604706036574</v>
+        <v>4.361125385069148</v>
       </c>
       <c r="E35">
-        <v>3.693510678070772</v>
+        <v>3.771011019131696</v>
       </c>
       <c r="F35">
-        <v>4.193400125820825</v>
+        <v>4.297797012535289</v>
       </c>
       <c r="G35">
-        <v>2.977135945945108</v>
+        <v>3.041738440675025</v>
       </c>
       <c r="H35">
-        <v>4.977332138591432</v>
+        <v>5.318476683500731</v>
       </c>
       <c r="I35">
-        <v>3.063788311922916</v>
+        <v>3.157664834015261</v>
       </c>
       <c r="J35">
-        <v>6.452333676829115</v>
+        <v>6.771937975972053</v>
       </c>
       <c r="K35">
-        <v>2.976684789454442</v>
+        <v>3.130521860506079</v>
       </c>
       <c r="L35">
-        <v>2.491831083419869</v>
+        <v>2.646852371062652</v>
       </c>
       <c r="M35">
-        <v>4.18170877841863</v>
+        <v>4.307713910483564</v>
       </c>
       <c r="N35">
-        <v>5.103033753013662</v>
+        <v>5.373743470399143</v>
       </c>
       <c r="O35">
-        <v>2.599814773547373</v>
+        <v>2.683726036583248</v>
       </c>
       <c r="P35">
-        <v>5.553746875774997</v>
+        <v>6.104202530405381</v>
       </c>
       <c r="Q35">
-        <v>7.175640947194517</v>
+        <v>7.469238868832733</v>
       </c>
       <c r="R35">
-        <v>6.077843425225018</v>
+        <v>6.532969107370488</v>
       </c>
       <c r="S35">
-        <v>2.027346101501426</v>
+        <v>2.072212152182479</v>
       </c>
       <c r="T35">
-        <v>2.730604958457072</v>
+        <v>3.409658313590711</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.096083090484875</v>
+        <v>2.171118405372978</v>
       </c>
       <c r="C36">
-        <v>1.843958908120636</v>
+        <v>1.94221557565335</v>
       </c>
       <c r="D36">
-        <v>3.124580110768827</v>
+        <v>3.358307825915972</v>
       </c>
       <c r="E36">
-        <v>2.07338589663615</v>
+        <v>2.116891419740294</v>
       </c>
       <c r="F36">
-        <v>2.595184493883132</v>
+        <v>2.659792967551744</v>
       </c>
       <c r="G36">
-        <v>1.438880976160942</v>
+        <v>1.470104038314358</v>
       </c>
       <c r="H36">
-        <v>2.020076396268866</v>
+        <v>2.158531701982538</v>
       </c>
       <c r="I36">
-        <v>1.545450741412445</v>
+        <v>1.592804385299733</v>
       </c>
       <c r="J36">
-        <v>2.298196228248758</v>
+        <v>2.412033086602827</v>
       </c>
       <c r="K36">
-        <v>2.464850018484629</v>
+        <v>2.592235124481944</v>
       </c>
       <c r="L36">
-        <v>1.676916498686702</v>
+        <v>1.781240486225643</v>
       </c>
       <c r="M36">
-        <v>2.05984431298819</v>
+        <v>2.12191246943916</v>
       </c>
       <c r="N36">
-        <v>2.390888695419234</v>
+        <v>2.517722424993303</v>
       </c>
       <c r="O36">
-        <v>2.156630841226584</v>
+        <v>2.226237960791691</v>
       </c>
       <c r="P36">
-        <v>2.684715816717576</v>
+        <v>2.950809507237384</v>
       </c>
       <c r="Q36">
-        <v>2.764981949458483</v>
+        <v>2.878113718411553</v>
       </c>
       <c r="R36">
-        <v>2.555002842379107</v>
+        <v>2.746328503500158</v>
       </c>
       <c r="S36">
-        <v>0.9799556881284317</v>
+        <v>1.001642533574404</v>
       </c>
       <c r="T36">
-        <v>1.319441547932864</v>
+        <v>1.647563419700357</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>89.90234985930303</v>
+        <v>93.12066270267064</v>
       </c>
       <c r="C37">
-        <v>78.51872930250205</v>
+        <v>82.70265587819249</v>
       </c>
       <c r="D37">
-        <v>82.879943427607</v>
+        <v>89.07960518122827</v>
       </c>
       <c r="E37">
-        <v>67.81226861229339</v>
+        <v>69.23516254807397</v>
       </c>
       <c r="F37">
-        <v>76.6579181332765</v>
+        <v>78.56635705038551</v>
       </c>
       <c r="G37">
-        <v>68.0391953736879</v>
+        <v>69.51561493945987</v>
       </c>
       <c r="H37">
-        <v>77.52995513545265</v>
+        <v>82.84383022456964</v>
       </c>
       <c r="I37">
-        <v>78.26766372156492</v>
+        <v>80.66583726177996</v>
       </c>
       <c r="J37">
-        <v>69.18092174160739</v>
+        <v>72.60766950679034</v>
       </c>
       <c r="K37">
-        <v>83.26454934883927</v>
+        <v>87.56771723535491</v>
       </c>
       <c r="L37">
-        <v>82.45295135707451</v>
+        <v>87.58249756683568</v>
       </c>
       <c r="M37">
-        <v>74.00787265743004</v>
+        <v>76.23791120439238</v>
       </c>
       <c r="N37">
-        <v>78.56502812751138</v>
+        <v>82.73280705866595</v>
       </c>
       <c r="O37">
-        <v>81.4658036395158</v>
+        <v>84.09518268112227</v>
       </c>
       <c r="P37">
-        <v>80.76936815387771</v>
+        <v>88.77476638604347</v>
       </c>
       <c r="Q37">
-        <v>86.53693936241817</v>
+        <v>90.0776774969916</v>
       </c>
       <c r="R37">
-        <v>85.57372682338365</v>
+        <v>91.98172355337192</v>
       </c>
       <c r="S37">
-        <v>70.55967910802345</v>
+        <v>72.12119548480536</v>
       </c>
       <c r="T37">
-        <v>78.48910436617838</v>
+        <v>98.00796208165104</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.52753947544733</v>
+        <v>4.689615755605631</v>
       </c>
       <c r="C38">
-        <v>6.903118182455533</v>
+        <v>7.270955765606375</v>
       </c>
       <c r="D38">
-        <v>3.849252597168513</v>
+        <v>4.137187930130431</v>
       </c>
       <c r="E38">
-        <v>3.576690803018831</v>
+        <v>3.651739931412909</v>
       </c>
       <c r="F38">
-        <v>3.509246790789084</v>
+        <v>3.596611322834399</v>
       </c>
       <c r="G38">
-        <v>2.892736115744561</v>
+        <v>2.955507172580899</v>
       </c>
       <c r="H38">
-        <v>6.504039455288224</v>
+        <v>6.949823967606171</v>
       </c>
       <c r="I38">
-        <v>5.25555842456617</v>
+        <v>5.416592248160118</v>
       </c>
       <c r="J38">
-        <v>3.877380383877481</v>
+        <v>4.069439180301774</v>
       </c>
       <c r="K38">
-        <v>3.847535092633082</v>
+        <v>4.046378292798573</v>
       </c>
       <c r="L38">
-        <v>6.403876773970232</v>
+        <v>6.802273451021115</v>
       </c>
       <c r="M38">
-        <v>4.863155203377839</v>
+        <v>5.00969398599618</v>
       </c>
       <c r="N38">
-        <v>5.334365791588535</v>
+        <v>5.61734739150817</v>
       </c>
       <c r="O38">
-        <v>3.340183918009695</v>
+        <v>3.447991233432354</v>
       </c>
       <c r="P38">
-        <v>7.118997635335456</v>
+        <v>7.82459200096342</v>
       </c>
       <c r="Q38">
-        <v>4.920051398152114</v>
+        <v>5.121359807460892</v>
       </c>
       <c r="R38">
-        <v>7.495562928844587</v>
+        <v>8.056851358371445</v>
       </c>
       <c r="S38">
-        <v>3.421236220120418</v>
+        <v>3.496949665165691</v>
       </c>
       <c r="T38">
-        <v>3.570386274149955</v>
+        <v>4.458278450231906</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>27.07139386661457</v>
+        <v>28.04049216832902</v>
       </c>
       <c r="C39">
-        <v>25.1269171605198</v>
+        <v>26.46582288921605</v>
       </c>
       <c r="D39">
-        <v>25.89809698007472</v>
+        <v>27.835350249066</v>
       </c>
       <c r="E39">
-        <v>25.74176012430238</v>
+        <v>26.28189534063916</v>
       </c>
       <c r="F39">
-        <v>27.76812573763758</v>
+        <v>28.45942773361339</v>
       </c>
       <c r="G39">
-        <v>29.10432854334999</v>
+        <v>29.73587922342571</v>
       </c>
       <c r="H39">
-        <v>25.23875017103259</v>
+        <v>26.96860498108611</v>
       </c>
       <c r="I39">
-        <v>27.38063866897866</v>
+        <v>28.2195997424014</v>
       </c>
       <c r="J39">
-        <v>21.30334028702842</v>
+        <v>22.35856146480007</v>
       </c>
       <c r="K39">
-        <v>31.10931737954525</v>
+        <v>32.71706781554695</v>
       </c>
       <c r="L39">
-        <v>26.58687312931403</v>
+        <v>28.24089026327042</v>
       </c>
       <c r="M39">
-        <v>34.13821765993036</v>
+        <v>35.16688580796139</v>
       </c>
       <c r="N39">
-        <v>19.5149511117064</v>
+        <v>20.55019546946156</v>
       </c>
       <c r="O39">
-        <v>29.99421422890801</v>
+        <v>30.96230335022726</v>
       </c>
       <c r="P39">
-        <v>24.64894886221568</v>
+        <v>27.09201182230214</v>
       </c>
       <c r="Q39">
-        <v>23.48842317811907</v>
+        <v>24.44947352587245</v>
       </c>
       <c r="R39">
-        <v>28.0154988758059</v>
+        <v>30.11337671576107</v>
       </c>
       <c r="S39">
-        <v>32.44184196818736</v>
+        <v>33.15979403609203</v>
       </c>
       <c r="T39">
-        <v>27.81578255864393</v>
+        <v>34.73307772197938</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>4.849836288259501</v>
+        <v>5.023450108578578</v>
       </c>
       <c r="C40">
-        <v>5.4286727619896</v>
+        <v>5.717943467735615</v>
       </c>
       <c r="D40">
-        <v>4.944328832666973</v>
+        <v>5.314179065347053</v>
       </c>
       <c r="E40">
-        <v>3.851718165998256</v>
+        <v>3.932538149356567</v>
       </c>
       <c r="F40">
-        <v>4.088199358417778</v>
+        <v>4.189977217072117</v>
       </c>
       <c r="G40">
-        <v>3.525734842248665</v>
+        <v>3.602241683286837</v>
       </c>
       <c r="H40">
-        <v>5.22808493915355</v>
+        <v>5.586415990337816</v>
       </c>
       <c r="I40">
-        <v>4.404058300563676</v>
+        <v>4.539001591110194</v>
       </c>
       <c r="J40">
-        <v>4.218111443436298</v>
+        <v>4.427047716590847</v>
       </c>
       <c r="K40">
-        <v>5.315038500256533</v>
+        <v>5.589723263084916</v>
       </c>
       <c r="L40">
-        <v>4.690505568790341</v>
+        <v>4.982310345529698</v>
       </c>
       <c r="M40">
-        <v>5.581813719802398</v>
+        <v>5.750007444471943</v>
       </c>
       <c r="N40">
-        <v>3.796042057326547</v>
+        <v>3.997417459148138</v>
       </c>
       <c r="O40">
-        <v>5.498296979745713</v>
+        <v>5.675759254678197</v>
       </c>
       <c r="P40">
-        <v>5.708771711386416</v>
+        <v>6.2745925418664</v>
       </c>
       <c r="Q40">
-        <v>4.407263048399926</v>
+        <v>4.587590252707582</v>
       </c>
       <c r="R40">
-        <v>5.360844365200299</v>
+        <v>5.762279179802677</v>
       </c>
       <c r="S40">
-        <v>3.888257561973719</v>
+        <v>3.974306392366963</v>
       </c>
       <c r="T40">
-        <v>6.120554781607662</v>
+        <v>7.642628945743936</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.704524090328375</v>
+        <v>2.801340298455556</v>
       </c>
       <c r="C41">
-        <v>3.754314771054227</v>
+        <v>3.954366115283258</v>
       </c>
       <c r="D41">
-        <v>3.088100953660615</v>
+        <v>3.319099921347578</v>
       </c>
       <c r="E41">
-        <v>4.246903114745392</v>
+        <v>4.336015200382406</v>
       </c>
       <c r="F41">
-        <v>2.942138018166031</v>
+        <v>3.015384081066045</v>
       </c>
       <c r="G41">
-        <v>2.102508673302341</v>
+        <v>2.148132154377035</v>
       </c>
       <c r="H41">
-        <v>2.719817249754896</v>
+        <v>2.906232540530865</v>
       </c>
       <c r="I41">
-        <v>2.388890192984622</v>
+        <v>2.462087385527326</v>
       </c>
       <c r="J41">
-        <v>3.859300776635584</v>
+        <v>4.050464033478272</v>
       </c>
       <c r="K41">
-        <v>2.986190292343882</v>
+        <v>3.140518614175099</v>
       </c>
       <c r="L41">
-        <v>2.245761814590841</v>
+        <v>2.385474691018671</v>
       </c>
       <c r="M41">
-        <v>2.021856969617313</v>
+        <v>2.082780474330948</v>
       </c>
       <c r="N41">
-        <v>4.153680016072864</v>
+        <v>4.374027675462095</v>
       </c>
       <c r="O41">
-        <v>3.028176500773822</v>
+        <v>3.125913507833281</v>
       </c>
       <c r="P41">
-        <v>3.412689583943551</v>
+        <v>3.750935874420698</v>
       </c>
       <c r="Q41">
-        <v>2.533378204735973</v>
+        <v>2.637033694344164</v>
       </c>
       <c r="R41">
-        <v>3.193568568696272</v>
+        <v>3.432711792964576</v>
       </c>
       <c r="S41">
-        <v>1.804237595639097</v>
+        <v>1.844166158081718</v>
       </c>
       <c r="T41">
-        <v>1.290120624645467</v>
+        <v>1.610950899262571</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.01270517668696</v>
+        <v>11.40693659072474</v>
       </c>
       <c r="C42">
-        <v>9.587142910166158</v>
+        <v>10.09800066809358</v>
       </c>
       <c r="D42">
-        <v>11.14929315232352</v>
+        <v>11.98329283279806</v>
       </c>
       <c r="E42">
-        <v>12.37756641836043</v>
+        <v>12.63728290560996</v>
       </c>
       <c r="F42">
-        <v>8.581177828498937</v>
+        <v>8.794810733244253</v>
       </c>
       <c r="G42">
-        <v>9.878863996215662</v>
+        <v>10.09323084772686</v>
       </c>
       <c r="H42">
-        <v>10.07301368157797</v>
+        <v>10.76341439677708</v>
       </c>
       <c r="I42">
-        <v>10.41292320316303</v>
+        <v>10.73198213139365</v>
       </c>
       <c r="J42">
-        <v>14.05828536959308</v>
+        <v>14.75463628195139</v>
       </c>
       <c r="K42">
-        <v>11.5586915135583</v>
+        <v>12.15605246152791</v>
       </c>
       <c r="L42">
-        <v>10.60756011646611</v>
+        <v>11.26747548510578</v>
       </c>
       <c r="M42">
-        <v>10.8217413492669</v>
+        <v>11.14782693296998</v>
       </c>
       <c r="N42">
-        <v>12.68619407982856</v>
+        <v>13.35918120479507</v>
       </c>
       <c r="O42">
-        <v>11.60652769912355</v>
+        <v>11.98113838624009</v>
       </c>
       <c r="P42">
-        <v>9.818001455335192</v>
+        <v>10.79110565672256</v>
       </c>
       <c r="Q42">
-        <v>11.12309245548553</v>
+        <v>11.57820397111914</v>
       </c>
       <c r="R42">
-        <v>10.1526770924656</v>
+        <v>10.91293756053451</v>
       </c>
       <c r="S42">
-        <v>7.65958044081059</v>
+        <v>7.829090286218094</v>
       </c>
       <c r="T42">
-        <v>8.350448588541493</v>
+        <v>10.4270580641663</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.100732074306002</v>
+        <v>1.14013594058302</v>
       </c>
       <c r="C43">
-        <v>1.083280751893963</v>
+        <v>1.141004140530598</v>
       </c>
       <c r="D43">
-        <v>0.7134481303663891</v>
+        <v>0.7668161335780297</v>
       </c>
       <c r="E43">
-        <v>0.6568614688634807</v>
+        <v>0.6706442875159206</v>
       </c>
       <c r="F43">
-        <v>0.7127177818100522</v>
+        <v>0.7304612633034724</v>
       </c>
       <c r="G43">
-        <v>1.547783982871325</v>
+        <v>1.581370190693874</v>
       </c>
       <c r="H43">
-        <v>0.957890491822842</v>
+        <v>1.023543959746388</v>
       </c>
       <c r="I43">
-        <v>0.567178223733159</v>
+        <v>0.5845569436804143</v>
       </c>
       <c r="J43">
-        <v>0.4916262430777222</v>
+        <v>0.5159780309313763</v>
       </c>
       <c r="K43">
-        <v>0.731192529956876</v>
+        <v>0.7689810514630507</v>
       </c>
       <c r="L43">
-        <v>0.6144136990206259</v>
+        <v>0.652637478875247</v>
       </c>
       <c r="M43">
-        <v>0.5705854024686896</v>
+        <v>0.587778538768243</v>
       </c>
       <c r="N43">
-        <v>0.7489117331904633</v>
+        <v>0.7886405873292258</v>
       </c>
       <c r="O43">
-        <v>1.051635451443478</v>
+        <v>1.085577892221103</v>
       </c>
       <c r="P43">
-        <v>0.4407849012545888</v>
+        <v>0.4844729818960793</v>
       </c>
       <c r="Q43">
-        <v>0.626213057578168</v>
+        <v>0.6518351383874852</v>
       </c>
       <c r="R43">
-        <v>0.6422654118694078</v>
+        <v>0.6903600176768424</v>
       </c>
       <c r="S43">
-        <v>0.4562604814419345</v>
+        <v>0.4663577242703669</v>
       </c>
       <c r="T43">
-        <v>0.670622142880977</v>
+        <v>0.8373940571924322</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.255942669693023</v>
+        <v>6.479892106751715</v>
       </c>
       <c r="C44">
-        <v>5.920876274842152</v>
+        <v>6.236374396344455</v>
       </c>
       <c r="D44">
-        <v>6.637803549190536</v>
+        <v>7.134330635118306</v>
       </c>
       <c r="E44">
-        <v>7.324272394685072</v>
+        <v>7.477956425431586</v>
       </c>
       <c r="F44">
-        <v>4.525026385978777</v>
+        <v>4.637679281677472</v>
       </c>
       <c r="G44">
-        <v>5.520021152632562</v>
+        <v>5.639803098736728</v>
       </c>
       <c r="H44">
-        <v>5.119351423865552</v>
+        <v>5.470229919231469</v>
       </c>
       <c r="I44">
-        <v>4.385005802092019</v>
+        <v>4.519365311348319</v>
       </c>
       <c r="J44">
-        <v>5.164509345598645</v>
+        <v>5.420323671467231</v>
       </c>
       <c r="K44">
-        <v>6.177114493075689</v>
+        <v>6.496351922759852</v>
       </c>
       <c r="L44">
-        <v>4.313806935027386</v>
+        <v>4.58217661311669</v>
       </c>
       <c r="M44">
-        <v>6.636156311320629</v>
+        <v>6.836119961761089</v>
       </c>
       <c r="N44">
-        <v>4.510631529600857</v>
+        <v>4.749915031476024</v>
       </c>
       <c r="O44">
-        <v>7.222119432217545</v>
+        <v>7.455219562857396</v>
       </c>
       <c r="P44">
-        <v>5.290847615383281</v>
+        <v>5.815246197605126</v>
       </c>
       <c r="Q44">
-        <v>4.905788410940464</v>
+        <v>5.10651323706378</v>
       </c>
       <c r="R44">
-        <v>4.045236182822641</v>
+        <v>4.348154627464628</v>
       </c>
       <c r="S44">
-        <v>4.76275681807076</v>
+        <v>4.8681586972185</v>
       </c>
       <c r="T44">
-        <v>5.794265532717141</v>
+        <v>7.235197308051653</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>184.2462866944958</v>
+        <v>180.0478020280351</v>
       </c>
       <c r="C2">
-        <v>165.5155353409132</v>
+        <v>165.1597504930841</v>
       </c>
       <c r="D2">
-        <v>161.0645639706364</v>
+        <v>158.8934493459375</v>
       </c>
       <c r="E2">
-        <v>135.9008850921489</v>
+        <v>137.8591662434872</v>
       </c>
       <c r="F2">
-        <v>157.6446796196259</v>
+        <v>157.2215558130198</v>
       </c>
       <c r="G2">
-        <v>161.572361524105</v>
+        <v>165.277898002251</v>
       </c>
       <c r="H2">
-        <v>191.9385990862488</v>
+        <v>191.7529785105952</v>
       </c>
       <c r="I2">
-        <v>181.5585531613492</v>
+        <v>182.6906169622124</v>
       </c>
       <c r="J2">
-        <v>161.703281976525</v>
+        <v>160.6936637868701</v>
       </c>
       <c r="K2">
-        <v>165.630059693575</v>
+        <v>164.2306320579394</v>
       </c>
       <c r="L2">
-        <v>211.8958196709629</v>
+        <v>211.2164655243176</v>
       </c>
       <c r="M2">
-        <v>182.8845770564456</v>
+        <v>182.2761850538656</v>
       </c>
       <c r="N2">
-        <v>140.7857177538173</v>
+        <v>140.4800593681756</v>
       </c>
       <c r="O2">
-        <v>172.5089609940896</v>
+        <v>171.9079995720187</v>
       </c>
       <c r="P2">
-        <v>162.0126334320906</v>
+        <v>161.9634056084834</v>
       </c>
       <c r="Q2">
-        <v>156.2905535499399</v>
+        <v>152.216174724123</v>
       </c>
       <c r="R2">
-        <v>178.1653773730293</v>
+        <v>177.7771905363183</v>
       </c>
       <c r="S2">
-        <v>200.6474777998771</v>
+        <v>197.3384393703217</v>
       </c>
       <c r="T2">
-        <v>228.8498447353932</v>
+        <v>230.7272085393919</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.94057201424257</v>
+        <v>13.62290331712229</v>
       </c>
       <c r="C3">
-        <v>11.20175683868014</v>
+        <v>11.17767803940574</v>
       </c>
       <c r="D3">
-        <v>9.878883954905945</v>
+        <v>9.745718788705204</v>
       </c>
       <c r="E3">
-        <v>11.31984854812188</v>
+        <v>11.48296335074262</v>
       </c>
       <c r="F3">
-        <v>15.50677151042181</v>
+        <v>15.46515079600574</v>
       </c>
       <c r="G3">
-        <v>9.597401056185646</v>
+        <v>9.817509986782586</v>
       </c>
       <c r="H3">
-        <v>10.34846414282584</v>
+        <v>10.33845631802944</v>
       </c>
       <c r="I3">
-        <v>11.79083075547626</v>
+        <v>11.86434958699349</v>
       </c>
       <c r="J3">
-        <v>11.43617502785667</v>
+        <v>11.3647715894906</v>
       </c>
       <c r="K3">
-        <v>12.65204523972157</v>
+        <v>12.54514663817222</v>
       </c>
       <c r="L3">
-        <v>14.5048477999715</v>
+        <v>14.45834415249666</v>
       </c>
       <c r="M3">
-        <v>12.64682192925801</v>
+        <v>12.60475044655754</v>
       </c>
       <c r="N3">
-        <v>10.12799566367533</v>
+        <v>10.10600687920389</v>
       </c>
       <c r="O3">
-        <v>13.07360155050488</v>
+        <v>13.02805765450026</v>
       </c>
       <c r="P3">
-        <v>9.691815260199848</v>
+        <v>9.688870385087608</v>
       </c>
       <c r="Q3">
-        <v>8.329632972322505</v>
+        <v>8.112485617998159</v>
       </c>
       <c r="R3">
-        <v>9.330199731989675</v>
+        <v>9.309871086922682</v>
       </c>
       <c r="S3">
-        <v>16.68622071304476</v>
+        <v>16.41103486875232</v>
       </c>
       <c r="T3">
-        <v>21.22681281073777</v>
+        <v>21.40094642263167</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.23652450357138</v>
+        <v>10.00326123440517</v>
       </c>
       <c r="C4">
-        <v>8.039480206696604</v>
+        <v>8.022198896902491</v>
       </c>
       <c r="D4">
-        <v>8.616691027069542</v>
+        <v>8.500539941789276</v>
       </c>
       <c r="E4">
-        <v>9.996280248979682</v>
+        <v>10.14032292524186</v>
       </c>
       <c r="F4">
-        <v>8.245001180220134</v>
+        <v>8.222871310101684</v>
       </c>
       <c r="G4">
-        <v>9.052196909526016</v>
+        <v>9.259802006952317</v>
       </c>
       <c r="H4">
-        <v>8.715536095848202</v>
+        <v>8.707107448171588</v>
       </c>
       <c r="I4">
-        <v>9.051569728694787</v>
+        <v>9.108008570338004</v>
       </c>
       <c r="J4">
-        <v>9.607992612746209</v>
+        <v>9.548003699785822</v>
       </c>
       <c r="K4">
-        <v>8.474171187122819</v>
+        <v>8.402571929293009</v>
       </c>
       <c r="L4">
-        <v>9.215983385254415</v>
+        <v>9.186436240162507</v>
       </c>
       <c r="M4">
-        <v>11.62699422000931</v>
+        <v>11.58831534171705</v>
       </c>
       <c r="N4">
-        <v>7.741833813286901</v>
+        <v>7.725025599619848</v>
       </c>
       <c r="O4">
-        <v>12.12955425029287</v>
+        <v>12.08729908784023</v>
       </c>
       <c r="P4">
-        <v>8.280012308094255</v>
+        <v>8.277496411792013</v>
       </c>
       <c r="Q4">
-        <v>8.5565734055355</v>
+        <v>8.333509882416545</v>
       </c>
       <c r="R4">
-        <v>10.16213127402882</v>
+        <v>10.13999001599276</v>
       </c>
       <c r="S4">
-        <v>9.904235505848813</v>
+        <v>9.740896817201511</v>
       </c>
       <c r="T4">
-        <v>9.785869565217391</v>
+        <v>9.866147694021164</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>19.29546625369643</v>
+        <v>18.85577370601061</v>
       </c>
       <c r="C5">
-        <v>14.39520013939236</v>
+        <v>14.36425685615001</v>
       </c>
       <c r="D5">
-        <v>12.9386085075703</v>
+        <v>12.76419893254322</v>
       </c>
       <c r="E5">
-        <v>12.44372296896919</v>
+        <v>12.6230323835185</v>
       </c>
       <c r="F5">
-        <v>12.45996974061153</v>
+        <v>12.42652674818346</v>
       </c>
       <c r="G5">
-        <v>13.63149449339548</v>
+        <v>13.94412222019508</v>
       </c>
       <c r="H5">
-        <v>14.57700482594799</v>
+        <v>14.562907650914</v>
       </c>
       <c r="I5">
-        <v>16.49371975844518</v>
+        <v>16.5965623001762</v>
       </c>
       <c r="J5">
-        <v>12.08862815324939</v>
+        <v>12.01315102797207</v>
       </c>
       <c r="K5">
-        <v>15.74488702870596</v>
+        <v>15.61185664721183</v>
       </c>
       <c r="L5">
-        <v>19.47425060574594</v>
+        <v>19.41181467415292</v>
       </c>
       <c r="M5">
-        <v>13.57640646611431</v>
+        <v>13.53124258597362</v>
       </c>
       <c r="N5">
-        <v>14.82803333444951</v>
+        <v>14.79584034780597</v>
       </c>
       <c r="O5">
-        <v>20.7690406046642</v>
+        <v>20.69668846652075</v>
       </c>
       <c r="P5">
-        <v>12.40784774703702</v>
+        <v>12.40407760067685</v>
       </c>
       <c r="Q5">
-        <v>11.45306859205776</v>
+        <v>11.15449558746988</v>
       </c>
       <c r="R5">
-        <v>15.53866781722635</v>
+        <v>15.50481215797531</v>
       </c>
       <c r="S5">
-        <v>18.61104622595311</v>
+        <v>18.30411654085967</v>
       </c>
       <c r="T5">
-        <v>25.90570516617171</v>
+        <v>26.11822195093189</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>40.93335016309802</v>
+        <v>40.00058757618304</v>
       </c>
       <c r="C6">
-        <v>39.4296367550447</v>
+        <v>39.34488055808738</v>
       </c>
       <c r="D6">
-        <v>39.50648784164645</v>
+        <v>38.97394914158128</v>
       </c>
       <c r="E6">
-        <v>29.04080598684286</v>
+        <v>29.45927318773817</v>
       </c>
       <c r="F6">
-        <v>27.51404091776413</v>
+        <v>27.44019227436981</v>
       </c>
       <c r="G6">
-        <v>38.80824312307051</v>
+        <v>39.69828000307145</v>
       </c>
       <c r="H6">
-        <v>38.96817594391983</v>
+        <v>38.930490479478</v>
       </c>
       <c r="I6">
-        <v>40.93484612974436</v>
+        <v>41.19008531672009</v>
       </c>
       <c r="J6">
-        <v>31.83591748979985</v>
+        <v>31.63714526335413</v>
       </c>
       <c r="K6">
-        <v>36.48968885402468</v>
+        <v>36.18138322947476</v>
       </c>
       <c r="L6">
-        <v>43.12005671614441</v>
+        <v>42.98181052809228</v>
       </c>
       <c r="M6">
-        <v>46.34346277815373</v>
+        <v>46.18929454494405</v>
       </c>
       <c r="N6">
-        <v>31.98584541588535</v>
+        <v>31.9164012845545</v>
       </c>
       <c r="O6">
-        <v>41.17545688169429</v>
+        <v>41.03201586286576</v>
       </c>
       <c r="P6">
-        <v>46.20945702525812</v>
+        <v>46.19541620047037</v>
       </c>
       <c r="Q6">
-        <v>37.42466907340554</v>
+        <v>36.44903570483369</v>
       </c>
       <c r="R6">
-        <v>38.84309048767469</v>
+        <v>38.75845913759525</v>
       </c>
       <c r="S6">
-        <v>39.3610318885362</v>
+        <v>38.71189755316207</v>
       </c>
       <c r="T6">
-        <v>61.04903087356936</v>
+        <v>61.54984502515313</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>12.20766099344028</v>
+        <v>11.92948074669644</v>
       </c>
       <c r="C7">
-        <v>10.58678525327757</v>
+        <v>10.56402836962566</v>
       </c>
       <c r="D7">
-        <v>12.1740543684866</v>
+        <v>12.00995081380203</v>
       </c>
       <c r="E7">
-        <v>9.514425054595785</v>
+        <v>9.651524376926186</v>
       </c>
       <c r="F7">
-        <v>10.89265549530251</v>
+        <v>10.86341922885608</v>
       </c>
       <c r="G7">
-        <v>12.00353160139268</v>
+        <v>12.27882326511515</v>
       </c>
       <c r="H7">
-        <v>12.44850761853716</v>
+        <v>12.43646887718351</v>
       </c>
       <c r="I7">
-        <v>13.21295055515355</v>
+        <v>13.29533666567071</v>
       </c>
       <c r="J7">
-        <v>10.90779017015608</v>
+        <v>10.83968578025058</v>
       </c>
       <c r="K7">
-        <v>10.22514104130419</v>
+        <v>10.13874763555437</v>
       </c>
       <c r="L7">
-        <v>12.61308650459146</v>
+        <v>12.57264798800252</v>
       </c>
       <c r="M7">
-        <v>15.82769410305409</v>
+        <v>15.77504098890653</v>
       </c>
       <c r="N7">
-        <v>9.791865624162872</v>
+        <v>9.770606608071937</v>
       </c>
       <c r="O7">
-        <v>11.79370598060643</v>
+        <v>11.75262079710785</v>
       </c>
       <c r="P7">
-        <v>12.75412422194167</v>
+        <v>12.75024885886559</v>
       </c>
       <c r="Q7">
-        <v>11.24875150421179</v>
+        <v>10.9555048945823</v>
       </c>
       <c r="R7">
-        <v>11.52694439653281</v>
+        <v>11.50182948280372</v>
       </c>
       <c r="S7">
-        <v>11.37663536486595</v>
+        <v>11.18901414961734</v>
       </c>
       <c r="T7">
-        <v>17.3533959049351</v>
+        <v>17.49575404105729</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>221.08</v>
+        <v>238.829522853734</v>
       </c>
       <c r="C8">
-        <v>262.7</v>
+        <v>264.284867352567</v>
       </c>
       <c r="D8">
-        <v>263.76</v>
+        <v>273.684352023079</v>
       </c>
       <c r="E8">
-        <v>345.55</v>
+        <v>336.119619185156</v>
       </c>
       <c r="F8">
-        <v>313.32</v>
+        <v>315.163073018521</v>
       </c>
       <c r="G8">
-        <v>326.7</v>
+        <v>311.258388036165</v>
       </c>
       <c r="H8">
-        <v>231.72</v>
+        <v>232.462990605027</v>
       </c>
       <c r="I8">
-        <v>260</v>
+        <v>255.385911607842</v>
       </c>
       <c r="J8">
-        <v>303.11</v>
+        <v>307.461135064103</v>
       </c>
       <c r="K8">
-        <v>249.1</v>
+        <v>255.444441422909</v>
       </c>
       <c r="L8">
-        <v>207.59</v>
+        <v>210.130526850313</v>
       </c>
       <c r="M8">
-        <v>222.25</v>
+        <v>224.837297888222</v>
       </c>
       <c r="N8">
-        <v>309.2</v>
+        <v>310.699788587721</v>
       </c>
       <c r="O8">
-        <v>251.6</v>
+        <v>254.207166176679</v>
       </c>
       <c r="P8">
-        <v>230.62</v>
+        <v>230.853777466143</v>
       </c>
       <c r="Q8">
-        <v>306.75</v>
+        <v>324.82251338511</v>
       </c>
       <c r="R8">
-        <v>220.71</v>
+        <v>222.407917544031</v>
       </c>
       <c r="S8">
-        <v>294.73</v>
+        <v>306.361173034431</v>
       </c>
       <c r="T8">
-        <v>99.70000000000002</v>
+        <v>92.3144121500529</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.47953041683331</v>
+        <v>10.24072968680971</v>
       </c>
       <c r="C9">
-        <v>8.924309533530458</v>
+        <v>8.90512623389138</v>
       </c>
       <c r="D9">
-        <v>10.15333928688471</v>
+        <v>10.01647452363794</v>
       </c>
       <c r="E9">
-        <v>10.39975730000552</v>
+        <v>10.54961393033787</v>
       </c>
       <c r="F9">
-        <v>10.90622222453298</v>
+        <v>10.87694954451313</v>
       </c>
       <c r="G9">
-        <v>10.50700185188819</v>
+        <v>10.7479717694586</v>
       </c>
       <c r="H9">
-        <v>8.719488003028692</v>
+        <v>8.711055533529425</v>
       </c>
       <c r="I9">
-        <v>8.452663195957619</v>
+        <v>8.505367702897201</v>
       </c>
       <c r="J9">
-        <v>8.49356764353516</v>
+        <v>8.44053680654063</v>
       </c>
       <c r="K9">
-        <v>7.089236313437864</v>
+        <v>7.029338531411275</v>
       </c>
       <c r="L9">
-        <v>10.65033374055749</v>
+        <v>10.61618795891329</v>
       </c>
       <c r="M9">
-        <v>9.83650579077235</v>
+        <v>9.803783231261001</v>
       </c>
       <c r="N9">
-        <v>7.44473822997589</v>
+        <v>7.428575037393538</v>
       </c>
       <c r="O9">
-        <v>10.17107686897784</v>
+        <v>10.13564436284048</v>
       </c>
       <c r="P9">
-        <v>13.61471156093374</v>
+        <v>13.61057470688115</v>
       </c>
       <c r="Q9">
-        <v>7.344103489771361</v>
+        <v>7.152648158187478</v>
       </c>
       <c r="R9">
-        <v>5.901464667237524</v>
+        <v>5.888606552294458</v>
       </c>
       <c r="S9">
-        <v>5.888866169206473</v>
+        <v>5.791748155693</v>
       </c>
       <c r="T9">
-        <v>7.667976075277787</v>
+        <v>7.730880119413359</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.83661697180844</v>
+        <v>26.22508158144997</v>
       </c>
       <c r="C10">
-        <v>30.57602234814273</v>
+        <v>30.51029748771831</v>
       </c>
       <c r="D10">
-        <v>26.64403314871862</v>
+        <v>26.28487748713752</v>
       </c>
       <c r="E10">
-        <v>25.11099403377701</v>
+        <v>25.47283410769831</v>
       </c>
       <c r="F10">
-        <v>21.72675984339986</v>
+        <v>21.66844446382386</v>
       </c>
       <c r="G10">
-        <v>24.58842884896833</v>
+        <v>25.15234534545748</v>
       </c>
       <c r="H10">
-        <v>27.44836651279736</v>
+        <v>27.42182166138596</v>
       </c>
       <c r="I10">
-        <v>23.05601340655773</v>
+        <v>23.19977351983968</v>
       </c>
       <c r="J10">
-        <v>25.73759722606211</v>
+        <v>25.57690075781593</v>
       </c>
       <c r="K10">
-        <v>26.21071913911808</v>
+        <v>25.98926172504104</v>
       </c>
       <c r="L10">
-        <v>26.2418350436748</v>
+        <v>26.15770172060979</v>
       </c>
       <c r="M10">
-        <v>20.1945053122725</v>
+        <v>20.12732536891264</v>
       </c>
       <c r="N10">
-        <v>32.79328037101527</v>
+        <v>32.72208322617684</v>
       </c>
       <c r="O10">
-        <v>29.59519433444211</v>
+        <v>29.49209493617781</v>
       </c>
       <c r="P10">
-        <v>25.35199216609191</v>
+        <v>25.34428891868457</v>
       </c>
       <c r="Q10">
-        <v>28.97272864019255</v>
+        <v>28.21743109074712</v>
       </c>
       <c r="R10">
-        <v>30.95723844243749</v>
+        <v>30.88978879177321</v>
       </c>
       <c r="S10">
-        <v>24.92887350946488</v>
+        <v>24.51775146919374</v>
       </c>
       <c r="T10">
-        <v>25.24480223314091</v>
+        <v>25.45189731772094</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>41.1867137054498</v>
+        <v>40.24817763475565</v>
       </c>
       <c r="C11">
-        <v>49.13083251883651</v>
+        <v>49.02522306208414</v>
       </c>
       <c r="D11">
-        <v>45.71340073408927</v>
+        <v>45.09719422390621</v>
       </c>
       <c r="E11">
-        <v>34.53136531634312</v>
+        <v>35.0289494327609</v>
       </c>
       <c r="F11">
-        <v>26.35158643422742</v>
+        <v>26.28085785912381</v>
       </c>
       <c r="G11">
-        <v>38.87500281449822</v>
+        <v>39.76657077611188</v>
       </c>
       <c r="H11">
-        <v>56.13447035452355</v>
+        <v>56.08018365684616</v>
       </c>
       <c r="I11">
-        <v>55.12961067299162</v>
+        <v>55.47335783065439</v>
       </c>
       <c r="J11">
-        <v>43.34726329161117</v>
+        <v>43.0766182870322</v>
       </c>
       <c r="K11">
-        <v>42.1916833506232</v>
+        <v>41.8352009114809</v>
       </c>
       <c r="L11">
-        <v>48.28629950318654</v>
+        <v>48.13148994703491</v>
       </c>
       <c r="M11">
-        <v>45.34679482111192</v>
+        <v>45.19594214804435</v>
       </c>
       <c r="N11">
-        <v>39.16963107755156</v>
+        <v>39.08459030500472</v>
       </c>
       <c r="O11">
-        <v>34.21750696643641</v>
+        <v>34.09830503322799</v>
       </c>
       <c r="P11">
-        <v>47.47050015155489</v>
+        <v>47.45607615659535</v>
       </c>
       <c r="Q11">
-        <v>39.98817689530686</v>
+        <v>38.945714778918</v>
       </c>
       <c r="R11">
-        <v>57.04457551594029</v>
+        <v>56.92028675878915</v>
       </c>
       <c r="S11">
-        <v>28.85625082265998</v>
+        <v>28.38035925426306</v>
       </c>
       <c r="T11">
-        <v>39.87385110447462</v>
+        <v>40.20095521449106</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.368077141422191</v>
+        <v>9.154603486467614</v>
       </c>
       <c r="C12">
-        <v>10.15121205372792</v>
+        <v>10.12939145889144</v>
       </c>
       <c r="D12">
-        <v>9.616492593563608</v>
+        <v>9.486864404758522</v>
       </c>
       <c r="E12">
-        <v>8.492101445577614</v>
+        <v>8.61446946536535</v>
       </c>
       <c r="F12">
-        <v>7.261770330201676</v>
+        <v>7.242279485904056</v>
       </c>
       <c r="G12">
-        <v>7.997254702277727</v>
+        <v>8.180665520469512</v>
       </c>
       <c r="H12">
-        <v>9.405539089561406</v>
+        <v>9.396443151649761</v>
       </c>
       <c r="I12">
-        <v>8.532718798063723</v>
+        <v>8.585922472063311</v>
       </c>
       <c r="J12">
-        <v>7.810462357889094</v>
+        <v>7.7616965890701</v>
       </c>
       <c r="K12">
-        <v>9.021685695764511</v>
+        <v>8.945460424180181</v>
       </c>
       <c r="L12">
-        <v>9.214369942785009</v>
+        <v>9.18482797051262</v>
       </c>
       <c r="M12">
-        <v>10.86671545790691</v>
+        <v>10.83056575690253</v>
       </c>
       <c r="N12">
-        <v>8.297713384007499</v>
+        <v>8.279698306072476</v>
       </c>
       <c r="O12">
-        <v>9.730419458181961</v>
+        <v>9.696522049715536</v>
       </c>
       <c r="P12">
-        <v>11.34938813667087</v>
+        <v>11.34593960512487</v>
       </c>
       <c r="Q12">
-        <v>10.19535198555957</v>
+        <v>9.92956672017921</v>
       </c>
       <c r="R12">
-        <v>10.64490607901712</v>
+        <v>10.62171295093114</v>
       </c>
       <c r="S12">
-        <v>6.684460714541925</v>
+        <v>6.574221913497371</v>
       </c>
       <c r="T12">
-        <v>12.12719330808502</v>
+        <v>12.22667842587926</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.80842054226893</v>
+        <v>3.7216367294876</v>
       </c>
       <c r="C13">
-        <v>3.926240097162251</v>
+        <v>3.917800425728192</v>
       </c>
       <c r="D13">
-        <v>3.778284803696664</v>
+        <v>3.727354361944877</v>
       </c>
       <c r="E13">
-        <v>3.090143495525593</v>
+        <v>3.134671312677888</v>
       </c>
       <c r="F13">
-        <v>3.288860780817002</v>
+        <v>3.280033364019083</v>
       </c>
       <c r="G13">
-        <v>2.551471956752781</v>
+        <v>2.60998798213936</v>
       </c>
       <c r="H13">
-        <v>3.619156595890897</v>
+        <v>3.61565657070624</v>
       </c>
       <c r="I13">
-        <v>3.529998907961572</v>
+        <v>3.552009349833946</v>
       </c>
       <c r="J13">
-        <v>2.864517357009409</v>
+        <v>2.846632322192127</v>
       </c>
       <c r="K13">
-        <v>3.283549089747226</v>
+        <v>3.255806001640758</v>
       </c>
       <c r="L13">
-        <v>3.498749994909699</v>
+        <v>3.487532735782982</v>
       </c>
       <c r="M13">
-        <v>3.621706077872259</v>
+        <v>3.60965794867002</v>
       </c>
       <c r="N13">
-        <v>2.710726125100456</v>
+        <v>2.704840896225436</v>
       </c>
       <c r="O13">
-        <v>3.623948185659876</v>
+        <v>3.611323606376484</v>
       </c>
       <c r="P13">
-        <v>4.213423048386322</v>
+        <v>4.212142792382735</v>
       </c>
       <c r="Q13">
-        <v>3.469148616125151</v>
+        <v>3.378710484426835</v>
       </c>
       <c r="R13">
-        <v>3.468502346876394</v>
+        <v>3.460945171773064</v>
       </c>
       <c r="S13">
-        <v>2.794480011311899</v>
+        <v>2.748394000914708</v>
       </c>
       <c r="T13">
-        <v>5.409265199039006</v>
+        <v>5.453639966706633</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.738742411518433</v>
+        <v>7.562396977722397</v>
       </c>
       <c r="C14">
-        <v>6.687150848932491</v>
+        <v>6.672776446298337</v>
       </c>
       <c r="D14">
-        <v>6.704551681195515</v>
+        <v>6.61417581049967</v>
       </c>
       <c r="E14">
-        <v>7.046535862425918</v>
+        <v>7.148073820418326</v>
       </c>
       <c r="F14">
-        <v>4.874740024020339</v>
+        <v>4.861656052140313</v>
       </c>
       <c r="G14">
-        <v>5.787230750639586</v>
+        <v>5.919956387943242</v>
       </c>
       <c r="H14">
-        <v>7.271509212097893</v>
+        <v>7.264477058418301</v>
       </c>
       <c r="I14">
-        <v>5.97698146290284</v>
+        <v>6.014249463967874</v>
       </c>
       <c r="J14">
-        <v>5.870618501855716</v>
+        <v>5.833964433048018</v>
       </c>
       <c r="K14">
-        <v>7.845913668077507</v>
+        <v>7.779622631086804</v>
       </c>
       <c r="L14">
-        <v>6.665937562356201</v>
+        <v>6.6445660585139</v>
       </c>
       <c r="M14">
-        <v>6.947925662070263</v>
+        <v>6.924812382233555</v>
       </c>
       <c r="N14">
-        <v>5.373020610099116</v>
+        <v>5.361355301771646</v>
       </c>
       <c r="O14">
-        <v>7.741340867783888</v>
+        <v>7.714372719637669</v>
       </c>
       <c r="P14">
-        <v>7.368386486406496</v>
+        <v>7.36614758921349</v>
       </c>
       <c r="Q14">
-        <v>6.021344765342961</v>
+        <v>5.864372772745741</v>
       </c>
       <c r="R14">
-        <v>5.867264804610675</v>
+        <v>5.854481204349895</v>
       </c>
       <c r="S14">
-        <v>5.572828151658473</v>
+        <v>5.480922174482231</v>
       </c>
       <c r="T14">
-        <v>7.1929520921619</v>
+        <v>7.251959289292992</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.702634874231946</v>
+        <v>1.663836337011507</v>
       </c>
       <c r="C15">
-        <v>1.793983858529121</v>
+        <v>1.790127590458574</v>
       </c>
       <c r="D15">
-        <v>1.492162368093334</v>
+        <v>1.47204835008759</v>
       </c>
       <c r="E15">
-        <v>1.292217041798969</v>
+        <v>1.310837408212897</v>
       </c>
       <c r="F15">
-        <v>1.787238066518662</v>
+        <v>1.782441057346888</v>
       </c>
       <c r="G15">
-        <v>1.738533630929941</v>
+        <v>1.778405547928155</v>
       </c>
       <c r="H15">
-        <v>1.811554251535693</v>
+        <v>1.809802328032038</v>
       </c>
       <c r="I15">
-        <v>1.344329922159092</v>
+        <v>1.35271216146864</v>
       </c>
       <c r="J15">
-        <v>1.505604919110933</v>
+        <v>1.496204453677034</v>
       </c>
       <c r="K15">
-        <v>1.758659664695997</v>
+        <v>1.743800544672696</v>
       </c>
       <c r="L15">
-        <v>1.540030837049254</v>
+        <v>1.535093380818472</v>
       </c>
       <c r="M15">
-        <v>2.534794948438048</v>
+        <v>2.526362586345897</v>
       </c>
       <c r="N15">
-        <v>1.186936612643986</v>
+        <v>1.184359667093911</v>
       </c>
       <c r="O15">
-        <v>2.058696341062006</v>
+        <v>2.051524556630593</v>
       </c>
       <c r="P15">
-        <v>2.199366000471504</v>
+        <v>2.198697719244138</v>
       </c>
       <c r="Q15">
-        <v>1.563838748495789</v>
+        <v>1.523070632066876</v>
       </c>
       <c r="R15">
-        <v>1.245511276131262</v>
+        <v>1.242797555376432</v>
       </c>
       <c r="S15">
-        <v>1.233354861985467</v>
+        <v>1.213014618089357</v>
       </c>
       <c r="T15">
-        <v>2.705571382094832</v>
+        <v>2.72776646720731</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.814178572122668</v>
+        <v>1.772838249590642</v>
       </c>
       <c r="C16">
-        <v>1.694402551127717</v>
+        <v>1.690760338615323</v>
       </c>
       <c r="D16">
-        <v>1.987539162351707</v>
+        <v>1.960747574952444</v>
       </c>
       <c r="E16">
-        <v>1.869489106357896</v>
+        <v>1.89642774827425</v>
       </c>
       <c r="F16">
-        <v>1.96289150813416</v>
+        <v>1.957623039011824</v>
       </c>
       <c r="G16">
-        <v>1.5410362104563</v>
+        <v>1.576378677683517</v>
       </c>
       <c r="H16">
-        <v>1.866090570626427</v>
+        <v>1.864285905970175</v>
       </c>
       <c r="I16">
-        <v>1.474986706728487</v>
+        <v>1.484183624352952</v>
       </c>
       <c r="J16">
-        <v>1.418757131726444</v>
+        <v>1.409898913208024</v>
       </c>
       <c r="K16">
-        <v>1.540269046080491</v>
+        <v>1.527255133790735</v>
       </c>
       <c r="L16">
-        <v>1.53035018223281</v>
+        <v>1.525443762919142</v>
       </c>
       <c r="M16">
-        <v>2.002919259824393</v>
+        <v>1.996256259154225</v>
       </c>
       <c r="N16">
-        <v>1.545475321457273</v>
+        <v>1.542119956301329</v>
       </c>
       <c r="O16">
-        <v>1.760334552502296</v>
+        <v>1.754202157118913</v>
       </c>
       <c r="P16">
-        <v>1.615171675462293</v>
+        <v>1.61468090270803</v>
       </c>
       <c r="Q16">
-        <v>1.52354091456077</v>
+        <v>1.48382333277763</v>
       </c>
       <c r="R16">
-        <v>1.738625574471863</v>
+        <v>1.734837455972464</v>
       </c>
       <c r="S16">
-        <v>1.17322697929652</v>
+        <v>1.153878352522575</v>
       </c>
       <c r="T16">
-        <v>1.539603423537655</v>
+        <v>1.552233520548226</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>24.52208524057597</v>
+        <v>23.96329189543292</v>
       </c>
       <c r="C17">
-        <v>23.06257469657415</v>
+        <v>23.01300040971299</v>
       </c>
       <c r="D17">
-        <v>20.32929851871272</v>
+        <v>20.05526408037473</v>
       </c>
       <c r="E17">
-        <v>22.9239030595508</v>
+        <v>23.25422796689916</v>
       </c>
       <c r="F17">
-        <v>22.16660748581916</v>
+        <v>22.10711153986288</v>
       </c>
       <c r="G17">
-        <v>18.33666191214427</v>
+        <v>18.75719899510784</v>
       </c>
       <c r="H17">
-        <v>23.14078768606545</v>
+        <v>23.11840862134468</v>
       </c>
       <c r="I17">
-        <v>20.91565891251343</v>
+        <v>21.04607337062501</v>
       </c>
       <c r="J17">
-        <v>20.6340125438795</v>
+        <v>20.50518105613707</v>
       </c>
       <c r="K17">
-        <v>24.94036244210112</v>
+        <v>24.72963841948822</v>
       </c>
       <c r="L17">
-        <v>23.63693217681673</v>
+        <v>23.56115037086497</v>
       </c>
       <c r="M17">
-        <v>22.405862341959</v>
+        <v>22.33132599953387</v>
       </c>
       <c r="N17">
-        <v>23.70258923787838</v>
+        <v>23.65112879659522</v>
       </c>
       <c r="O17">
-        <v>23.67615546755369</v>
+        <v>23.59367594894224</v>
       </c>
       <c r="P17">
-        <v>22.17111688301085</v>
+        <v>22.16438015015261</v>
       </c>
       <c r="Q17">
-        <v>19.83289711191336</v>
+        <v>19.31586819230202</v>
       </c>
       <c r="R17">
-        <v>20.1007704225194</v>
+        <v>20.05697485123152</v>
       </c>
       <c r="S17">
-        <v>25.93638217793577</v>
+        <v>25.5086445044225</v>
       </c>
       <c r="T17">
-        <v>33.17657621208583</v>
+        <v>33.44873940010628</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.04599599236115</v>
+        <v>19.58920086065021</v>
       </c>
       <c r="C18">
-        <v>18.5396069176554</v>
+        <v>18.49975500156532</v>
       </c>
       <c r="D18">
-        <v>18.59434874156125</v>
+        <v>18.3437010416928</v>
       </c>
       <c r="E18">
-        <v>16.93513135792236</v>
+        <v>17.17916029497578</v>
       </c>
       <c r="F18">
-        <v>20.23084943614593</v>
+        <v>20.17654913216515</v>
       </c>
       <c r="G18">
-        <v>16.16419028693422</v>
+        <v>16.53490342241681</v>
       </c>
       <c r="H18">
-        <v>17.69426920991691</v>
+        <v>17.67715738117506</v>
       </c>
       <c r="I18">
-        <v>18.71488509612489</v>
+        <v>18.8315771692095</v>
       </c>
       <c r="J18">
-        <v>17.52646734486139</v>
+        <v>17.41703827196024</v>
       </c>
       <c r="K18">
-        <v>20.66790372017241</v>
+        <v>20.49327819814957</v>
       </c>
       <c r="L18">
-        <v>18.2924039969051</v>
+        <v>18.23375715560967</v>
       </c>
       <c r="M18">
-        <v>19.90700494004891</v>
+        <v>19.84078140826849</v>
       </c>
       <c r="N18">
-        <v>18.13222776587195</v>
+        <v>18.09286107757836</v>
       </c>
       <c r="O18">
-        <v>18.51679161615192</v>
+        <v>18.45228553277104</v>
       </c>
       <c r="P18">
-        <v>21.2649875133057</v>
+        <v>21.2585261094501</v>
       </c>
       <c r="Q18">
-        <v>14.97877557160048</v>
+        <v>14.58829000072373</v>
       </c>
       <c r="R18">
-        <v>21.04245966322145</v>
+        <v>20.99661233882136</v>
       </c>
       <c r="S18">
-        <v>18.37493429636969</v>
+        <v>18.0718985224145</v>
       </c>
       <c r="T18">
-        <v>18.84793776485702</v>
+        <v>19.00255633661386</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.500336097492617</v>
+        <v>9.283848611382876</v>
       </c>
       <c r="C19">
-        <v>10.33517141549234</v>
+        <v>10.31295538977744</v>
       </c>
       <c r="D19">
-        <v>11.12524292128203</v>
+        <v>10.97527711245194</v>
       </c>
       <c r="E19">
-        <v>9.057787175901</v>
+        <v>9.188306516429011</v>
       </c>
       <c r="F19">
-        <v>9.525986034928275</v>
+        <v>9.50041795687768</v>
       </c>
       <c r="G19">
-        <v>9.081404274525639</v>
+        <v>9.28967922015751</v>
       </c>
       <c r="H19">
-        <v>9.692447550864834</v>
+        <v>9.683074148628657</v>
       </c>
       <c r="I19">
-        <v>8.655823167340088</v>
+        <v>8.709794428422517</v>
       </c>
       <c r="J19">
-        <v>9.605073359388747</v>
+        <v>9.545102673215435</v>
       </c>
       <c r="K19">
-        <v>10.94567628652506</v>
+        <v>10.85319499469662</v>
       </c>
       <c r="L19">
-        <v>8.308421996212816</v>
+        <v>8.281784562100285</v>
       </c>
       <c r="M19">
-        <v>11.26921597901994</v>
+        <v>11.23172730180434</v>
       </c>
       <c r="N19">
-        <v>9.969689257969462</v>
+        <v>9.948044170864325</v>
       </c>
       <c r="O19">
-        <v>8.024402051802078</v>
+        <v>7.996447816610289</v>
       </c>
       <c r="P19">
-        <v>13.93821702048185</v>
+        <v>13.93398186872642</v>
       </c>
       <c r="Q19">
-        <v>8.664034296028882</v>
+        <v>8.438169347187866</v>
       </c>
       <c r="R19">
-        <v>13.76981910834006</v>
+        <v>13.73981741777277</v>
       </c>
       <c r="S19">
-        <v>7.927348045734176</v>
+        <v>7.796611793200973</v>
       </c>
       <c r="T19">
-        <v>8.936271334545697</v>
+        <v>9.00957980615766</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.6071164128052144</v>
+        <v>0.5932818384664333</v>
       </c>
       <c r="C20">
-        <v>0.8156545255092148</v>
+        <v>0.8139012307466312</v>
       </c>
       <c r="D20">
-        <v>1.450692469030609</v>
+        <v>1.431137456073028</v>
       </c>
       <c r="E20">
-        <v>0.9950616461110203</v>
+        <v>1.009400113919214</v>
       </c>
       <c r="F20">
-        <v>0.6362081970707663</v>
+        <v>0.6345005921278775</v>
       </c>
       <c r="G20">
-        <v>1.353274578315866</v>
+        <v>1.384310878507276</v>
       </c>
       <c r="H20">
-        <v>0.5390401394185612</v>
+        <v>0.5385188428088351</v>
       </c>
       <c r="I20">
-        <v>0.623829503204163</v>
+        <v>0.6277192389736498</v>
       </c>
       <c r="J20">
-        <v>1.708493027454529</v>
+        <v>1.697825800318922</v>
       </c>
       <c r="K20">
-        <v>1.348023783214728</v>
+        <v>1.336634173507318</v>
       </c>
       <c r="L20">
-        <v>1.288333811821717</v>
+        <v>1.284203315435883</v>
       </c>
       <c r="M20">
-        <v>1.061355540792113</v>
+        <v>1.057824788044643</v>
       </c>
       <c r="N20">
-        <v>1.253439760246451</v>
+        <v>1.250718430414642</v>
       </c>
       <c r="O20">
-        <v>0.7038278089100878</v>
+        <v>0.7013759167967838</v>
       </c>
       <c r="P20">
-        <v>1.587689415549226</v>
+        <v>1.58720699332797</v>
       </c>
       <c r="Q20">
-        <v>0.9219013237063781</v>
+        <v>0.897868039880292</v>
       </c>
       <c r="R20">
-        <v>0.702290202314115</v>
+        <v>0.7007600519778985</v>
       </c>
       <c r="S20">
-        <v>0.5873467565103205</v>
+        <v>0.5776603502316141</v>
       </c>
       <c r="T20">
-        <v>0.5970657179085055</v>
+        <v>0.601963731139434</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>25.43674356327988</v>
+        <v>24.85710757858183</v>
       </c>
       <c r="C21">
-        <v>22.2294364300708</v>
+        <v>22.18165302024579</v>
       </c>
       <c r="D21">
-        <v>21.51458363374189</v>
+        <v>21.22457181475457</v>
       </c>
       <c r="E21">
-        <v>20.34901066297037</v>
+        <v>20.64223232964793</v>
       </c>
       <c r="F21">
-        <v>21.35331777037179</v>
+        <v>21.2960047223167</v>
       </c>
       <c r="G21">
-        <v>17.65932920953396</v>
+        <v>18.06433219363502</v>
       </c>
       <c r="H21">
-        <v>23.452988353324</v>
+        <v>23.43030736461372</v>
       </c>
       <c r="I21">
-        <v>23.12398514419499</v>
+        <v>23.26816907856563</v>
       </c>
       <c r="J21">
-        <v>19.49550373446939</v>
+        <v>19.37378069368619</v>
       </c>
       <c r="K21">
-        <v>23.53158915582081</v>
+        <v>23.33276802253134</v>
       </c>
       <c r="L21">
-        <v>23.99430968379045</v>
+        <v>23.91738209831525</v>
       </c>
       <c r="M21">
-        <v>23.47280816776657</v>
+        <v>23.39472247570215</v>
       </c>
       <c r="N21">
-        <v>18.89918254420038</v>
+        <v>18.85815072848374</v>
       </c>
       <c r="O21">
-        <v>22.43833656014443</v>
+        <v>22.36016917353225</v>
       </c>
       <c r="P21">
-        <v>27.04018813218036</v>
+        <v>27.03197192345961</v>
       </c>
       <c r="Q21">
-        <v>18.27188628158845</v>
+        <v>17.79555175667649</v>
       </c>
       <c r="R21">
-        <v>22.6665554651755</v>
+        <v>22.61716955981668</v>
       </c>
       <c r="S21">
-        <v>14.12858589817835</v>
+        <v>13.89558006025311</v>
       </c>
       <c r="T21">
-        <v>21.87175643998799</v>
+        <v>22.05118083032474</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>70.80873616172941</v>
+        <v>69.19519269032457</v>
       </c>
       <c r="C22">
-        <v>60.28241862248999</v>
+        <v>60.15283821124824</v>
       </c>
       <c r="D22">
-        <v>64.84610416530117</v>
+        <v>63.97199305335167</v>
       </c>
       <c r="E22">
-        <v>65.63862809154806</v>
+        <v>66.58445628173403</v>
       </c>
       <c r="F22">
-        <v>67.57802041208917</v>
+        <v>67.39663865338561</v>
       </c>
       <c r="G22">
-        <v>66.61574084306874</v>
+        <v>68.1435210610727</v>
       </c>
       <c r="H22">
-        <v>64.67770329730247</v>
+        <v>64.6151545834161</v>
       </c>
       <c r="I22">
-        <v>72.09384590419249</v>
+        <v>72.54336938734463</v>
       </c>
       <c r="J22">
-        <v>60.57450716733273</v>
+        <v>60.19630133552778</v>
       </c>
       <c r="K22">
-        <v>69.95882013790251</v>
+        <v>69.36772993097648</v>
       </c>
       <c r="L22">
-        <v>67.09903869647549</v>
+        <v>66.88391406473359</v>
       </c>
       <c r="M22">
-        <v>80.7804170855252</v>
+        <v>80.51168934198924</v>
       </c>
       <c r="N22">
-        <v>58.89504294468256</v>
+        <v>58.76717653865798</v>
       </c>
       <c r="O22">
-        <v>72.36956439072561</v>
+        <v>72.11745391437539</v>
       </c>
       <c r="P22">
-        <v>60.67062219151434</v>
+        <v>60.65218731625733</v>
       </c>
       <c r="Q22">
-        <v>55.53889891696753</v>
+        <v>54.09104100990489</v>
       </c>
       <c r="R22">
-        <v>65.19448231448246</v>
+        <v>65.05243653525294</v>
       </c>
       <c r="S22">
-        <v>45.4398141750163</v>
+        <v>44.69042976716965</v>
       </c>
       <c r="T22">
-        <v>68.78366051169543</v>
+        <v>69.34792549819998</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.122952273501406</v>
+        <v>5.983426415504646</v>
       </c>
       <c r="C23">
-        <v>5.790919082319849</v>
+        <v>5.778471179709075</v>
       </c>
       <c r="D23">
-        <v>6.018413351248607</v>
+        <v>5.937286473167833</v>
       </c>
       <c r="E23">
-        <v>6.803222843479593</v>
+        <v>6.901254751466847</v>
       </c>
       <c r="F23">
-        <v>10.50350457790233</v>
+        <v>10.47531280606182</v>
       </c>
       <c r="G23">
-        <v>5.34842486219287</v>
+        <v>5.471086827646176</v>
       </c>
       <c r="H23">
-        <v>4.918543676835347</v>
+        <v>4.913787036362727</v>
       </c>
       <c r="I23">
-        <v>3.928766435433482</v>
+        <v>3.953263294359475</v>
       </c>
       <c r="J23">
-        <v>5.696922927086739</v>
+        <v>5.661353352109998</v>
       </c>
       <c r="K23">
-        <v>5.252909562544099</v>
+        <v>5.208527118784079</v>
       </c>
       <c r="L23">
-        <v>3.679455551483315</v>
+        <v>3.667658936570483</v>
       </c>
       <c r="M23">
-        <v>5.073582957601424</v>
+        <v>5.056704949922963</v>
       </c>
       <c r="N23">
-        <v>11.63009936713099</v>
+        <v>11.60484938116561</v>
       </c>
       <c r="O23">
-        <v>3.877938221049168</v>
+        <v>3.864428828524888</v>
       </c>
       <c r="P23">
-        <v>4.515727907430068</v>
+        <v>4.514355795563383</v>
       </c>
       <c r="Q23">
-        <v>5.826925391095068</v>
+        <v>5.675021767402889</v>
       </c>
       <c r="R23">
-        <v>3.877310007113602</v>
+        <v>3.868862121622033</v>
       </c>
       <c r="S23">
-        <v>10.32293088408526</v>
+        <v>10.15268715425801</v>
       </c>
       <c r="T23">
-        <v>13.88083915879742</v>
+        <v>13.99471026513785</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2214939143830047</v>
+        <v>0.2164466549785676</v>
       </c>
       <c r="C24">
-        <v>0.2698577414312873</v>
+        <v>0.2692776672088109</v>
       </c>
       <c r="D24">
-        <v>0.2676693484957724</v>
+        <v>0.2640612250030795</v>
       </c>
       <c r="E24">
-        <v>0.1008692627564596</v>
+        <v>0.1023227512740025</v>
       </c>
       <c r="F24">
-        <v>0.1685130578099897</v>
+        <v>0.1680607628980685</v>
       </c>
       <c r="G24">
-        <v>0.3073727459484136</v>
+        <v>0.3144221008736978</v>
       </c>
       <c r="H24">
-        <v>0.3256371516722099</v>
+        <v>0.3253222334856892</v>
       </c>
       <c r="I24">
-        <v>0.1223491277470635</v>
+        <v>0.1231120057066964</v>
       </c>
       <c r="J24">
-        <v>0.1824533348413636</v>
+        <v>0.1813141606491801</v>
       </c>
       <c r="K24">
-        <v>0.1322647408516447</v>
+        <v>0.1311472206749907</v>
       </c>
       <c r="L24">
-        <v>0.1903862113900597</v>
+        <v>0.1897758186868305</v>
       </c>
       <c r="M24">
-        <v>0.1397571253864708</v>
+        <v>0.1392922030909048</v>
       </c>
       <c r="N24">
-        <v>0.1452949203053844</v>
+        <v>0.1449794720376834</v>
       </c>
       <c r="O24">
-        <v>0.335848269686444</v>
+        <v>0.3346782907323784</v>
       </c>
       <c r="P24">
-        <v>0.2457699243654341</v>
+        <v>0.2456952467416691</v>
       </c>
       <c r="Q24">
-        <v>0.2891546329723225</v>
+        <v>0.2816165861280976</v>
       </c>
       <c r="R24">
-        <v>0.2417850753153918</v>
+        <v>0.2412582738406355</v>
       </c>
       <c r="S24">
-        <v>0.2383117301696057</v>
+        <v>0.234381540356148</v>
       </c>
       <c r="T24">
-        <v>0.3595537263505623</v>
+        <v>0.3625033160792503</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.116940037826056</v>
+        <v>2.068700583734007</v>
       </c>
       <c r="C25">
-        <v>2.034955419187482</v>
+        <v>2.030581169346442</v>
       </c>
       <c r="D25">
-        <v>2.556053778593432</v>
+        <v>2.521598740170252</v>
       </c>
       <c r="E25">
-        <v>1.517128235782967</v>
+        <v>1.538989488756281</v>
       </c>
       <c r="F25">
-        <v>2.053574382464112</v>
+        <v>2.048062517351039</v>
       </c>
       <c r="G25">
-        <v>1.235749704865002</v>
+        <v>1.264090663467332</v>
       </c>
       <c r="H25">
-        <v>2.224923742614736</v>
+        <v>2.222772056461687</v>
       </c>
       <c r="I25">
-        <v>1.610930182003002</v>
+        <v>1.620974741804837</v>
       </c>
       <c r="J25">
-        <v>2.19965740484748</v>
+        <v>2.185923520786515</v>
       </c>
       <c r="K25">
-        <v>2.87598913247181</v>
+        <v>2.851689565839914</v>
       </c>
       <c r="L25">
-        <v>2.735591706880053</v>
+        <v>2.726821191385772</v>
       </c>
       <c r="M25">
-        <v>2.144273609500995</v>
+        <v>2.137140373137597</v>
       </c>
       <c r="N25">
-        <v>1.601135564559336</v>
+        <v>1.597659356037158</v>
       </c>
       <c r="O25">
-        <v>2.038805555158026</v>
+        <v>2.031703063329814</v>
       </c>
       <c r="P25">
-        <v>2.759218895271997</v>
+        <v>2.758380501757907</v>
       </c>
       <c r="Q25">
-        <v>1.792900120336944</v>
+        <v>1.746160543816273</v>
       </c>
       <c r="R25">
-        <v>2.550673475448886</v>
+        <v>2.545116066470125</v>
       </c>
       <c r="S25">
-        <v>0.6526075072336895</v>
+        <v>0.6418448335906823</v>
       </c>
       <c r="T25">
-        <v>2.898960592612366</v>
+        <v>2.92274214112983</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>26.76809727167557</v>
+        <v>26.15812326372279</v>
       </c>
       <c r="C26">
-        <v>26.08498140060457</v>
+        <v>26.02891028245168</v>
       </c>
       <c r="D26">
-        <v>27.0677801173232</v>
+        <v>26.70291244052268</v>
       </c>
       <c r="E26">
-        <v>25.3106879120719</v>
+        <v>25.67540550042319</v>
       </c>
       <c r="F26">
-        <v>24.95635543863115</v>
+        <v>24.88937171207794</v>
       </c>
       <c r="G26">
-        <v>22.53070044339966</v>
+        <v>23.04742453892971</v>
       </c>
       <c r="H26">
-        <v>27.47049719300809</v>
+        <v>27.44393093938984</v>
       </c>
       <c r="I26">
-        <v>24.46907030788338</v>
+        <v>24.62164119068678</v>
       </c>
       <c r="J26">
-        <v>25.0070540733573</v>
+        <v>24.85091885857662</v>
       </c>
       <c r="K26">
-        <v>27.30190325114415</v>
+        <v>27.07122629560971</v>
       </c>
       <c r="L26">
-        <v>28.67329284507157</v>
+        <v>28.58136408299159</v>
       </c>
       <c r="M26">
-        <v>25.84468623861125</v>
+        <v>25.75871015101636</v>
       </c>
       <c r="N26">
-        <v>25.6297347977498</v>
+        <v>25.57409035108509</v>
       </c>
       <c r="O26">
-        <v>23.19189133381447</v>
+        <v>23.11109882358098</v>
       </c>
       <c r="P26">
-        <v>24.73560433661311</v>
+        <v>24.72808837973182</v>
       </c>
       <c r="Q26">
-        <v>23.34870637785801</v>
+        <v>22.74002291801114</v>
       </c>
       <c r="R26">
-        <v>28.76049377789435</v>
+        <v>28.69783039589217</v>
       </c>
       <c r="S26">
-        <v>28.19631064680569</v>
+        <v>27.73130268096911</v>
       </c>
       <c r="T26">
-        <v>30.76390499349328</v>
+        <v>31.01627589534474</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.655175060579993</v>
+        <v>6.503521255525089</v>
       </c>
       <c r="C27">
-        <v>7.188098036547189</v>
+        <v>7.172646820074691</v>
       </c>
       <c r="D27">
-        <v>6.559784033558365</v>
+        <v>6.471359598667019</v>
       </c>
       <c r="E27">
-        <v>5.292910098423413</v>
+        <v>5.369178962120971</v>
       </c>
       <c r="F27">
-        <v>6.537021373942609</v>
+        <v>6.519475781067023</v>
       </c>
       <c r="G27">
-        <v>5.217687133146939</v>
+        <v>5.337350730441979</v>
       </c>
       <c r="H27">
-        <v>6.377587807871512</v>
+        <v>6.371420150475792</v>
       </c>
       <c r="I27">
-        <v>5.381851137812187</v>
+        <v>5.415408349789623</v>
       </c>
       <c r="J27">
-        <v>6.81718640301271</v>
+        <v>6.774622298495963</v>
       </c>
       <c r="K27">
-        <v>7.070780768202751</v>
+        <v>7.011038919224068</v>
       </c>
       <c r="L27">
-        <v>6.264997108708489</v>
+        <v>6.244911050516635</v>
       </c>
       <c r="M27">
-        <v>5.984799415121214</v>
+        <v>5.964890114075663</v>
       </c>
       <c r="N27">
-        <v>6.424782346638093</v>
+        <v>6.410833569507115</v>
       </c>
       <c r="O27">
-        <v>5.481441577000846</v>
+        <v>5.46234613461843</v>
       </c>
       <c r="P27">
-        <v>7.201137304649825</v>
+        <v>7.198949226414847</v>
       </c>
       <c r="Q27">
-        <v>6.608844765342962</v>
+        <v>6.436557083436326</v>
       </c>
       <c r="R27">
-        <v>6.865423585929151</v>
+        <v>6.850465196685413</v>
       </c>
       <c r="S27">
-        <v>5.824338685345164</v>
+        <v>5.728284846304258</v>
       </c>
       <c r="T27">
-        <v>7.658588249524509</v>
+        <v>7.721415280873431</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6652784838482335</v>
+        <v>0.6501185500255536</v>
       </c>
       <c r="C28">
-        <v>0.5009471876146996</v>
+        <v>0.499870373776356</v>
       </c>
       <c r="D28">
-        <v>0.286519302615193</v>
+        <v>0.2826570859187894</v>
       </c>
       <c r="E28">
-        <v>0.6086233219021516</v>
+        <v>0.617393357349218</v>
       </c>
       <c r="F28">
-        <v>0.178509595137701</v>
+        <v>0.1780304691716828</v>
       </c>
       <c r="G28">
-        <v>0.2684295926155829</v>
+        <v>0.2745858166001071</v>
       </c>
       <c r="H28">
-        <v>0.6900029937132023</v>
+        <v>0.6893357034781715</v>
       </c>
       <c r="I28">
-        <v>0.3300405483053502</v>
+        <v>0.3320984351470762</v>
       </c>
       <c r="J28">
-        <v>0.5977171249403072</v>
+        <v>0.5939851902867138</v>
       </c>
       <c r="K28">
-        <v>0.7189972831179524</v>
+        <v>0.7129223914599786</v>
       </c>
       <c r="L28">
-        <v>0.5292091299655897</v>
+        <v>0.5275124451633934</v>
       </c>
       <c r="M28">
-        <v>0.4560075348324276</v>
+        <v>0.4544905597994667</v>
       </c>
       <c r="N28">
-        <v>0.5566024310206269</v>
+        <v>0.5553939973582896</v>
       </c>
       <c r="O28">
-        <v>0.1537710756423126</v>
+        <v>0.1532353905175582</v>
       </c>
       <c r="P28">
-        <v>0.4876138116004299</v>
+        <v>0.4874656492861869</v>
       </c>
       <c r="Q28">
-        <v>0.6956678700361012</v>
+        <v>0.6775323245722448</v>
       </c>
       <c r="R28">
-        <v>0.6585461919774486</v>
+        <v>0.657111351118573</v>
       </c>
       <c r="S28">
-        <v>0.1935824515839259</v>
+        <v>0.1903899281662249</v>
       </c>
       <c r="T28">
-        <v>0.2356344264072876</v>
+        <v>0.237567447352198</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>9.708285419988893</v>
+        <v>9.487059319833977</v>
       </c>
       <c r="C29">
-        <v>9.946728300361674</v>
+        <v>9.925347254724763</v>
       </c>
       <c r="D29">
-        <v>9.09170987087894</v>
+        <v>8.969155636865162</v>
       </c>
       <c r="E29">
-        <v>10.40861743795034</v>
+        <v>10.5586017395714</v>
       </c>
       <c r="F29">
-        <v>12.86554354076438</v>
+        <v>12.83101197414152</v>
       </c>
       <c r="G29">
-        <v>8.792807691791269</v>
+        <v>8.994463899201437</v>
       </c>
       <c r="H29">
-        <v>8.37172017114575</v>
+        <v>8.363624022039854</v>
       </c>
       <c r="I29">
-        <v>8.386201941378966</v>
+        <v>8.438492045476279</v>
       </c>
       <c r="J29">
-        <v>10.43706056626536</v>
+        <v>10.3718952457757</v>
       </c>
       <c r="K29">
-        <v>10.40969649365532</v>
+        <v>10.32174375742645</v>
       </c>
       <c r="L29">
-        <v>7.97040579887199</v>
+        <v>7.944852070448667</v>
       </c>
       <c r="M29">
-        <v>10.64709711801388</v>
+        <v>10.61167800918825</v>
       </c>
       <c r="N29">
-        <v>8.746609630324135</v>
+        <v>8.727619958487407</v>
       </c>
       <c r="O29">
-        <v>10.19326274556305</v>
+        <v>10.15775295152212</v>
       </c>
       <c r="P29">
-        <v>9.466460728912692</v>
+        <v>9.463584328171125</v>
       </c>
       <c r="Q29">
-        <v>9.030956678700361</v>
+        <v>8.795526335453104</v>
       </c>
       <c r="R29">
-        <v>7.869149786745021</v>
+        <v>7.852004478221209</v>
       </c>
       <c r="S29">
-        <v>10.05748828001942</v>
+        <v>9.891622176999773</v>
       </c>
       <c r="T29">
-        <v>12.53274738062665</v>
+        <v>12.63555945080416</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>17.44224738731201</v>
+        <v>17.04478478701727</v>
       </c>
       <c r="C30">
-        <v>20.25073304712533</v>
+        <v>20.20720297026119</v>
       </c>
       <c r="D30">
-        <v>19.86257365471587</v>
+        <v>19.59483056410176</v>
       </c>
       <c r="E30">
-        <v>17.43334373005054</v>
+        <v>17.68455172187642</v>
       </c>
       <c r="F30">
-        <v>19.71674180214935</v>
+        <v>19.66382138095071</v>
       </c>
       <c r="G30">
-        <v>16.67114669371339</v>
+        <v>17.05348648019266</v>
       </c>
       <c r="H30">
-        <v>17.76935544634618</v>
+        <v>17.75217100297394</v>
       </c>
       <c r="I30">
-        <v>15.45450741412444</v>
+        <v>15.55087020232179</v>
       </c>
       <c r="J30">
-        <v>22.4994154392976</v>
+        <v>22.35893703461429</v>
       </c>
       <c r="K30">
-        <v>21.35306583702599</v>
+        <v>21.17265130059966</v>
       </c>
       <c r="L30">
-        <v>16.06020634048012</v>
+        <v>16.00871609498908</v>
       </c>
       <c r="M30">
-        <v>17.40255725312335</v>
+        <v>17.34466512887947</v>
       </c>
       <c r="N30">
-        <v>22.87491419434771</v>
+        <v>22.82525070961438</v>
       </c>
       <c r="O30">
-        <v>17.29656840396541</v>
+        <v>17.23631315528096</v>
       </c>
       <c r="P30">
-        <v>24.1765366492387</v>
+        <v>24.16919056605748</v>
       </c>
       <c r="Q30">
-        <v>19.95166967509025</v>
+        <v>19.43154444283874</v>
       </c>
       <c r="R30">
-        <v>21.71452673112114</v>
+        <v>21.66721510656918</v>
       </c>
       <c r="S30">
-        <v>18.19675044888903</v>
+        <v>17.89665324762514</v>
       </c>
       <c r="T30">
-        <v>21.85016444075545</v>
+        <v>22.0294117016829</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.36967062282063</v>
+        <v>9.156160656647318</v>
       </c>
       <c r="C31">
-        <v>8.977520919164798</v>
+        <v>8.958223238693117</v>
       </c>
       <c r="D31">
-        <v>10.21516713639641</v>
+        <v>10.07746894744147</v>
       </c>
       <c r="E31">
-        <v>7.637438908438421</v>
+        <v>7.74749155930049</v>
       </c>
       <c r="F31">
-        <v>9.480287578573023</v>
+        <v>9.454842156769729</v>
       </c>
       <c r="G31">
-        <v>8.203792497632206</v>
+        <v>8.391940099563378</v>
       </c>
       <c r="H31">
-        <v>9.053028969061879</v>
+        <v>9.044273937730786</v>
       </c>
       <c r="I31">
-        <v>7.014683324164971</v>
+        <v>7.058421660517263</v>
       </c>
       <c r="J31">
-        <v>8.676750791715888</v>
+        <v>8.622576223832406</v>
       </c>
       <c r="K31">
-        <v>9.26852861328415</v>
+        <v>9.190217737184089</v>
       </c>
       <c r="L31">
-        <v>8.093027426546945</v>
+        <v>8.067080563840186</v>
       </c>
       <c r="M31">
-        <v>9.556991539999409</v>
+        <v>9.525198825079192</v>
       </c>
       <c r="N31">
-        <v>10.13666998727565</v>
+        <v>10.11466237007181</v>
       </c>
       <c r="O31">
-        <v>9.383095735089377</v>
+        <v>9.350408282078863</v>
       </c>
       <c r="P31">
-        <v>10.71101449926162</v>
+        <v>10.70775993866808</v>
       </c>
       <c r="Q31">
-        <v>9.198510830324912</v>
+        <v>8.958712474603127</v>
       </c>
       <c r="R31">
-        <v>8.786183312530044</v>
+        <v>8.767039970781251</v>
       </c>
       <c r="S31">
-        <v>9.044113476652052</v>
+        <v>8.8949597500084</v>
       </c>
       <c r="T31">
-        <v>11.88968131652708</v>
+        <v>11.98721801081907</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>3.487334040483494</v>
+        <v>3.407866938277663</v>
       </c>
       <c r="C32">
-        <v>4.90152877957448</v>
+        <v>4.890992670880036</v>
       </c>
       <c r="D32">
-        <v>5.320965048830045</v>
+        <v>5.249239619286569</v>
       </c>
       <c r="E32">
-        <v>3.369578615323894</v>
+        <v>3.418132988504517</v>
       </c>
       <c r="F32">
-        <v>3.918642632462812</v>
+        <v>3.908124859256781</v>
       </c>
       <c r="G32">
-        <v>4.254539501611752</v>
+        <v>4.35211405688978</v>
       </c>
       <c r="H32">
-        <v>4.521772195914354</v>
+        <v>4.51739926643599</v>
       </c>
       <c r="I32">
-        <v>3.806417307686418</v>
+        <v>3.830151288652778</v>
       </c>
       <c r="J32">
-        <v>6.179329544407304</v>
+        <v>6.140747992866431</v>
       </c>
       <c r="K32">
-        <v>4.721543655983131</v>
+        <v>4.681650784560715</v>
       </c>
       <c r="L32">
-        <v>3.447926557123369</v>
+        <v>3.436872241811499</v>
       </c>
       <c r="M32">
-        <v>3.779831282595237</v>
+        <v>3.767257127024301</v>
       </c>
       <c r="N32">
-        <v>6.170335521028663</v>
+        <v>6.156939170714753</v>
       </c>
       <c r="O32">
-        <v>5.256522690240449</v>
+        <v>5.238210787294242</v>
       </c>
       <c r="P32">
-        <v>7.536420875589252</v>
+        <v>7.534130920851566</v>
       </c>
       <c r="Q32">
-        <v>5.664320096269556</v>
+        <v>5.51665547202523</v>
       </c>
       <c r="R32">
-        <v>6.462183345189337</v>
+        <v>6.448103536036721</v>
       </c>
       <c r="S32">
-        <v>3.399425172511668</v>
+        <v>3.343362526434161</v>
       </c>
       <c r="T32">
-        <v>6.461640465981515</v>
+        <v>6.514648367032585</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.360742691787205</v>
+        <v>2.306947621228402</v>
       </c>
       <c r="C33">
-        <v>2.865813197735079</v>
+        <v>2.859652972893569</v>
       </c>
       <c r="D33">
-        <v>2.344180294291145</v>
+        <v>2.312581263477674</v>
       </c>
       <c r="E33">
-        <v>3.87460647817887</v>
+        <v>3.93043811481557</v>
       </c>
       <c r="F33">
-        <v>3.566621710851266</v>
+        <v>3.557048774050222</v>
       </c>
       <c r="G33">
-        <v>2.114056895210808</v>
+        <v>2.162541146280636</v>
       </c>
       <c r="H33">
-        <v>2.68729688273183</v>
+        <v>2.684698043328503</v>
       </c>
       <c r="I33">
-        <v>1.926621141251598</v>
+        <v>1.938634114554214</v>
       </c>
       <c r="J33">
-        <v>4.613879931468404</v>
+        <v>4.585072494496464</v>
       </c>
       <c r="K33">
-        <v>2.648370741238747</v>
+        <v>2.625994348864349</v>
       </c>
       <c r="L33">
-        <v>1.816736220552603</v>
+        <v>1.810911625774332</v>
       </c>
       <c r="M33">
-        <v>2.831080054257366</v>
+        <v>2.821662056898615</v>
       </c>
       <c r="N33">
-        <v>5.369406308598982</v>
+        <v>5.357748847243345</v>
       </c>
       <c r="O33">
-        <v>1.556836512100031</v>
+        <v>1.551413033349408</v>
       </c>
       <c r="P33">
-        <v>4.243260930577653</v>
+        <v>4.241971608281085</v>
       </c>
       <c r="Q33">
-        <v>3.734972924187727</v>
+        <v>3.63760494991379</v>
       </c>
       <c r="R33">
-        <v>1.977229267217316</v>
+        <v>1.972921278841513</v>
       </c>
       <c r="S33">
-        <v>1.440869383948539</v>
+        <v>1.417106851691788</v>
       </c>
       <c r="T33">
-        <v>2.369487220127465</v>
+        <v>2.388925247477879</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.239728527985451</v>
+        <v>1.211478399808098</v>
       </c>
       <c r="C34">
-        <v>1.504361888147937</v>
+        <v>1.501128178609118</v>
       </c>
       <c r="D34">
-        <v>1.230525004915776</v>
+        <v>1.213937800577537</v>
       </c>
       <c r="E34">
-        <v>2.033742432873483</v>
+        <v>2.063047904065024</v>
       </c>
       <c r="F34">
-        <v>1.872208633804208</v>
+        <v>1.867183560672609</v>
       </c>
       <c r="G34">
-        <v>1.109879869985674</v>
+        <v>1.135334101797334</v>
       </c>
       <c r="H34">
-        <v>1.410830863434211</v>
+        <v>1.409466472747464</v>
       </c>
       <c r="I34">
-        <v>1.011268407736531</v>
+        <v>1.017573923711522</v>
       </c>
       <c r="J34">
-        <v>2.422250473353944</v>
+        <v>2.407126796778515</v>
       </c>
       <c r="K34">
-        <v>1.390317741045196</v>
+        <v>1.37857078476967</v>
       </c>
       <c r="L34">
-        <v>0.9535444994197057</v>
+        <v>0.9504873630840408</v>
       </c>
       <c r="M34">
-        <v>1.486217201966984</v>
+        <v>1.481273085440994</v>
       </c>
       <c r="N34">
-        <v>2.818432309804447</v>
+        <v>2.812313241168794</v>
       </c>
       <c r="O34">
-        <v>0.8170522825173627</v>
+        <v>0.8142059555858316</v>
       </c>
       <c r="P34">
-        <v>2.226848260384572</v>
+        <v>2.226171628624196</v>
       </c>
       <c r="Q34">
-        <v>1.960454271961493</v>
+        <v>1.909346682966296</v>
       </c>
       <c r="R34">
-        <v>1.037926063442718</v>
+        <v>1.03566462948036</v>
       </c>
       <c r="S34">
-        <v>0.7559981347841952</v>
+        <v>0.7435303634067341</v>
       </c>
       <c r="T34">
-        <v>1.243886912309386</v>
+        <v>1.254091106540487</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.172621464291816</v>
+        <v>3.100325827786533</v>
       </c>
       <c r="C35">
-        <v>4.136805151743847</v>
+        <v>4.127912859015067</v>
       </c>
       <c r="D35">
-        <v>4.361125385069148</v>
+        <v>4.302338381458624</v>
       </c>
       <c r="E35">
-        <v>3.771011019131696</v>
+        <v>3.825349883777406</v>
       </c>
       <c r="F35">
-        <v>4.297797012535289</v>
+        <v>4.286261575777435</v>
       </c>
       <c r="G35">
-        <v>3.041738440675025</v>
+        <v>3.111498346655099</v>
       </c>
       <c r="H35">
-        <v>5.318476683500731</v>
+        <v>5.313333274575735</v>
       </c>
       <c r="I35">
-        <v>3.157664834015261</v>
+        <v>3.177353678146283</v>
       </c>
       <c r="J35">
-        <v>6.771937975972053</v>
+        <v>6.729656386654967</v>
       </c>
       <c r="K35">
-        <v>3.130521860506079</v>
+        <v>3.104071717255158</v>
       </c>
       <c r="L35">
-        <v>2.646852371062652</v>
+        <v>2.638366360641911</v>
       </c>
       <c r="M35">
-        <v>4.307713910483564</v>
+        <v>4.293383676984805</v>
       </c>
       <c r="N35">
-        <v>5.373743470399143</v>
+        <v>5.362076592677306</v>
       </c>
       <c r="O35">
-        <v>2.683726036583248</v>
+        <v>2.674376865351215</v>
       </c>
       <c r="P35">
-        <v>6.104202530405381</v>
+        <v>6.102347757730784</v>
       </c>
       <c r="Q35">
-        <v>7.469238868832733</v>
+        <v>7.274521350717242</v>
       </c>
       <c r="R35">
-        <v>6.532969107370488</v>
+        <v>6.518735070154539</v>
       </c>
       <c r="S35">
-        <v>2.072212152182479</v>
+        <v>2.038037640142998</v>
       </c>
       <c r="T35">
-        <v>3.409658313590711</v>
+        <v>3.437629357701925</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.171118405372978</v>
+        <v>2.121644369843873</v>
       </c>
       <c r="C36">
-        <v>1.94221557565335</v>
+        <v>1.938040675263414</v>
       </c>
       <c r="D36">
-        <v>3.358307825915972</v>
+        <v>3.313038580742862</v>
       </c>
       <c r="E36">
-        <v>2.116891419740294</v>
+        <v>2.147395036871972</v>
       </c>
       <c r="F36">
-        <v>2.659792967551744</v>
+        <v>2.652653990658073</v>
       </c>
       <c r="G36">
-        <v>1.470104038314358</v>
+        <v>1.503819731328048</v>
       </c>
       <c r="H36">
-        <v>2.158531701982538</v>
+        <v>2.156444222450042</v>
       </c>
       <c r="I36">
-        <v>1.592804385299733</v>
+        <v>1.602735926144585</v>
       </c>
       <c r="J36">
-        <v>2.412033086602827</v>
+        <v>2.39697320378216</v>
       </c>
       <c r="K36">
-        <v>2.592235124481944</v>
+        <v>2.570333028461591</v>
       </c>
       <c r="L36">
-        <v>1.781240486225643</v>
+        <v>1.775529693476787</v>
       </c>
       <c r="M36">
-        <v>2.12191246943916</v>
+        <v>2.114853620643053</v>
       </c>
       <c r="N36">
-        <v>2.517722424993303</v>
+        <v>2.512256224414185</v>
       </c>
       <c r="O36">
-        <v>2.226237960791691</v>
+        <v>2.218482519433306</v>
       </c>
       <c r="P36">
-        <v>2.950809507237384</v>
+        <v>2.949912898578889</v>
       </c>
       <c r="Q36">
-        <v>2.878113718411553</v>
+        <v>2.803083428184561</v>
       </c>
       <c r="R36">
-        <v>2.746328503500158</v>
+        <v>2.740344801222744</v>
       </c>
       <c r="S36">
-        <v>1.001642533574404</v>
+        <v>0.9851236434661483</v>
       </c>
       <c r="T36">
-        <v>1.647563419700357</v>
+        <v>1.6610791637574</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>93.12066270267064</v>
+        <v>90.99868954651093</v>
       </c>
       <c r="C37">
-        <v>82.70265587819249</v>
+        <v>82.52488192014026</v>
       </c>
       <c r="D37">
-        <v>89.07960518122827</v>
+        <v>87.87883184658823</v>
       </c>
       <c r="E37">
-        <v>69.23516254807397</v>
+        <v>70.23281546060504</v>
       </c>
       <c r="F37">
-        <v>78.56635705038551</v>
+        <v>78.35548221371772</v>
       </c>
       <c r="G37">
-        <v>69.51561493945987</v>
+        <v>71.10990151501686</v>
       </c>
       <c r="H37">
-        <v>82.84383022456964</v>
+        <v>82.76371335631677</v>
       </c>
       <c r="I37">
-        <v>80.66583726177996</v>
+        <v>81.16880929333848</v>
       </c>
       <c r="J37">
-        <v>72.60766950679034</v>
+        <v>72.1543328586625</v>
       </c>
       <c r="K37">
-        <v>87.56771723535491</v>
+        <v>86.82784740909632</v>
       </c>
       <c r="L37">
-        <v>87.58249756683568</v>
+        <v>87.3017014048917</v>
       </c>
       <c r="M37">
-        <v>76.23791120439238</v>
+        <v>75.98429476381172</v>
       </c>
       <c r="N37">
-        <v>82.73280705866595</v>
+        <v>82.55318673461164</v>
       </c>
       <c r="O37">
-        <v>84.09518268112227</v>
+        <v>83.80222421518442</v>
       </c>
       <c r="P37">
-        <v>88.77476638604347</v>
+        <v>88.74779201714492</v>
       </c>
       <c r="Q37">
-        <v>90.0776774969916</v>
+        <v>87.72941924634031</v>
       </c>
       <c r="R37">
-        <v>91.98172355337192</v>
+        <v>91.78131371601808</v>
       </c>
       <c r="S37">
-        <v>72.12119548480536</v>
+        <v>70.93178702544398</v>
       </c>
       <c r="T37">
-        <v>98.00796208165104</v>
+        <v>98.81196787299649</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.689615755605631</v>
+        <v>4.582751838862765</v>
       </c>
       <c r="C38">
-        <v>7.270955765606375</v>
+        <v>7.255326441837398</v>
       </c>
       <c r="D38">
-        <v>4.137187930130431</v>
+        <v>4.081419553779992</v>
       </c>
       <c r="E38">
-        <v>3.651739931412909</v>
+        <v>3.704360144095308</v>
       </c>
       <c r="F38">
-        <v>3.596611322834399</v>
+        <v>3.586957892871065</v>
       </c>
       <c r="G38">
-        <v>2.955507172580899</v>
+        <v>3.023289431477863</v>
       </c>
       <c r="H38">
-        <v>6.949823967606171</v>
+        <v>6.943102910290449</v>
       </c>
       <c r="I38">
-        <v>5.416592248160118</v>
+        <v>5.450366079805104</v>
       </c>
       <c r="J38">
-        <v>4.069439180301774</v>
+        <v>4.044031039119312</v>
       </c>
       <c r="K38">
-        <v>4.046378292798573</v>
+        <v>4.012189972045356</v>
       </c>
       <c r="L38">
-        <v>6.802273451021115</v>
+        <v>6.78046484392947</v>
       </c>
       <c r="M38">
-        <v>5.00969398599618</v>
+        <v>4.993028514224264</v>
       </c>
       <c r="N38">
-        <v>5.61734739150817</v>
+        <v>5.605151627884765</v>
       </c>
       <c r="O38">
-        <v>3.447991233432354</v>
+        <v>3.435979627177288</v>
       </c>
       <c r="P38">
-        <v>7.82459200096342</v>
+        <v>7.822214484922466</v>
       </c>
       <c r="Q38">
-        <v>5.121359807460892</v>
+        <v>4.987849755285916</v>
       </c>
       <c r="R38">
-        <v>8.056851358371445</v>
+        <v>8.039297085544861</v>
       </c>
       <c r="S38">
-        <v>3.496949665165691</v>
+        <v>3.4392786644876</v>
       </c>
       <c r="T38">
-        <v>4.458278450231906</v>
+        <v>4.494851822611905</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>28.04049216832902</v>
+        <v>27.40152365221477</v>
       </c>
       <c r="C39">
-        <v>26.46582288921605</v>
+        <v>26.40893313110411</v>
       </c>
       <c r="D39">
-        <v>27.835350249066</v>
+        <v>27.46013589701039</v>
       </c>
       <c r="E39">
-        <v>26.28189534063916</v>
+        <v>26.66060766640598</v>
       </c>
       <c r="F39">
-        <v>28.45942773361339</v>
+        <v>28.38304163910304</v>
       </c>
       <c r="G39">
-        <v>29.73587922342571</v>
+        <v>30.41784849176316</v>
       </c>
       <c r="H39">
-        <v>26.96860498108611</v>
+        <v>26.94252409894467</v>
       </c>
       <c r="I39">
-        <v>28.2195997424014</v>
+        <v>28.39555613105378</v>
       </c>
       <c r="J39">
-        <v>22.35856146480007</v>
+        <v>22.21896250259312</v>
       </c>
       <c r="K39">
-        <v>32.71706781554695</v>
+        <v>32.440637504873</v>
       </c>
       <c r="L39">
-        <v>28.24089026327042</v>
+        <v>28.1503478168215</v>
       </c>
       <c r="M39">
-        <v>35.16688580796139</v>
+        <v>35.04989807490283</v>
       </c>
       <c r="N39">
-        <v>20.55019546946156</v>
+        <v>20.50557915701145</v>
       </c>
       <c r="O39">
-        <v>30.96230335022726</v>
+        <v>30.85444141804287</v>
       </c>
       <c r="P39">
-        <v>27.09201182230214</v>
+        <v>27.08377986686201</v>
       </c>
       <c r="Q39">
-        <v>24.44947352587245</v>
+        <v>23.81209388280685</v>
       </c>
       <c r="R39">
-        <v>30.11337671576107</v>
+        <v>30.04776567155968</v>
       </c>
       <c r="S39">
-        <v>33.15979403609203</v>
+        <v>32.61292928610992</v>
       </c>
       <c r="T39">
-        <v>34.73307772197938</v>
+        <v>35.01800963002638</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.023450108578578</v>
+        <v>4.908978991510318</v>
       </c>
       <c r="C40">
-        <v>5.717943467735615</v>
+        <v>5.705652430266692</v>
       </c>
       <c r="D40">
-        <v>5.314179065347053</v>
+        <v>5.242545109356914</v>
       </c>
       <c r="E40">
-        <v>3.932538149356567</v>
+        <v>3.989204559804017</v>
       </c>
       <c r="F40">
-        <v>4.189977217072117</v>
+        <v>4.178731172397739</v>
       </c>
       <c r="G40">
-        <v>3.602241683286837</v>
+        <v>3.684856295307137</v>
       </c>
       <c r="H40">
-        <v>5.586415990337816</v>
+        <v>5.581013461837017</v>
       </c>
       <c r="I40">
-        <v>4.539001591110194</v>
+        <v>4.567303421587936</v>
       </c>
       <c r="J40">
-        <v>4.427047716590847</v>
+        <v>4.399406793991704</v>
       </c>
       <c r="K40">
-        <v>5.589723263084916</v>
+        <v>5.542495041200626</v>
       </c>
       <c r="L40">
-        <v>4.982310345529698</v>
+        <v>4.966336678855361</v>
       </c>
       <c r="M40">
-        <v>5.750007444471943</v>
+        <v>5.730879212882943</v>
       </c>
       <c r="N40">
-        <v>3.997417459148138</v>
+        <v>3.988738708300444</v>
       </c>
       <c r="O40">
-        <v>5.675759254678197</v>
+        <v>5.655986876864499</v>
       </c>
       <c r="P40">
-        <v>6.2745925418664</v>
+        <v>6.272685995887149</v>
       </c>
       <c r="Q40">
-        <v>4.587590252707582</v>
+        <v>4.467995176980993</v>
       </c>
       <c r="R40">
-        <v>5.762279179802677</v>
+        <v>5.749724322287515</v>
       </c>
       <c r="S40">
-        <v>3.974306392366963</v>
+        <v>3.908762919170222</v>
       </c>
       <c r="T40">
-        <v>7.642628945743936</v>
+        <v>7.705325055355554</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.801340298455556</v>
+        <v>2.737505175915984</v>
       </c>
       <c r="C41">
-        <v>3.954366115283258</v>
+        <v>3.945865985409111</v>
       </c>
       <c r="D41">
-        <v>3.319099921347578</v>
+        <v>3.274359190038186</v>
       </c>
       <c r="E41">
-        <v>4.336015200382406</v>
+        <v>4.398495564900028</v>
       </c>
       <c r="F41">
-        <v>3.015384081066045</v>
+        <v>3.007290685248065</v>
       </c>
       <c r="G41">
-        <v>2.148132154377035</v>
+        <v>2.197397895020028</v>
       </c>
       <c r="H41">
-        <v>2.906232540530865</v>
+        <v>2.90342197215262</v>
       </c>
       <c r="I41">
-        <v>2.462087385527326</v>
+        <v>2.477439127184138</v>
       </c>
       <c r="J41">
-        <v>4.050464033478272</v>
+        <v>4.025174366411797</v>
       </c>
       <c r="K41">
-        <v>3.140518614175099</v>
+        <v>3.113984007189896</v>
       </c>
       <c r="L41">
-        <v>2.385474691018671</v>
+        <v>2.377826677359991</v>
       </c>
       <c r="M41">
-        <v>2.082780474330948</v>
+        <v>2.0758518037776</v>
       </c>
       <c r="N41">
-        <v>4.374027675462095</v>
+        <v>4.364531270149365</v>
       </c>
       <c r="O41">
-        <v>3.125913507833281</v>
+        <v>3.115023908730064</v>
       </c>
       <c r="P41">
-        <v>3.750935874420698</v>
+        <v>3.749796145958317</v>
       </c>
       <c r="Q41">
-        <v>2.637033694344164</v>
+        <v>2.568288181559424</v>
       </c>
       <c r="R41">
-        <v>3.432711792964576</v>
+        <v>3.425232598342706</v>
       </c>
       <c r="S41">
-        <v>1.844166158081718</v>
+        <v>1.813752535371423</v>
       </c>
       <c r="T41">
-        <v>1.610950899262571</v>
+        <v>1.624166293451681</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.40693659072474</v>
+        <v>11.14700273139623</v>
       </c>
       <c r="C42">
-        <v>10.09800066809358</v>
+        <v>10.0762944540897</v>
       </c>
       <c r="D42">
-        <v>11.98329283279806</v>
+        <v>11.82176070133505</v>
       </c>
       <c r="E42">
-        <v>12.63728290560996</v>
+        <v>12.81938144677402</v>
       </c>
       <c r="F42">
-        <v>8.794810733244253</v>
+        <v>8.771205155150467</v>
       </c>
       <c r="G42">
-        <v>10.09323084772686</v>
+        <v>10.3247112490517</v>
       </c>
       <c r="H42">
-        <v>10.76341439677708</v>
+        <v>10.75300528060222</v>
       </c>
       <c r="I42">
-        <v>10.73198213139365</v>
+        <v>10.79889877217381</v>
       </c>
       <c r="J42">
-        <v>14.75463628195139</v>
+        <v>14.66251354337789</v>
       </c>
       <c r="K42">
-        <v>12.15605246152791</v>
+        <v>12.05334456064101</v>
       </c>
       <c r="L42">
-        <v>11.26747548510578</v>
+        <v>11.2313510999956</v>
       </c>
       <c r="M42">
-        <v>11.14782693296998</v>
+        <v>11.11074207397681</v>
       </c>
       <c r="N42">
-        <v>13.35918120479507</v>
+        <v>13.33017722750461</v>
       </c>
       <c r="O42">
-        <v>11.98113838624009</v>
+        <v>11.93940025321134</v>
       </c>
       <c r="P42">
-        <v>10.79110565672256</v>
+        <v>10.78782676028996</v>
       </c>
       <c r="Q42">
-        <v>11.57820397111914</v>
+        <v>11.27636877999965</v>
       </c>
       <c r="R42">
-        <v>10.91293756053451</v>
+        <v>10.88916044528737</v>
       </c>
       <c r="S42">
-        <v>7.829090286218094</v>
+        <v>7.699974481177208</v>
       </c>
       <c r="T42">
-        <v>10.4270580641663</v>
+        <v>10.51259616629826</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.14013594058302</v>
+        <v>1.114155263576727</v>
       </c>
       <c r="C43">
-        <v>1.141004140530598</v>
+        <v>1.138551488677254</v>
       </c>
       <c r="D43">
-        <v>0.7668161335780297</v>
+        <v>0.7564796220510756</v>
       </c>
       <c r="E43">
-        <v>0.6706442875159206</v>
+        <v>0.6803080219839087</v>
       </c>
       <c r="F43">
-        <v>0.7304612633034724</v>
+        <v>0.7285006798505259</v>
       </c>
       <c r="G43">
-        <v>1.581370190693874</v>
+        <v>1.61763768639545</v>
       </c>
       <c r="H43">
-        <v>1.023543959746388</v>
+        <v>1.022554107679533</v>
       </c>
       <c r="I43">
-        <v>0.5845569436804143</v>
+        <v>0.5882018050431053</v>
       </c>
       <c r="J43">
-        <v>0.5159780309313763</v>
+        <v>0.5127564463158811</v>
       </c>
       <c r="K43">
-        <v>0.7689810514630507</v>
+        <v>0.7624838411336669</v>
       </c>
       <c r="L43">
-        <v>0.652637478875247</v>
+        <v>0.6505450733798555</v>
       </c>
       <c r="M43">
-        <v>0.587778538768243</v>
+        <v>0.5858232084280341</v>
       </c>
       <c r="N43">
-        <v>0.7886405873292258</v>
+        <v>0.786928378075187</v>
       </c>
       <c r="O43">
-        <v>1.085577892221103</v>
+        <v>1.081796115146344</v>
       </c>
       <c r="P43">
-        <v>0.4844729818960793</v>
+        <v>0.4843257739284659</v>
       </c>
       <c r="Q43">
-        <v>0.6518351383874852</v>
+        <v>0.6348422797313108</v>
       </c>
       <c r="R43">
-        <v>0.6903600176768424</v>
+        <v>0.6888558608344461</v>
       </c>
       <c r="S43">
-        <v>0.4663577242703669</v>
+        <v>0.4586666451277235</v>
       </c>
       <c r="T43">
-        <v>0.8373940571924322</v>
+        <v>0.8442635977615961</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.479892106751715</v>
+        <v>6.332232535757877</v>
       </c>
       <c r="C44">
-        <v>6.236374396344455</v>
+        <v>6.222968962763619</v>
       </c>
       <c r="D44">
-        <v>7.134330635118306</v>
+        <v>7.038161439377855</v>
       </c>
       <c r="E44">
-        <v>7.477956425431586</v>
+        <v>7.585710993096998</v>
       </c>
       <c r="F44">
-        <v>4.637679281677472</v>
+        <v>4.625231589080319</v>
       </c>
       <c r="G44">
-        <v>5.639803098736728</v>
+        <v>5.769147597478934</v>
       </c>
       <c r="H44">
-        <v>5.470229919231469</v>
+        <v>5.464939752316638</v>
       </c>
       <c r="I44">
-        <v>4.519365311348319</v>
+        <v>4.547544704622664</v>
       </c>
       <c r="J44">
-        <v>5.420323671467231</v>
+        <v>5.386481084565841</v>
       </c>
       <c r="K44">
-        <v>6.496351922759852</v>
+        <v>6.441463489897219</v>
       </c>
       <c r="L44">
-        <v>4.58217661311669</v>
+        <v>4.567485805683039</v>
       </c>
       <c r="M44">
-        <v>6.836119961761089</v>
+        <v>6.813378619760833</v>
       </c>
       <c r="N44">
-        <v>4.749915031476024</v>
+        <v>4.739602541092625</v>
       </c>
       <c r="O44">
-        <v>7.455219562857396</v>
+        <v>7.429248162157236</v>
       </c>
       <c r="P44">
-        <v>5.815246197605126</v>
+        <v>5.81347922482045</v>
       </c>
       <c r="Q44">
-        <v>5.10651323706378</v>
+        <v>4.973390223968826</v>
       </c>
       <c r="R44">
-        <v>4.348154627464628</v>
+        <v>4.338680865416954</v>
       </c>
       <c r="S44">
-        <v>4.8681586972185</v>
+        <v>4.787873988998359</v>
       </c>
       <c r="T44">
-        <v>7.235197308051653</v>
+        <v>7.29455106272267</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2021.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>184.2462866944958</v>
+        <v>178.8034850501159</v>
       </c>
       <c r="C2">
-        <v>165.5155353409132</v>
+        <v>164.8308447362886</v>
       </c>
       <c r="D2">
-        <v>161.0645639706364</v>
+        <v>158.7215759774202</v>
       </c>
       <c r="E2">
-        <v>135.9008850921489</v>
+        <v>135.8614303314071</v>
       </c>
       <c r="F2">
-        <v>157.6446796196259</v>
+        <v>156.462367479996</v>
       </c>
       <c r="G2">
-        <v>161.572361524105</v>
+        <v>161.3587874831776</v>
       </c>
       <c r="H2">
-        <v>191.9385990862488</v>
+        <v>191.4864086552261</v>
       </c>
       <c r="I2">
-        <v>181.5585531613492</v>
+        <v>181.4555064149603</v>
       </c>
       <c r="J2">
-        <v>161.703281976525</v>
+        <v>160.3551552014477</v>
       </c>
       <c r="K2">
-        <v>165.630059693575</v>
+        <v>164.0816204619212</v>
       </c>
       <c r="L2">
-        <v>211.8958196709629</v>
+        <v>210.8021258729868</v>
       </c>
       <c r="M2">
-        <v>182.8845770564456</v>
+        <v>182.2191146931286</v>
       </c>
       <c r="N2">
-        <v>140.7857177538173</v>
+        <v>140.0907564082173</v>
       </c>
       <c r="O2">
-        <v>172.5089609940896</v>
+        <v>171.4255936548696</v>
       </c>
       <c r="P2">
-        <v>162.0126334320906</v>
+        <v>161.8820765775741</v>
       </c>
       <c r="Q2">
-        <v>156.2905535499399</v>
+        <v>151.9236613432866</v>
       </c>
       <c r="R2">
-        <v>178.1653773730293</v>
+        <v>177.7767144342849</v>
       </c>
       <c r="S2">
-        <v>200.6474777998771</v>
+        <v>197.3387730955616</v>
       </c>
       <c r="T2">
-        <v>228.8498447353932</v>
+        <v>230.7283300764957</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.94057201424257</v>
+        <v>13.52875493155407</v>
       </c>
       <c r="C3">
-        <v>11.20175683868014</v>
+        <v>11.15541836267584</v>
       </c>
       <c r="D3">
-        <v>9.878883954905945</v>
+        <v>9.735176947466737</v>
       </c>
       <c r="E3">
-        <v>11.31984854812188</v>
+        <v>11.31656216837683</v>
       </c>
       <c r="F3">
-        <v>15.50677151042181</v>
+        <v>15.39047298231749</v>
       </c>
       <c r="G3">
-        <v>9.597401056185646</v>
+        <v>9.584714754477636</v>
       </c>
       <c r="H3">
-        <v>10.34846414282584</v>
+        <v>10.32408407293138</v>
       </c>
       <c r="I3">
-        <v>11.79083075547626</v>
+        <v>11.78413866234478</v>
       </c>
       <c r="J3">
-        <v>11.43617502785667</v>
+        <v>11.34083117601227</v>
       </c>
       <c r="K3">
-        <v>12.65204523972157</v>
+        <v>12.53376403372498</v>
       </c>
       <c r="L3">
-        <v>14.5048477999715</v>
+        <v>14.42998147130088</v>
       </c>
       <c r="M3">
-        <v>12.64682192925801</v>
+        <v>12.60080392082368</v>
       </c>
       <c r="N3">
-        <v>10.12799566367533</v>
+        <v>10.07800078062215</v>
       </c>
       <c r="O3">
-        <v>13.07360155050488</v>
+        <v>12.99149849426841</v>
       </c>
       <c r="P3">
-        <v>9.691815260199848</v>
+        <v>9.684005172257189</v>
       </c>
       <c r="Q3">
-        <v>8.329632972322505</v>
+        <v>8.096895877949786</v>
       </c>
       <c r="R3">
-        <v>9.330199731989675</v>
+        <v>9.309846154317201</v>
       </c>
       <c r="S3">
-        <v>16.68622071304476</v>
+        <v>16.41106262196941</v>
       </c>
       <c r="T3">
-        <v>21.22681281073777</v>
+        <v>21.40105045004838</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.23652450357138</v>
+        <v>9.934128328319522</v>
       </c>
       <c r="C4">
-        <v>8.039480206696604</v>
+        <v>8.006223168000792</v>
       </c>
       <c r="D4">
-        <v>8.616691027069542</v>
+        <v>8.491344997378253</v>
       </c>
       <c r="E4">
-        <v>9.996280248979682</v>
+        <v>9.993378127736948</v>
       </c>
       <c r="F4">
-        <v>8.245001180220134</v>
+        <v>8.183164872073496</v>
       </c>
       <c r="G4">
-        <v>9.052196909526016</v>
+        <v>9.040231284619621</v>
       </c>
       <c r="H4">
-        <v>8.715536095848202</v>
+        <v>8.695003060583083</v>
       </c>
       <c r="I4">
-        <v>9.051569728694787</v>
+        <v>9.046432351281206</v>
       </c>
       <c r="J4">
-        <v>9.607992612746209</v>
+        <v>9.527890391333852</v>
       </c>
       <c r="K4">
-        <v>8.474171187122819</v>
+        <v>8.394948012620752</v>
       </c>
       <c r="L4">
-        <v>9.215983385254415</v>
+        <v>9.168415368639666</v>
       </c>
       <c r="M4">
-        <v>11.62699422000931</v>
+        <v>11.58468706007021</v>
       </c>
       <c r="N4">
-        <v>7.741833813286901</v>
+        <v>7.703617754654434</v>
       </c>
       <c r="O4">
-        <v>12.12955425029287</v>
+        <v>12.05337987164993</v>
       </c>
       <c r="P4">
-        <v>8.280012308094255</v>
+        <v>8.273339912618654</v>
       </c>
       <c r="Q4">
-        <v>8.5565734055355</v>
+        <v>8.31749540068123</v>
       </c>
       <c r="R4">
-        <v>10.16213127402882</v>
+        <v>10.13996286026007</v>
       </c>
       <c r="S4">
-        <v>9.904235505848813</v>
+        <v>9.74091329033841</v>
       </c>
       <c r="T4">
-        <v>9.785869565217391</v>
+        <v>9.866195652173912</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>19.29546625369643</v>
+        <v>18.72546076083765</v>
       </c>
       <c r="C5">
-        <v>14.39520013939236</v>
+        <v>14.33565129845225</v>
       </c>
       <c r="D5">
-        <v>12.9386085075703</v>
+        <v>12.7503920331651</v>
       </c>
       <c r="E5">
-        <v>12.44372296896919</v>
+        <v>12.44011030587177</v>
       </c>
       <c r="F5">
-        <v>12.45996974061153</v>
+        <v>12.36652178208041</v>
       </c>
       <c r="G5">
-        <v>13.63149449339548</v>
+        <v>13.61347573489389</v>
       </c>
       <c r="H5">
-        <v>14.57700482594799</v>
+        <v>14.54266268670843</v>
       </c>
       <c r="I5">
-        <v>16.49371975844518</v>
+        <v>16.48435845804174</v>
       </c>
       <c r="J5">
-        <v>12.08862815324939</v>
+        <v>11.98784477341845</v>
       </c>
       <c r="K5">
-        <v>15.74488702870596</v>
+        <v>15.59769152072685</v>
       </c>
       <c r="L5">
-        <v>19.47425060574594</v>
+        <v>19.37373485635168</v>
       </c>
       <c r="M5">
-        <v>13.57640646611431</v>
+        <v>13.52700597714085</v>
       </c>
       <c r="N5">
-        <v>14.82803333444951</v>
+        <v>14.7548376284992</v>
       </c>
       <c r="O5">
-        <v>20.7690406046642</v>
+        <v>20.63860969760658</v>
       </c>
       <c r="P5">
-        <v>12.40784774703702</v>
+        <v>12.3978489615173</v>
       </c>
       <c r="Q5">
-        <v>11.45306859205776</v>
+        <v>11.13306002569907</v>
       </c>
       <c r="R5">
-        <v>15.53866781722635</v>
+        <v>15.5047706348048</v>
       </c>
       <c r="S5">
-        <v>18.61104622595311</v>
+        <v>18.30414749552671</v>
       </c>
       <c r="T5">
-        <v>25.90570516617171</v>
+        <v>26.11834890845541</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>40.93335016309802</v>
+        <v>39.72414204512327</v>
       </c>
       <c r="C6">
-        <v>39.4296367550447</v>
+        <v>39.26652758360449</v>
       </c>
       <c r="D6">
-        <v>39.50648784164645</v>
+        <v>38.9317914318018</v>
       </c>
       <c r="E6">
-        <v>29.04080598684286</v>
+        <v>29.03237485667631</v>
       </c>
       <c r="F6">
-        <v>27.51404091776413</v>
+        <v>27.30768961770226</v>
       </c>
       <c r="G6">
-        <v>38.80824312307051</v>
+        <v>38.75694453940866</v>
       </c>
       <c r="H6">
-        <v>38.96817594391983</v>
+        <v>38.87637035421491</v>
       </c>
       <c r="I6">
-        <v>40.93484612974436</v>
+        <v>40.91161283869776</v>
       </c>
       <c r="J6">
-        <v>31.83591748979985</v>
+        <v>31.57050016336995</v>
       </c>
       <c r="K6">
-        <v>36.48968885402468</v>
+        <v>36.14855472730308</v>
       </c>
       <c r="L6">
-        <v>43.12005671614441</v>
+        <v>42.89749386109584</v>
       </c>
       <c r="M6">
-        <v>46.34346277815373</v>
+        <v>46.17483275608727</v>
       </c>
       <c r="N6">
-        <v>31.98584541588535</v>
+        <v>31.82795350380056</v>
       </c>
       <c r="O6">
-        <v>41.17545688169429</v>
+        <v>40.91687237161415</v>
       </c>
       <c r="P6">
-        <v>46.20945702525812</v>
+        <v>46.17221942698983</v>
       </c>
       <c r="Q6">
-        <v>37.42466907340554</v>
+        <v>36.37899169879051</v>
       </c>
       <c r="R6">
-        <v>38.84309048767469</v>
+        <v>38.7583553392331</v>
       </c>
       <c r="S6">
-        <v>39.3610318885362</v>
+        <v>38.71196302006927</v>
       </c>
       <c r="T6">
-        <v>61.04903087356936</v>
+        <v>61.55014421151856</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>12.20766099344028</v>
+        <v>11.84703566675838</v>
       </c>
       <c r="C7">
-        <v>10.58678525327757</v>
+        <v>10.54299073948062</v>
       </c>
       <c r="D7">
-        <v>12.1740543684866</v>
+        <v>11.99695977665989</v>
       </c>
       <c r="E7">
-        <v>9.514425054595785</v>
+        <v>9.511662825609042</v>
       </c>
       <c r="F7">
-        <v>10.89265549530251</v>
+        <v>10.810962165366</v>
       </c>
       <c r="G7">
-        <v>12.00353160139268</v>
+        <v>11.98766476175918</v>
       </c>
       <c r="H7">
-        <v>12.44850761853716</v>
+        <v>12.4191800312128</v>
       </c>
       <c r="I7">
-        <v>13.21295055515355</v>
+        <v>13.20545131294658</v>
       </c>
       <c r="J7">
-        <v>10.90779017015608</v>
+        <v>10.81685148415311</v>
       </c>
       <c r="K7">
-        <v>10.22514104130419</v>
+        <v>10.1295484322884</v>
       </c>
       <c r="L7">
-        <v>12.61308650459146</v>
+        <v>12.54798444403722</v>
       </c>
       <c r="M7">
-        <v>15.82769410305409</v>
+        <v>15.77010185064438</v>
       </c>
       <c r="N7">
-        <v>9.791865624162872</v>
+        <v>9.743529981750601</v>
       </c>
       <c r="O7">
-        <v>11.79370598060643</v>
+        <v>11.71964075063736</v>
       </c>
       <c r="P7">
-        <v>12.75412422194167</v>
+        <v>12.74384639171786</v>
       </c>
       <c r="Q7">
-        <v>11.24875150421179</v>
+        <v>10.93445173264802</v>
       </c>
       <c r="R7">
-        <v>11.52694439653281</v>
+        <v>11.50179867995219</v>
       </c>
       <c r="S7">
-        <v>11.37663536486595</v>
+        <v>11.189033071711</v>
       </c>
       <c r="T7">
-        <v>17.3533959049351</v>
+        <v>17.49583908580533</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>221.08</v>
+        <v>244.09</v>
       </c>
       <c r="C8">
-        <v>262.7</v>
+        <v>265.75</v>
       </c>
       <c r="D8">
-        <v>263.76</v>
+        <v>274.47</v>
       </c>
       <c r="E8">
-        <v>345.55</v>
+        <v>345.74</v>
       </c>
       <c r="F8">
-        <v>313.32</v>
+        <v>318.47</v>
       </c>
       <c r="G8">
-        <v>326.7</v>
+        <v>327.59</v>
       </c>
       <c r="H8">
-        <v>231.72</v>
+        <v>233.53</v>
       </c>
       <c r="I8">
-        <v>260</v>
+        <v>260.42</v>
       </c>
       <c r="J8">
-        <v>303.11</v>
+        <v>308.92</v>
       </c>
       <c r="K8">
-        <v>249.1</v>
+        <v>256.12</v>
       </c>
       <c r="L8">
-        <v>207.59</v>
+        <v>211.68</v>
       </c>
       <c r="M8">
-        <v>222.25</v>
+        <v>225.08</v>
       </c>
       <c r="N8">
-        <v>309.2</v>
+        <v>312.61</v>
       </c>
       <c r="O8">
-        <v>251.6</v>
+        <v>256.3</v>
       </c>
       <c r="P8">
-        <v>230.62</v>
+        <v>231.24</v>
       </c>
       <c r="Q8">
-        <v>306.75</v>
+        <v>326.12</v>
       </c>
       <c r="R8">
-        <v>220.71</v>
+        <v>222.41</v>
       </c>
       <c r="S8">
-        <v>294.73</v>
+        <v>306.36</v>
       </c>
       <c r="T8">
-        <v>99.70000000000002</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.47953041683331</v>
+        <v>10.16995562752076</v>
       </c>
       <c r="C9">
-        <v>8.924309533530458</v>
+        <v>8.887392208049292</v>
       </c>
       <c r="D9">
-        <v>10.15333928688471</v>
+        <v>10.0056398087763</v>
       </c>
       <c r="E9">
-        <v>10.39975730000552</v>
+        <v>10.39673804125848</v>
       </c>
       <c r="F9">
-        <v>10.90622222453298</v>
+        <v>10.82442714610293</v>
       </c>
       <c r="G9">
-        <v>10.50700185188819</v>
+        <v>10.49311319653667</v>
       </c>
       <c r="H9">
-        <v>8.719488003028692</v>
+        <v>8.69894565741839</v>
       </c>
       <c r="I9">
-        <v>8.452663195957619</v>
+        <v>8.447865738468025</v>
       </c>
       <c r="J9">
-        <v>8.49356764353516</v>
+        <v>8.422756427978989</v>
       </c>
       <c r="K9">
-        <v>7.089236313437864</v>
+        <v>7.022960592409319</v>
       </c>
       <c r="L9">
-        <v>10.65033374055749</v>
+        <v>10.59536236841569</v>
       </c>
       <c r="M9">
-        <v>9.83650579077235</v>
+        <v>9.80071368355552</v>
       </c>
       <c r="N9">
-        <v>7.44473822997589</v>
+        <v>7.407988725974416</v>
       </c>
       <c r="O9">
-        <v>10.17107686897784</v>
+        <v>10.10720185390008</v>
       </c>
       <c r="P9">
-        <v>13.61471156093374</v>
+        <v>13.60374023185347</v>
       </c>
       <c r="Q9">
-        <v>7.344103489771361</v>
+        <v>7.138902934997653</v>
       </c>
       <c r="R9">
-        <v>5.901464667237524</v>
+        <v>5.888590782118629</v>
       </c>
       <c r="S9">
-        <v>5.888866169206473</v>
+        <v>5.791757950300421</v>
       </c>
       <c r="T9">
-        <v>7.667976075277787</v>
+        <v>7.730917698288231</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.83661697180844</v>
+        <v>26.04383907867267</v>
       </c>
       <c r="C10">
-        <v>30.57602234814273</v>
+        <v>30.44953805659</v>
       </c>
       <c r="D10">
-        <v>26.64403314871862</v>
+        <v>26.25644541235171</v>
       </c>
       <c r="E10">
-        <v>25.11099403377701</v>
+        <v>25.10370380707303</v>
       </c>
       <c r="F10">
-        <v>21.72675984339986</v>
+        <v>21.56381230860417</v>
       </c>
       <c r="G10">
-        <v>24.58842884896833</v>
+        <v>24.55592669290778</v>
       </c>
       <c r="H10">
-        <v>27.44836651279736</v>
+        <v>27.38370057929894</v>
       </c>
       <c r="I10">
-        <v>23.05601340655773</v>
+        <v>23.04292756111078</v>
       </c>
       <c r="J10">
-        <v>25.73759722606211</v>
+        <v>25.52302184130495</v>
       </c>
       <c r="K10">
-        <v>26.21071913911808</v>
+        <v>25.96568085391818</v>
       </c>
       <c r="L10">
-        <v>26.2418350436748</v>
+        <v>26.10638861401259</v>
       </c>
       <c r="M10">
-        <v>20.1945053122725</v>
+        <v>20.12102353788004</v>
       </c>
       <c r="N10">
-        <v>32.79328037101527</v>
+        <v>32.63140271313287</v>
       </c>
       <c r="O10">
-        <v>29.59519433444211</v>
+        <v>29.40933461588</v>
       </c>
       <c r="P10">
-        <v>25.35199216609191</v>
+        <v>25.33156242377605</v>
       </c>
       <c r="Q10">
-        <v>28.97272864019255</v>
+        <v>28.1632057353811</v>
       </c>
       <c r="R10">
-        <v>30.95723844243749</v>
+        <v>30.88970606636164</v>
       </c>
       <c r="S10">
-        <v>24.92887350946488</v>
+        <v>24.51779293193418</v>
       </c>
       <c r="T10">
-        <v>25.24480223314091</v>
+        <v>25.45202103632086</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>41.1867137054498</v>
+        <v>39.9700209997003</v>
       </c>
       <c r="C11">
-        <v>49.13083251883651</v>
+        <v>48.92759226496097</v>
       </c>
       <c r="D11">
-        <v>45.71340073408927</v>
+        <v>45.04841306449499</v>
       </c>
       <c r="E11">
-        <v>34.53136531634312</v>
+        <v>34.52134016635441</v>
       </c>
       <c r="F11">
-        <v>26.35158643422742</v>
+        <v>26.15395337350588</v>
       </c>
       <c r="G11">
-        <v>38.87500281449822</v>
+        <v>38.8236159846974</v>
       </c>
       <c r="H11">
-        <v>56.13447035452355</v>
+        <v>56.0022224874156</v>
       </c>
       <c r="I11">
-        <v>55.12961067299162</v>
+        <v>55.09832089396102</v>
       </c>
       <c r="J11">
-        <v>43.34726329161117</v>
+        <v>42.9858754115666</v>
       </c>
       <c r="K11">
-        <v>42.1916833506232</v>
+        <v>41.79724252345397</v>
       </c>
       <c r="L11">
-        <v>48.28629950318654</v>
+        <v>48.03707124386618</v>
       </c>
       <c r="M11">
-        <v>45.34679482111192</v>
+        <v>45.18179137611834</v>
       </c>
       <c r="N11">
-        <v>39.16963107755156</v>
+        <v>38.97627780312416</v>
       </c>
       <c r="O11">
-        <v>34.21750696643641</v>
+        <v>34.00261882808491</v>
       </c>
       <c r="P11">
-        <v>47.47050015155489</v>
+        <v>47.43224634967031</v>
       </c>
       <c r="Q11">
-        <v>39.98817689530686</v>
+        <v>38.87087291195007</v>
       </c>
       <c r="R11">
-        <v>57.04457551594029</v>
+        <v>56.92013432154912</v>
       </c>
       <c r="S11">
-        <v>28.85625082265998</v>
+        <v>28.38040724918098</v>
       </c>
       <c r="T11">
-        <v>39.87385110447462</v>
+        <v>40.20115062648069</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.368077141422191</v>
+        <v>9.091335685272488</v>
       </c>
       <c r="C12">
-        <v>10.15121205372792</v>
+        <v>10.10921938213716</v>
       </c>
       <c r="D12">
-        <v>9.616492593563608</v>
+        <v>9.476602563577373</v>
       </c>
       <c r="E12">
-        <v>8.492101445577614</v>
+        <v>8.489636017699761</v>
       </c>
       <c r="F12">
-        <v>7.261770330201676</v>
+        <v>7.207308110243999</v>
       </c>
       <c r="G12">
-        <v>7.997254702277727</v>
+        <v>7.986683550213231</v>
       </c>
       <c r="H12">
-        <v>9.405539089561406</v>
+        <v>9.383380468027452</v>
       </c>
       <c r="I12">
-        <v>8.532718798063723</v>
+        <v>8.52787590361077</v>
       </c>
       <c r="J12">
-        <v>7.810462357889094</v>
+        <v>7.74534621861412</v>
       </c>
       <c r="K12">
-        <v>9.021685695764511</v>
+        <v>8.937343927773744</v>
       </c>
       <c r="L12">
-        <v>9.214369942785009</v>
+        <v>9.166810253904261</v>
       </c>
       <c r="M12">
-        <v>10.86671545790691</v>
+        <v>10.82717472535032</v>
       </c>
       <c r="N12">
-        <v>8.297713384007499</v>
+        <v>8.256753333863513</v>
       </c>
       <c r="O12">
-        <v>9.730419458181961</v>
+        <v>9.669311799906366</v>
       </c>
       <c r="P12">
-        <v>11.34938813667087</v>
+        <v>11.34024230412423</v>
       </c>
       <c r="Q12">
-        <v>10.19535198555957</v>
+        <v>9.910485100654714</v>
       </c>
       <c r="R12">
-        <v>10.64490607901712</v>
+        <v>10.62168450510454</v>
       </c>
       <c r="S12">
-        <v>6.684460714541925</v>
+        <v>6.574233031370767</v>
       </c>
       <c r="T12">
-        <v>12.12719330808502</v>
+        <v>12.2267378582869</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.80842054226893</v>
+        <v>3.695916361252126</v>
       </c>
       <c r="C13">
-        <v>3.926240097162251</v>
+        <v>3.909998360696302</v>
       </c>
       <c r="D13">
-        <v>3.778284803696664</v>
+        <v>3.723322522039064</v>
       </c>
       <c r="E13">
-        <v>3.090143495525593</v>
+        <v>3.089246364707119</v>
       </c>
       <c r="F13">
-        <v>3.288860780817002</v>
+        <v>3.264194803911884</v>
       </c>
       <c r="G13">
-        <v>2.551471956752781</v>
+        <v>2.5480992996289</v>
       </c>
       <c r="H13">
-        <v>3.619156595890897</v>
+        <v>3.610630181772916</v>
       </c>
       <c r="I13">
-        <v>3.529998907961572</v>
+        <v>3.527995395067865</v>
       </c>
       <c r="J13">
-        <v>2.864517357009409</v>
+        <v>2.840635760424259</v>
       </c>
       <c r="K13">
-        <v>3.283549089747226</v>
+        <v>3.252851906886625</v>
       </c>
       <c r="L13">
-        <v>3.498749994909699</v>
+        <v>3.480691303728137</v>
       </c>
       <c r="M13">
-        <v>3.621706077872259</v>
+        <v>3.608527770960809</v>
       </c>
       <c r="N13">
-        <v>2.710726125100456</v>
+        <v>2.697345152189927</v>
       </c>
       <c r="O13">
-        <v>3.623948185659876</v>
+        <v>3.601189558625399</v>
       </c>
       <c r="P13">
-        <v>4.213423048386322</v>
+        <v>4.210027688109218</v>
       </c>
       <c r="Q13">
-        <v>3.469148616125151</v>
+        <v>3.3722176263028</v>
       </c>
       <c r="R13">
-        <v>3.468502346876394</v>
+        <v>3.460935903075383</v>
       </c>
       <c r="S13">
-        <v>2.794480011311899</v>
+        <v>2.748398648810223</v>
       </c>
       <c r="T13">
-        <v>5.409265199039006</v>
+        <v>5.453666476192065</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.738742411518433</v>
+        <v>7.510132974234707</v>
       </c>
       <c r="C14">
-        <v>6.687150848932491</v>
+        <v>6.659488011431824</v>
       </c>
       <c r="D14">
-        <v>6.704551681195515</v>
+        <v>6.607021326276463</v>
       </c>
       <c r="E14">
-        <v>7.046535862425918</v>
+        <v>7.044490111316036</v>
       </c>
       <c r="F14">
-        <v>4.874740024020339</v>
+        <v>4.838180183739999</v>
       </c>
       <c r="G14">
-        <v>5.787230750639586</v>
+        <v>5.779580913467349</v>
       </c>
       <c r="H14">
-        <v>7.271509212097893</v>
+        <v>7.254378176962399</v>
       </c>
       <c r="I14">
-        <v>5.97698146290284</v>
+        <v>5.973589122072546</v>
       </c>
       <c r="J14">
-        <v>5.870618501855716</v>
+        <v>5.821674918943375</v>
       </c>
       <c r="K14">
-        <v>7.845913668077507</v>
+        <v>7.772563935823007</v>
       </c>
       <c r="L14">
-        <v>6.665937562356201</v>
+        <v>6.631531529330319</v>
       </c>
       <c r="M14">
-        <v>6.947925662070263</v>
+        <v>6.922644235360316</v>
       </c>
       <c r="N14">
-        <v>5.373020610099116</v>
+        <v>5.346497737660728</v>
       </c>
       <c r="O14">
-        <v>7.741340867783888</v>
+        <v>7.692724750629178</v>
       </c>
       <c r="P14">
-        <v>7.368386486406496</v>
+        <v>7.362448718825363</v>
       </c>
       <c r="Q14">
-        <v>6.021344765342961</v>
+        <v>5.853103224622163</v>
       </c>
       <c r="R14">
-        <v>5.867264804610675</v>
+        <v>5.854465525564573</v>
       </c>
       <c r="S14">
-        <v>5.572828151658473</v>
+        <v>5.480931443442062</v>
       </c>
       <c r="T14">
-        <v>7.1929520921619</v>
+        <v>7.251994540191531</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.702634874231946</v>
+        <v>1.65233750292799</v>
       </c>
       <c r="C15">
-        <v>1.793983858529121</v>
+        <v>1.786562658517574</v>
       </c>
       <c r="D15">
-        <v>1.492162368093334</v>
+        <v>1.470456050911057</v>
       </c>
       <c r="E15">
-        <v>1.292217041798969</v>
+        <v>1.291841885197331</v>
       </c>
       <c r="F15">
-        <v>1.787238066518662</v>
+        <v>1.773834041292107</v>
       </c>
       <c r="G15">
-        <v>1.738533630929941</v>
+        <v>1.736235554394181</v>
       </c>
       <c r="H15">
-        <v>1.811554251535693</v>
+        <v>1.807286389304111</v>
       </c>
       <c r="I15">
-        <v>1.344329922159092</v>
+        <v>1.343566924095165</v>
       </c>
       <c r="J15">
-        <v>1.505604919110933</v>
+        <v>1.493052630256114</v>
       </c>
       <c r="K15">
-        <v>1.758659664695997</v>
+        <v>1.742218339824289</v>
       </c>
       <c r="L15">
-        <v>1.540030837049254</v>
+        <v>1.532082014945126</v>
       </c>
       <c r="M15">
-        <v>2.534794948438048</v>
+        <v>2.525571586555592</v>
       </c>
       <c r="N15">
-        <v>1.186936612643986</v>
+        <v>1.181077530638896</v>
       </c>
       <c r="O15">
-        <v>2.058696341062006</v>
+        <v>2.045767596001889</v>
       </c>
       <c r="P15">
-        <v>2.199366000471504</v>
+        <v>2.197593655310086</v>
       </c>
       <c r="Q15">
-        <v>1.563838748495789</v>
+        <v>1.520143751657183</v>
       </c>
       <c r="R15">
-        <v>1.245511276131262</v>
+        <v>1.242794227061695</v>
       </c>
       <c r="S15">
-        <v>1.233354861985467</v>
+        <v>1.213016669456519</v>
       </c>
       <c r="T15">
-        <v>2.705571382094832</v>
+        <v>2.727779726550769</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.814178572122668</v>
+        <v>1.760586099282655</v>
       </c>
       <c r="C16">
-        <v>1.694402551127717</v>
+        <v>1.687393290608336</v>
       </c>
       <c r="D16">
-        <v>1.987539162351707</v>
+        <v>1.958626654978043</v>
       </c>
       <c r="E16">
-        <v>1.869489106357896</v>
+        <v>1.868946356063438</v>
       </c>
       <c r="F16">
-        <v>1.96289150813416</v>
+        <v>1.94817010767559</v>
       </c>
       <c r="G16">
-        <v>1.5410362104563</v>
+        <v>1.538999195415002</v>
       </c>
       <c r="H16">
-        <v>1.866090570626427</v>
+        <v>1.861694225631329</v>
       </c>
       <c r="I16">
-        <v>1.474986706728487</v>
+        <v>1.474149552111156</v>
       </c>
       <c r="J16">
-        <v>1.418757131726444</v>
+        <v>1.406928896373187</v>
       </c>
       <c r="K16">
-        <v>1.540269046080491</v>
+        <v>1.525869407375623</v>
       </c>
       <c r="L16">
-        <v>1.53035018223281</v>
+        <v>1.52245132653269</v>
       </c>
       <c r="M16">
-        <v>2.002919259824393</v>
+        <v>1.99563123474525</v>
       </c>
       <c r="N16">
-        <v>1.545475321457273</v>
+        <v>1.53784638276855</v>
       </c>
       <c r="O16">
-        <v>1.760334552502296</v>
+        <v>1.749279538610311</v>
       </c>
       <c r="P16">
-        <v>1.615171675462293</v>
+        <v>1.613870099597589</v>
       </c>
       <c r="Q16">
-        <v>1.52354091456077</v>
+        <v>1.480971873788982</v>
       </c>
       <c r="R16">
-        <v>1.738625574471863</v>
+        <v>1.734832809934141</v>
       </c>
       <c r="S16">
-        <v>1.17322697929652</v>
+        <v>1.153880303882539</v>
       </c>
       <c r="T16">
-        <v>1.539603423537655</v>
+        <v>1.55224106576796</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>24.52208524057597</v>
+        <v>23.79768070431338</v>
       </c>
       <c r="C17">
-        <v>23.06257469657415</v>
+        <v>22.96717139693419</v>
       </c>
       <c r="D17">
-        <v>20.32929851871272</v>
+        <v>20.03357051271547</v>
       </c>
       <c r="E17">
-        <v>22.9239030595508</v>
+        <v>22.91724778935244</v>
       </c>
       <c r="F17">
-        <v>22.16660748581916</v>
+        <v>22.00036115775956</v>
       </c>
       <c r="G17">
-        <v>18.33666191214427</v>
+        <v>18.3124236393063</v>
       </c>
       <c r="H17">
-        <v>23.14078768606545</v>
+        <v>23.08627002881578</v>
       </c>
       <c r="I17">
-        <v>20.91565891251343</v>
+        <v>20.90378786286039</v>
       </c>
       <c r="J17">
-        <v>20.6340125438795</v>
+        <v>20.46198595018473</v>
       </c>
       <c r="K17">
-        <v>24.94036244210112</v>
+        <v>24.70720044404073</v>
       </c>
       <c r="L17">
-        <v>23.63693217681673</v>
+        <v>23.51493087369943</v>
       </c>
       <c r="M17">
-        <v>22.405862341959</v>
+        <v>22.3243340996861</v>
       </c>
       <c r="N17">
-        <v>23.70258923787838</v>
+        <v>23.58558601074873</v>
       </c>
       <c r="O17">
-        <v>23.67615546755369</v>
+        <v>23.527467692704</v>
       </c>
       <c r="P17">
-        <v>22.17111688301085</v>
+        <v>22.15325042889524</v>
       </c>
       <c r="Q17">
-        <v>19.83289711191336</v>
+        <v>19.27874894450223</v>
       </c>
       <c r="R17">
-        <v>20.1007704225194</v>
+        <v>20.05692113699247</v>
       </c>
       <c r="S17">
-        <v>25.93638217793577</v>
+        <v>25.50868764289331</v>
       </c>
       <c r="T17">
-        <v>33.17657621208583</v>
+        <v>33.44890199039007</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.04599599236115</v>
+        <v>19.45381917345261</v>
       </c>
       <c r="C18">
-        <v>18.5396069176554</v>
+        <v>18.4629138468581</v>
       </c>
       <c r="D18">
-        <v>18.59434874156125</v>
+        <v>18.32385885372288</v>
       </c>
       <c r="E18">
-        <v>16.93513135792236</v>
+        <v>16.93021474861987</v>
       </c>
       <c r="F18">
-        <v>20.23084943614593</v>
+        <v>20.07912101155784</v>
       </c>
       <c r="G18">
-        <v>16.16419028693422</v>
+        <v>16.14282369053533</v>
       </c>
       <c r="H18">
-        <v>17.69426920991691</v>
+        <v>17.65258307039753</v>
       </c>
       <c r="I18">
-        <v>18.71488509612489</v>
+        <v>18.70426313431359</v>
       </c>
       <c r="J18">
-        <v>17.52646734486139</v>
+        <v>17.38034848065951</v>
       </c>
       <c r="K18">
-        <v>20.66790372017241</v>
+        <v>20.4746840050098</v>
       </c>
       <c r="L18">
-        <v>18.2924039969051</v>
+        <v>18.19798831266671</v>
       </c>
       <c r="M18">
-        <v>19.90700494004891</v>
+        <v>19.83456929365823</v>
       </c>
       <c r="N18">
-        <v>18.13222776587195</v>
+        <v>18.04272154600857</v>
       </c>
       <c r="O18">
-        <v>18.51679161615192</v>
+        <v>18.40050497719425</v>
       </c>
       <c r="P18">
-        <v>21.2649875133057</v>
+        <v>21.24785125780355</v>
       </c>
       <c r="Q18">
-        <v>14.97877557160048</v>
+        <v>14.56025572620286</v>
       </c>
       <c r="R18">
-        <v>21.04245966322145</v>
+        <v>20.99655610815533</v>
       </c>
       <c r="S18">
-        <v>18.37493429636969</v>
+        <v>18.07192908437035</v>
       </c>
       <c r="T18">
-        <v>18.84793776485702</v>
+        <v>19.00264870574594</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.500336097492617</v>
+        <v>9.219687592378735</v>
       </c>
       <c r="C19">
-        <v>10.33517141549234</v>
+        <v>10.29241775644277</v>
       </c>
       <c r="D19">
-        <v>11.12524292128203</v>
+        <v>10.96340527094121</v>
       </c>
       <c r="E19">
-        <v>9.057787175901</v>
+        <v>9.055157518076227</v>
       </c>
       <c r="F19">
-        <v>9.525986034928275</v>
+        <v>9.454542526918898</v>
       </c>
       <c r="G19">
-        <v>9.081404274525639</v>
+        <v>9.069400041933442</v>
       </c>
       <c r="H19">
-        <v>9.692447550864834</v>
+        <v>9.669612998270642</v>
       </c>
       <c r="I19">
-        <v>8.655823167340088</v>
+        <v>8.650910402839708</v>
       </c>
       <c r="J19">
-        <v>9.605073359388747</v>
+        <v>9.524995475909217</v>
       </c>
       <c r="K19">
-        <v>10.94567628652506</v>
+        <v>10.84334755096586</v>
       </c>
       <c r="L19">
-        <v>8.308421996212816</v>
+        <v>8.265538329973733</v>
       </c>
       <c r="M19">
-        <v>11.26921597901994</v>
+        <v>11.22821066726086</v>
       </c>
       <c r="N19">
-        <v>9.969689257969462</v>
+        <v>9.920475823734261</v>
       </c>
       <c r="O19">
-        <v>8.024402051802078</v>
+        <v>7.974008292257087</v>
       </c>
       <c r="P19">
-        <v>13.93821702048185</v>
+        <v>13.92698499657598</v>
       </c>
       <c r="Q19">
-        <v>8.664034296028882</v>
+        <v>8.421953741663097</v>
       </c>
       <c r="R19">
-        <v>13.76981910834006</v>
+        <v>13.73978062140429</v>
       </c>
       <c r="S19">
-        <v>7.927348045734176</v>
+        <v>7.796624978296331</v>
       </c>
       <c r="T19">
-        <v>8.936271334545697</v>
+        <v>9.009623600637324</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.6071164128052144</v>
+        <v>0.5891816458732468</v>
       </c>
       <c r="C20">
-        <v>0.8156545255092148</v>
+        <v>0.812280395164982</v>
       </c>
       <c r="D20">
-        <v>1.450692469030609</v>
+        <v>1.429589409779118</v>
       </c>
       <c r="E20">
-        <v>0.9950616461110203</v>
+        <v>0.9947727596983666</v>
       </c>
       <c r="F20">
-        <v>0.6362081970707663</v>
+        <v>0.6314367282426159</v>
       </c>
       <c r="G20">
-        <v>1.353274578315866</v>
+        <v>1.35148575554043</v>
       </c>
       <c r="H20">
-        <v>0.5390401394185612</v>
+        <v>0.537770208335691</v>
       </c>
       <c r="I20">
-        <v>0.623829503204163</v>
+        <v>0.6234754378104528</v>
       </c>
       <c r="J20">
-        <v>1.708493027454529</v>
+        <v>1.694249252268329</v>
       </c>
       <c r="K20">
-        <v>1.348023783214728</v>
+        <v>1.335421403459544</v>
       </c>
       <c r="L20">
-        <v>1.288333811821717</v>
+        <v>1.281684116221774</v>
       </c>
       <c r="M20">
-        <v>1.061355540792113</v>
+        <v>1.057493584918835</v>
       </c>
       <c r="N20">
-        <v>1.253439760246451</v>
+        <v>1.247252398372622</v>
       </c>
       <c r="O20">
-        <v>0.7038278089100878</v>
+        <v>0.6994077251288511</v>
       </c>
       <c r="P20">
-        <v>1.587689415549226</v>
+        <v>1.586409986089608</v>
       </c>
       <c r="Q20">
-        <v>0.9219013237063781</v>
+        <v>0.8961426094760243</v>
       </c>
       <c r="R20">
-        <v>0.702290202314115</v>
+        <v>0.7007581752844676</v>
       </c>
       <c r="S20">
-        <v>0.5873467565103205</v>
+        <v>0.5776613271311962</v>
       </c>
       <c r="T20">
-        <v>0.5970657179085055</v>
+        <v>0.6019666572124529</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>25.43674356327988</v>
+        <v>24.68531919442162</v>
       </c>
       <c r="C21">
-        <v>22.2294364300708</v>
+        <v>22.13747958602942</v>
       </c>
       <c r="D21">
-        <v>21.51458363374189</v>
+        <v>21.20161341925018</v>
       </c>
       <c r="E21">
-        <v>20.34901066297037</v>
+        <v>20.3431029358316</v>
       </c>
       <c r="F21">
-        <v>21.35331777037179</v>
+        <v>21.1931709967401</v>
       </c>
       <c r="G21">
-        <v>17.65932920953396</v>
+        <v>17.63598626731433</v>
       </c>
       <c r="H21">
-        <v>23.452988353324</v>
+        <v>23.39773517880492</v>
       </c>
       <c r="I21">
-        <v>23.12398514419499</v>
+        <v>23.11086072019424</v>
       </c>
       <c r="J21">
-        <v>19.49550373446939</v>
+        <v>19.33296893457662</v>
       </c>
       <c r="K21">
-        <v>23.53158915582081</v>
+        <v>23.31159747134371</v>
       </c>
       <c r="L21">
-        <v>23.99430968379045</v>
+        <v>23.87046378759188</v>
       </c>
       <c r="M21">
-        <v>23.47280816776657</v>
+        <v>23.38739762824258</v>
       </c>
       <c r="N21">
-        <v>18.89918254420038</v>
+        <v>18.80589040106817</v>
       </c>
       <c r="O21">
-        <v>22.43833656014443</v>
+        <v>22.29742236742305</v>
       </c>
       <c r="P21">
-        <v>27.04018813218036</v>
+        <v>27.0183979678377</v>
       </c>
       <c r="Q21">
-        <v>18.27188628158845</v>
+        <v>17.7613540965551</v>
       </c>
       <c r="R21">
-        <v>22.6665554651755</v>
+        <v>22.61710898916426</v>
       </c>
       <c r="S21">
-        <v>14.12858589817835</v>
+        <v>13.89560355950548</v>
       </c>
       <c r="T21">
-        <v>21.87175643998799</v>
+        <v>22.0512880184524</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>70.80873616172941</v>
+        <v>68.71698217020088</v>
       </c>
       <c r="C22">
-        <v>60.28241862248999</v>
+        <v>60.03304743464437</v>
       </c>
       <c r="D22">
-        <v>64.84610416530117</v>
+        <v>63.90279522309432</v>
       </c>
       <c r="E22">
-        <v>65.63862809154806</v>
+        <v>65.61957187741802</v>
       </c>
       <c r="F22">
-        <v>67.57802041208917</v>
+        <v>67.07119510026672</v>
       </c>
       <c r="G22">
-        <v>66.61574084306874</v>
+        <v>66.52768498483272</v>
       </c>
       <c r="H22">
-        <v>64.67770329730247</v>
+        <v>64.52532832597936</v>
       </c>
       <c r="I22">
-        <v>72.09384590419249</v>
+        <v>72.05292777543609</v>
       </c>
       <c r="J22">
-        <v>60.57450716733273</v>
+        <v>60.0694950612009</v>
       </c>
       <c r="K22">
-        <v>69.95882013790251</v>
+        <v>69.30479041707673</v>
       </c>
       <c r="L22">
-        <v>67.09903869647549</v>
+        <v>66.75270905870136</v>
       </c>
       <c r="M22">
-        <v>80.7804170855252</v>
+        <v>80.486481270222</v>
       </c>
       <c r="N22">
-        <v>58.89504294468256</v>
+        <v>58.60431900657982</v>
       </c>
       <c r="O22">
-        <v>72.36956439072561</v>
+        <v>71.91507888479774</v>
       </c>
       <c r="P22">
-        <v>60.67062219151434</v>
+        <v>60.6217311548891</v>
       </c>
       <c r="Q22">
-        <v>55.53889891696753</v>
+        <v>53.98709441351037</v>
       </c>
       <c r="R22">
-        <v>65.19448231448246</v>
+        <v>65.05226231944259</v>
       </c>
       <c r="S22">
-        <v>45.4398141750163</v>
+        <v>44.69050534456068</v>
       </c>
       <c r="T22">
-        <v>68.78366051169543</v>
+        <v>69.3482625900931</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.122952273501406</v>
+        <v>5.94207473561142</v>
       </c>
       <c r="C23">
-        <v>5.790919082319849</v>
+        <v>5.76696370024868</v>
       </c>
       <c r="D23">
-        <v>6.018413351248607</v>
+        <v>5.930864173002557</v>
       </c>
       <c r="E23">
-        <v>6.803222843479593</v>
+        <v>6.801247731033627</v>
       </c>
       <c r="F23">
-        <v>10.50350457790233</v>
+        <v>10.42472982317495</v>
       </c>
       <c r="G23">
-        <v>5.34842486219287</v>
+        <v>5.341355059538258</v>
       </c>
       <c r="H23">
-        <v>4.918543676835347</v>
+        <v>4.906956021221414</v>
       </c>
       <c r="I23">
-        <v>3.928766435433482</v>
+        <v>3.926536595024184</v>
       </c>
       <c r="J23">
-        <v>5.696922927086739</v>
+        <v>5.649427451177521</v>
       </c>
       <c r="K23">
-        <v>5.252909562544099</v>
+        <v>5.203801259002936</v>
       </c>
       <c r="L23">
-        <v>3.679455551483315</v>
+        <v>3.660464154093621</v>
       </c>
       <c r="M23">
-        <v>5.073582957601424</v>
+        <v>5.05512170428093</v>
       </c>
       <c r="N23">
-        <v>11.63009936713099</v>
+        <v>11.57268964095566</v>
       </c>
       <c r="O23">
-        <v>3.877938221049168</v>
+        <v>3.853584520302333</v>
       </c>
       <c r="P23">
-        <v>4.515727907430068</v>
+        <v>4.512088936697002</v>
       </c>
       <c r="Q23">
-        <v>5.826925391095068</v>
+        <v>5.664116094556284</v>
       </c>
       <c r="R23">
-        <v>3.877310007113602</v>
+        <v>3.868851760488992</v>
       </c>
       <c r="S23">
-        <v>10.32293088408526</v>
+        <v>10.15270432378649</v>
       </c>
       <c r="T23">
-        <v>13.88083915879742</v>
+        <v>13.99477829173479</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2214939143830047</v>
+        <v>0.2149507841899772</v>
       </c>
       <c r="C24">
-        <v>0.2698577414312873</v>
+        <v>0.2687414168532792</v>
       </c>
       <c r="D24">
-        <v>0.2676693484957724</v>
+        <v>0.2637755927607</v>
       </c>
       <c r="E24">
-        <v>0.1008692627564596</v>
+        <v>0.1008399783803824</v>
       </c>
       <c r="F24">
-        <v>0.1685130578099897</v>
+        <v>0.1672492344166749</v>
       </c>
       <c r="G24">
-        <v>0.3073727459484136</v>
+        <v>0.3069664460168912</v>
       </c>
       <c r="H24">
-        <v>0.3256371516722099</v>
+        <v>0.3248699792291857</v>
       </c>
       <c r="I24">
-        <v>0.1223491277470635</v>
+        <v>0.1222796863502341</v>
       </c>
       <c r="J24">
-        <v>0.1824533348413636</v>
+        <v>0.1809322140397618</v>
       </c>
       <c r="K24">
-        <v>0.1322647408516447</v>
+        <v>0.1310282266942622</v>
       </c>
       <c r="L24">
-        <v>0.1903862113900597</v>
+        <v>0.1894035387779203</v>
       </c>
       <c r="M24">
-        <v>0.1397571253864708</v>
+        <v>0.1392485909411558</v>
       </c>
       <c r="N24">
-        <v>0.1452949203053844</v>
+        <v>0.1445777001573801</v>
       </c>
       <c r="O24">
-        <v>0.335848269686444</v>
+        <v>0.3337391210125713</v>
       </c>
       <c r="P24">
-        <v>0.2457699243654341</v>
+        <v>0.2455718722285101</v>
       </c>
       <c r="Q24">
-        <v>0.2891546329723225</v>
+        <v>0.281075404352526</v>
       </c>
       <c r="R24">
-        <v>0.2417850753153918</v>
+        <v>0.2412576277310058</v>
       </c>
       <c r="S24">
-        <v>0.2383117301696057</v>
+        <v>0.2343819367261408</v>
       </c>
       <c r="T24">
-        <v>0.3595537263505623</v>
+        <v>0.3625050781641029</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.116940037826056</v>
+        <v>2.054403717959602</v>
       </c>
       <c r="C25">
-        <v>2.034955419187482</v>
+        <v>2.026537388496418</v>
       </c>
       <c r="D25">
-        <v>2.556053778593432</v>
+        <v>2.518871153404994</v>
       </c>
       <c r="E25">
-        <v>1.517128235782967</v>
+        <v>1.516687782937373</v>
       </c>
       <c r="F25">
-        <v>2.053574382464112</v>
+        <v>2.038172873654055</v>
       </c>
       <c r="G25">
-        <v>1.235749704865002</v>
+        <v>1.234116232063384</v>
       </c>
       <c r="H25">
-        <v>2.224923742614736</v>
+        <v>2.219682018277082</v>
       </c>
       <c r="I25">
-        <v>1.610930182003002</v>
+        <v>1.610015870278082</v>
       </c>
       <c r="J25">
-        <v>2.19965740484748</v>
+        <v>2.181318772463367</v>
       </c>
       <c r="K25">
-        <v>2.87598913247181</v>
+        <v>2.849102138584538</v>
       </c>
       <c r="L25">
-        <v>2.735591706880053</v>
+        <v>2.72147203388105</v>
       </c>
       <c r="M25">
-        <v>2.144273609500995</v>
+        <v>2.136471238154305</v>
       </c>
       <c r="N25">
-        <v>1.601135564559336</v>
+        <v>1.593231869893517</v>
       </c>
       <c r="O25">
-        <v>2.038805555158026</v>
+        <v>2.026001725509117</v>
       </c>
       <c r="P25">
-        <v>2.759218895271997</v>
+        <v>2.756995396201228</v>
       </c>
       <c r="Q25">
-        <v>1.792900120336944</v>
+        <v>1.742804952171164</v>
       </c>
       <c r="R25">
-        <v>2.550673475448886</v>
+        <v>2.545109250438604</v>
       </c>
       <c r="S25">
-        <v>0.6526075072336895</v>
+        <v>0.6418459190346625</v>
       </c>
       <c r="T25">
-        <v>2.898960592612366</v>
+        <v>2.922756348226501</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>26.76809727167557</v>
+        <v>25.97734351234052</v>
       </c>
       <c r="C26">
-        <v>26.08498140060457</v>
+        <v>25.97707526569092</v>
       </c>
       <c r="D26">
-        <v>27.0677801173232</v>
+        <v>26.67402818173625</v>
       </c>
       <c r="E26">
-        <v>25.3106879120719</v>
+        <v>25.30333971021798</v>
       </c>
       <c r="F26">
-        <v>24.95635543863115</v>
+        <v>24.76918640719155</v>
       </c>
       <c r="G26">
-        <v>22.53070044339966</v>
+        <v>22.50091829072682</v>
       </c>
       <c r="H26">
-        <v>27.47049719300809</v>
+        <v>27.40577912157665</v>
       </c>
       <c r="I26">
-        <v>24.46907030788338</v>
+        <v>24.45518245716811</v>
       </c>
       <c r="J26">
-        <v>25.0070540733573</v>
+        <v>24.79856925628975</v>
       </c>
       <c r="K26">
-        <v>27.30190325114415</v>
+        <v>27.04666372414584</v>
       </c>
       <c r="L26">
-        <v>28.67329284507157</v>
+        <v>28.52529652026958</v>
       </c>
       <c r="M26">
-        <v>25.84468623861125</v>
+        <v>25.75064514307248</v>
       </c>
       <c r="N26">
-        <v>25.6297347977498</v>
+        <v>25.50321859094562</v>
       </c>
       <c r="O26">
-        <v>23.19189133381447</v>
+        <v>23.04624476878383</v>
       </c>
       <c r="P26">
-        <v>24.73560433661311</v>
+        <v>24.71567130652564</v>
       </c>
       <c r="Q26">
-        <v>23.34870637785801</v>
+        <v>22.69632348202085</v>
       </c>
       <c r="R26">
-        <v>28.76049377789435</v>
+        <v>28.69775354072665</v>
       </c>
       <c r="S26">
-        <v>28.19631064680569</v>
+        <v>27.73134957824705</v>
       </c>
       <c r="T26">
-        <v>30.76390499349328</v>
+        <v>31.01642666171711</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.655175060579993</v>
+        <v>6.458575181075107</v>
       </c>
       <c r="C27">
-        <v>7.188098036547189</v>
+        <v>7.158362923280587</v>
       </c>
       <c r="D27">
-        <v>6.559784033558365</v>
+        <v>6.464359597234056</v>
       </c>
       <c r="E27">
-        <v>5.292910098423413</v>
+        <v>5.291373460148984</v>
       </c>
       <c r="F27">
-        <v>6.537021373942609</v>
+        <v>6.48799466561296</v>
       </c>
       <c r="G27">
-        <v>5.217687133146939</v>
+        <v>5.210790145847815</v>
       </c>
       <c r="H27">
-        <v>6.377587807871512</v>
+        <v>6.362562772816262</v>
       </c>
       <c r="I27">
-        <v>5.381851137812187</v>
+        <v>5.37879657365289</v>
       </c>
       <c r="J27">
-        <v>6.81718640301271</v>
+        <v>6.760351245381657</v>
       </c>
       <c r="K27">
-        <v>7.070780768202751</v>
+        <v>7.004677584033377</v>
       </c>
       <c r="L27">
-        <v>6.264997108708489</v>
+        <v>6.232660517581902</v>
       </c>
       <c r="M27">
-        <v>5.984799415121214</v>
+        <v>5.963022517217267</v>
       </c>
       <c r="N27">
-        <v>6.424782346638093</v>
+        <v>6.393067656710421</v>
       </c>
       <c r="O27">
-        <v>5.481441577000846</v>
+        <v>5.447017772335019</v>
       </c>
       <c r="P27">
-        <v>7.201137304649825</v>
+        <v>7.195334313762511</v>
       </c>
       <c r="Q27">
-        <v>6.608844765342962</v>
+        <v>6.424187970384875</v>
       </c>
       <c r="R27">
-        <v>6.865423585929151</v>
+        <v>6.850446850572507</v>
       </c>
       <c r="S27">
-        <v>5.824338685345164</v>
+        <v>5.72829453358688</v>
       </c>
       <c r="T27">
-        <v>7.658588249524509</v>
+        <v>7.721452813740865</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6652784838482335</v>
+        <v>0.6456255568296078</v>
       </c>
       <c r="C28">
-        <v>0.5009471876146996</v>
+        <v>0.4988749118487634</v>
       </c>
       <c r="D28">
-        <v>0.286519302615193</v>
+        <v>0.2823513387297634</v>
       </c>
       <c r="E28">
-        <v>0.6086233219021516</v>
+        <v>0.6084466263086585</v>
       </c>
       <c r="F28">
-        <v>0.178509595137701</v>
+        <v>0.1771707991702064</v>
       </c>
       <c r="G28">
-        <v>0.2684295926155829</v>
+        <v>0.2680747695984615</v>
       </c>
       <c r="H28">
-        <v>0.6900029937132023</v>
+        <v>0.6883774074443668</v>
       </c>
       <c r="I28">
-        <v>0.3300405483053502</v>
+        <v>0.32985322799415</v>
       </c>
       <c r="J28">
-        <v>0.5977171249403072</v>
+        <v>0.5927339331942594</v>
       </c>
       <c r="K28">
-        <v>0.7189972831179524</v>
+        <v>0.7122755346461346</v>
       </c>
       <c r="L28">
-        <v>0.5292091299655897</v>
+        <v>0.5264776332132022</v>
       </c>
       <c r="M28">
-        <v>0.4560075348324276</v>
+        <v>0.4543482595851426</v>
       </c>
       <c r="N28">
-        <v>0.5566024310206269</v>
+        <v>0.5538548712496651</v>
       </c>
       <c r="O28">
-        <v>0.1537710756423126</v>
+        <v>0.1528053834248903</v>
       </c>
       <c r="P28">
-        <v>0.4876138116004299</v>
+        <v>0.4872208710987373</v>
       </c>
       <c r="Q28">
-        <v>0.6956678700361012</v>
+        <v>0.676230312672092</v>
       </c>
       <c r="R28">
-        <v>0.6585461919774486</v>
+        <v>0.6571095913199764</v>
       </c>
       <c r="S28">
-        <v>0.1935824515839259</v>
+        <v>0.190390250140619</v>
       </c>
       <c r="T28">
-        <v>0.2356344264072876</v>
+        <v>0.2375686021388769</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>9.708285419988893</v>
+        <v>9.421493904154216</v>
       </c>
       <c r="C29">
-        <v>9.946728300361674</v>
+        <v>9.90558151978918</v>
       </c>
       <c r="D29">
-        <v>9.09170987087894</v>
+        <v>8.95945379579865</v>
       </c>
       <c r="E29">
-        <v>10.40861743795034</v>
+        <v>10.40559560692703</v>
       </c>
       <c r="F29">
-        <v>12.86554354076438</v>
+        <v>12.76905383779512</v>
       </c>
       <c r="G29">
-        <v>8.792807691791269</v>
+        <v>8.781184939904009</v>
       </c>
       <c r="H29">
-        <v>8.37172017114575</v>
+        <v>8.351997135911494</v>
       </c>
       <c r="I29">
-        <v>8.386201941378966</v>
+        <v>8.381442205141971</v>
       </c>
       <c r="J29">
-        <v>10.43706056626536</v>
+        <v>10.35004637193053</v>
       </c>
       <c r="K29">
-        <v>10.40969649365532</v>
+        <v>10.31237851604783</v>
       </c>
       <c r="L29">
-        <v>7.97040579887199</v>
+        <v>7.929266792906155</v>
       </c>
       <c r="M29">
-        <v>10.64709711801388</v>
+        <v>10.60835551101423</v>
       </c>
       <c r="N29">
-        <v>8.746609630324135</v>
+        <v>8.703433691066166</v>
       </c>
       <c r="O29">
-        <v>10.19326274556305</v>
+        <v>10.1292484017574</v>
       </c>
       <c r="P29">
-        <v>9.466460728912692</v>
+        <v>9.458832241491749</v>
       </c>
       <c r="Q29">
-        <v>9.030956678700361</v>
+        <v>8.778623998041974</v>
       </c>
       <c r="R29">
-        <v>7.869149786745021</v>
+        <v>7.851983449903196</v>
       </c>
       <c r="S29">
-        <v>10.05748828001942</v>
+        <v>9.891638905033068</v>
       </c>
       <c r="T29">
-        <v>12.53274738062665</v>
+        <v>12.63562087073309</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>17.44224738731201</v>
+        <v>16.92698765283087</v>
       </c>
       <c r="C30">
-        <v>20.25073304712533</v>
+        <v>20.16696153513059</v>
       </c>
       <c r="D30">
-        <v>19.86257365471587</v>
+        <v>19.57363504252147</v>
       </c>
       <c r="E30">
-        <v>17.43334373005054</v>
+        <v>17.42828247967433</v>
       </c>
       <c r="F30">
-        <v>19.71674180214935</v>
+        <v>19.56886910994765</v>
       </c>
       <c r="G30">
-        <v>16.67114669371339</v>
+        <v>16.64910997819668</v>
       </c>
       <c r="H30">
-        <v>17.76935544634618</v>
+        <v>17.72749241026833</v>
       </c>
       <c r="I30">
-        <v>15.45450741412444</v>
+        <v>15.44573593694346</v>
       </c>
       <c r="J30">
-        <v>22.4994154392976</v>
+        <v>22.31183690652726</v>
       </c>
       <c r="K30">
-        <v>21.35306583702599</v>
+        <v>21.1534406909667</v>
       </c>
       <c r="L30">
-        <v>16.06020634048012</v>
+        <v>15.97731207623236</v>
       </c>
       <c r="M30">
-        <v>17.40255725312335</v>
+        <v>17.33923454399272</v>
       </c>
       <c r="N30">
-        <v>22.87491419434771</v>
+        <v>22.76199662428007</v>
       </c>
       <c r="O30">
-        <v>17.29656840396541</v>
+        <v>17.18794484504151</v>
       </c>
       <c r="P30">
-        <v>24.1765366492387</v>
+        <v>24.15705414030615</v>
       </c>
       <c r="Q30">
-        <v>19.95166967509025</v>
+        <v>19.3942029003243</v>
       </c>
       <c r="R30">
-        <v>21.71452673112114</v>
+        <v>21.66715707997342</v>
       </c>
       <c r="S30">
-        <v>18.19675044888903</v>
+        <v>17.89668351321818</v>
       </c>
       <c r="T30">
-        <v>21.85016444075545</v>
+        <v>22.02951878399346</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.36967062282063</v>
+        <v>9.092882093791841</v>
       </c>
       <c r="C31">
-        <v>8.977520919164798</v>
+        <v>8.940383473344303</v>
       </c>
       <c r="D31">
-        <v>10.21516713639641</v>
+        <v>10.06656825555483</v>
       </c>
       <c r="E31">
-        <v>7.637438908438421</v>
+        <v>7.635221606287601</v>
       </c>
       <c r="F31">
-        <v>9.480287578573023</v>
+        <v>9.409186802331325</v>
       </c>
       <c r="G31">
-        <v>8.203792497632206</v>
+        <v>8.192948334075261</v>
       </c>
       <c r="H31">
-        <v>9.053028969061879</v>
+        <v>9.031700830318188</v>
       </c>
       <c r="I31">
-        <v>7.014683324164971</v>
+        <v>7.010702017413421</v>
       </c>
       <c r="J31">
-        <v>8.676750791715888</v>
+        <v>8.604412370874909</v>
       </c>
       <c r="K31">
-        <v>9.26852861328415</v>
+        <v>9.181879164801989</v>
       </c>
       <c r="L31">
-        <v>8.093027426546945</v>
+        <v>8.051255512797018</v>
       </c>
       <c r="M31">
-        <v>9.556991539999409</v>
+        <v>9.52221650167321</v>
       </c>
       <c r="N31">
-        <v>10.13666998727565</v>
+        <v>10.08663228510916</v>
       </c>
       <c r="O31">
-        <v>9.383095735089377</v>
+        <v>9.324169292071041</v>
       </c>
       <c r="P31">
-        <v>10.71101449926162</v>
+        <v>10.70238309606743</v>
       </c>
       <c r="Q31">
-        <v>9.198510830324912</v>
+        <v>8.941496542862387</v>
       </c>
       <c r="R31">
-        <v>8.786183312530044</v>
+        <v>8.767016491922439</v>
       </c>
       <c r="S31">
-        <v>9.044113476652052</v>
+        <v>8.894974792554525</v>
       </c>
       <c r="T31">
-        <v>11.88968131652708</v>
+        <v>11.98727627923854</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>3.487334040483494</v>
+        <v>3.384315044602627</v>
       </c>
       <c r="C32">
-        <v>4.90152877957448</v>
+        <v>4.881252551746323</v>
       </c>
       <c r="D32">
-        <v>5.320965048830045</v>
+        <v>5.243561572147211</v>
       </c>
       <c r="E32">
-        <v>3.369578615323894</v>
+        <v>3.368600358868989</v>
       </c>
       <c r="F32">
-        <v>3.918642632462812</v>
+        <v>3.889253383384373</v>
       </c>
       <c r="G32">
-        <v>4.254539501611752</v>
+        <v>4.248915648713439</v>
       </c>
       <c r="H32">
-        <v>4.521772195914354</v>
+        <v>4.511119298956727</v>
       </c>
       <c r="I32">
-        <v>3.806417307686418</v>
+        <v>3.804256908673949</v>
       </c>
       <c r="J32">
-        <v>6.179329544407304</v>
+        <v>6.127812225098651</v>
       </c>
       <c r="K32">
-        <v>4.721543655983131</v>
+        <v>4.677402976178894</v>
       </c>
       <c r="L32">
-        <v>3.447926557123369</v>
+        <v>3.430130189562845</v>
       </c>
       <c r="M32">
-        <v>3.779831282595237</v>
+        <v>3.766077605282802</v>
       </c>
       <c r="N32">
-        <v>6.170335521028663</v>
+        <v>6.139876858424858</v>
       </c>
       <c r="O32">
-        <v>5.256522690240449</v>
+        <v>5.223511390609061</v>
       </c>
       <c r="P32">
-        <v>7.536420875589252</v>
+        <v>7.530347698559873</v>
       </c>
       <c r="Q32">
-        <v>5.664320096269556</v>
+        <v>5.506054131228456</v>
       </c>
       <c r="R32">
-        <v>6.462183345189337</v>
+        <v>6.448086267481652</v>
       </c>
       <c r="S32">
-        <v>3.399425172511668</v>
+        <v>3.343368180499657</v>
       </c>
       <c r="T32">
-        <v>6.461640465981515</v>
+        <v>6.51468003395175</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.360742691787205</v>
+        <v>2.291004221420513</v>
       </c>
       <c r="C33">
-        <v>2.865813197735079</v>
+        <v>2.853958145174261</v>
       </c>
       <c r="D33">
-        <v>2.344180294291145</v>
+        <v>2.310079768712722</v>
       </c>
       <c r="E33">
-        <v>3.87460647817887</v>
+        <v>3.873481601976174</v>
       </c>
       <c r="F33">
-        <v>3.566621710851266</v>
+        <v>3.539872567420725</v>
       </c>
       <c r="G33">
-        <v>2.114056895210808</v>
+        <v>2.111262434143324</v>
       </c>
       <c r="H33">
-        <v>2.68729688273183</v>
+        <v>2.680965848007843</v>
       </c>
       <c r="I33">
-        <v>1.926621141251598</v>
+        <v>1.925527653576834</v>
       </c>
       <c r="J33">
-        <v>4.613879931468404</v>
+        <v>4.575413828637495</v>
       </c>
       <c r="K33">
-        <v>2.648370741238747</v>
+        <v>2.623611701947901</v>
       </c>
       <c r="L33">
-        <v>1.816736220552603</v>
+        <v>1.807359192067273</v>
       </c>
       <c r="M33">
-        <v>2.831080054257366</v>
+        <v>2.820778599350842</v>
       </c>
       <c r="N33">
-        <v>5.369406308598982</v>
+        <v>5.342901277457809</v>
       </c>
       <c r="O33">
-        <v>1.556836512100031</v>
+        <v>1.547059478953491</v>
       </c>
       <c r="P33">
-        <v>4.243260930577653</v>
+        <v>4.239841525632167</v>
       </c>
       <c r="Q33">
-        <v>3.734972924187727</v>
+        <v>3.630614575047421</v>
       </c>
       <c r="R33">
-        <v>1.977229267217316</v>
+        <v>1.972915995195002</v>
       </c>
       <c r="S33">
-        <v>1.440869383948539</v>
+        <v>1.417109248205744</v>
       </c>
       <c r="T33">
-        <v>2.369487220127465</v>
+        <v>2.38893685975508</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.239728527985451</v>
+        <v>1.203105828056132</v>
       </c>
       <c r="C34">
-        <v>1.504361888147937</v>
+        <v>1.498138771697576</v>
       </c>
       <c r="D34">
-        <v>1.230525004915776</v>
+        <v>1.212624696860457</v>
       </c>
       <c r="E34">
-        <v>2.033742432873483</v>
+        <v>2.033151996534196</v>
       </c>
       <c r="F34">
-        <v>1.872208633804208</v>
+        <v>1.858167341697125</v>
       </c>
       <c r="G34">
-        <v>1.109879869985674</v>
+        <v>1.108412777925245</v>
       </c>
       <c r="H34">
-        <v>1.410830863434211</v>
+        <v>1.407507070204118</v>
       </c>
       <c r="I34">
-        <v>1.011268407736531</v>
+        <v>1.010694444586194</v>
       </c>
       <c r="J34">
-        <v>2.422250473353944</v>
+        <v>2.402056073591877</v>
       </c>
       <c r="K34">
-        <v>1.390317741045196</v>
+        <v>1.377319964321082</v>
       </c>
       <c r="L34">
-        <v>0.9535444994197057</v>
+        <v>0.9486228086250075</v>
       </c>
       <c r="M34">
-        <v>1.486217201966984</v>
+        <v>1.480809301379948</v>
       </c>
       <c r="N34">
-        <v>2.818432309804447</v>
+        <v>2.804519666236941</v>
       </c>
       <c r="O34">
-        <v>0.8170522825173627</v>
+        <v>0.811921141780014</v>
       </c>
       <c r="P34">
-        <v>2.226848260384572</v>
+        <v>2.225053768818066</v>
       </c>
       <c r="Q34">
-        <v>1.960454271961493</v>
+        <v>1.905677496991576</v>
       </c>
       <c r="R34">
-        <v>1.037926063442718</v>
+        <v>1.035661855884745</v>
       </c>
       <c r="S34">
-        <v>0.7559981347841952</v>
+        <v>0.7435316208143111</v>
       </c>
       <c r="T34">
-        <v>1.243886912309386</v>
+        <v>1.254097202525943</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.172621464291816</v>
+        <v>3.078899362030537</v>
       </c>
       <c r="C35">
-        <v>4.136805151743847</v>
+        <v>4.119692367649424</v>
       </c>
       <c r="D35">
-        <v>4.361125385069148</v>
+        <v>4.297684587402504</v>
       </c>
       <c r="E35">
-        <v>3.771011019131696</v>
+        <v>3.769916218774701</v>
       </c>
       <c r="F35">
-        <v>4.297797012535289</v>
+        <v>4.265564160821891</v>
       </c>
       <c r="G35">
-        <v>3.041738440675025</v>
+        <v>3.037717725968058</v>
       </c>
       <c r="H35">
-        <v>5.318476683500731</v>
+        <v>5.305946820954347</v>
       </c>
       <c r="I35">
-        <v>3.157664834015261</v>
+        <v>3.155872645866226</v>
       </c>
       <c r="J35">
-        <v>6.771937975972053</v>
+        <v>6.715480056299797</v>
       </c>
       <c r="K35">
-        <v>3.130521860506079</v>
+        <v>3.101255295769426</v>
       </c>
       <c r="L35">
-        <v>2.646852371062652</v>
+        <v>2.633190723433714</v>
       </c>
       <c r="M35">
-        <v>4.307713910483564</v>
+        <v>4.292039425923397</v>
       </c>
       <c r="N35">
-        <v>5.373743470399143</v>
+        <v>5.347217029701312</v>
       </c>
       <c r="O35">
-        <v>2.683726036583248</v>
+        <v>2.666872064947837</v>
       </c>
       <c r="P35">
-        <v>6.104202530405381</v>
+        <v>6.099283497458267</v>
       </c>
       <c r="Q35">
-        <v>7.469238868832733</v>
+        <v>7.260541924167329</v>
       </c>
       <c r="R35">
-        <v>6.532969107370488</v>
+        <v>6.518717612442375</v>
       </c>
       <c r="S35">
-        <v>2.072212152182479</v>
+        <v>2.038041086732535</v>
       </c>
       <c r="T35">
-        <v>3.409658313590711</v>
+        <v>3.43764606760319</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.171118405372978</v>
+        <v>2.106981607617582</v>
       </c>
       <c r="C36">
-        <v>1.94221557565335</v>
+        <v>1.934181183267968</v>
       </c>
       <c r="D36">
-        <v>3.358307825915972</v>
+        <v>3.309454901848332</v>
       </c>
       <c r="E36">
-        <v>2.116891419740294</v>
+        <v>2.116276843577484</v>
       </c>
       <c r="F36">
-        <v>2.659792967551744</v>
+        <v>2.639844907636076</v>
       </c>
       <c r="G36">
-        <v>1.470104038314358</v>
+        <v>1.468160784795719</v>
       </c>
       <c r="H36">
-        <v>2.158531701982538</v>
+        <v>2.153446391443947</v>
       </c>
       <c r="I36">
-        <v>1.592804385299733</v>
+        <v>1.591900361189159</v>
       </c>
       <c r="J36">
-        <v>2.412033086602827</v>
+        <v>2.39192386960565</v>
       </c>
       <c r="K36">
-        <v>2.592235124481944</v>
+        <v>2.568000884804406</v>
       </c>
       <c r="L36">
-        <v>1.781240486225643</v>
+        <v>1.772046667888339</v>
       </c>
       <c r="M36">
-        <v>2.12191246943916</v>
+        <v>2.11419146360372</v>
       </c>
       <c r="N36">
-        <v>2.517722424993303</v>
+        <v>2.505294177354005</v>
       </c>
       <c r="O36">
-        <v>2.226237960791691</v>
+        <v>2.212257043614083</v>
       </c>
       <c r="P36">
-        <v>2.950809507237384</v>
+        <v>2.948431616085434</v>
       </c>
       <c r="Q36">
-        <v>2.878113718411553</v>
+        <v>2.797696750902527</v>
       </c>
       <c r="R36">
-        <v>2.746328503500158</v>
+        <v>2.74033746235251</v>
       </c>
       <c r="S36">
-        <v>1.001642533574404</v>
+        <v>0.985125309439718</v>
       </c>
       <c r="T36">
-        <v>1.647563419700357</v>
+        <v>1.661087238062665</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>93.12066270267064</v>
+        <v>90.36979425817253</v>
       </c>
       <c r="C37">
-        <v>82.70265587819249</v>
+        <v>82.36053855766019</v>
       </c>
       <c r="D37">
-        <v>89.07960518122827</v>
+        <v>87.7837742409222</v>
       </c>
       <c r="E37">
-        <v>69.23516254807397</v>
+        <v>69.21506218764286</v>
       </c>
       <c r="F37">
-        <v>78.56635705038551</v>
+        <v>77.97712081398795</v>
       </c>
       <c r="G37">
-        <v>69.51561493945987</v>
+        <v>69.42372588956219</v>
       </c>
       <c r="H37">
-        <v>82.84383022456964</v>
+        <v>82.64865745851237</v>
       </c>
       <c r="I37">
-        <v>80.66583726177996</v>
+        <v>80.62005394873952</v>
       </c>
       <c r="J37">
-        <v>72.60766950679034</v>
+        <v>72.00233644155126</v>
       </c>
       <c r="K37">
-        <v>87.56771723535491</v>
+        <v>86.74906578377389</v>
       </c>
       <c r="L37">
-        <v>87.58249756683568</v>
+        <v>87.13044318204956</v>
       </c>
       <c r="M37">
-        <v>76.23791120439238</v>
+        <v>75.96050421151746</v>
       </c>
       <c r="N37">
-        <v>82.73280705866595</v>
+        <v>82.32441262891776</v>
       </c>
       <c r="O37">
-        <v>84.09518268112227</v>
+        <v>83.56705954028676</v>
       </c>
       <c r="P37">
-        <v>88.77476638604347</v>
+        <v>88.70322780282147</v>
       </c>
       <c r="Q37">
-        <v>90.0776774969916</v>
+        <v>87.56082987619573</v>
       </c>
       <c r="R37">
-        <v>91.98172355337192</v>
+        <v>91.78106791806192</v>
       </c>
       <c r="S37">
-        <v>72.12119548480536</v>
+        <v>70.93190698041938</v>
       </c>
       <c r="T37">
-        <v>98.00796208165104</v>
+        <v>98.81244818604225</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.689615755605631</v>
+        <v>4.551080272453978</v>
       </c>
       <c r="C38">
-        <v>7.270955765606375</v>
+        <v>7.240877893525679</v>
       </c>
       <c r="D38">
-        <v>4.137187930130431</v>
+        <v>4.077004725290031</v>
       </c>
       <c r="E38">
-        <v>3.651739931412909</v>
+        <v>3.650679757851951</v>
       </c>
       <c r="F38">
-        <v>3.596611322834399</v>
+        <v>3.569637261681319</v>
       </c>
       <c r="G38">
-        <v>2.955507172580899</v>
+        <v>2.951600442470107</v>
       </c>
       <c r="H38">
-        <v>6.949823967606171</v>
+        <v>6.933450794568519</v>
       </c>
       <c r="I38">
-        <v>5.416592248160118</v>
+        <v>5.413517966073326</v>
       </c>
       <c r="J38">
-        <v>4.069439180301774</v>
+        <v>4.035512101942845</v>
       </c>
       <c r="K38">
-        <v>4.046378292798573</v>
+        <v>4.008549586425626</v>
       </c>
       <c r="L38">
-        <v>6.802273451021115</v>
+        <v>6.767163724472135</v>
       </c>
       <c r="M38">
-        <v>5.00969398599618</v>
+        <v>4.991465205564974</v>
       </c>
       <c r="N38">
-        <v>5.61734739150817</v>
+        <v>5.589618447378114</v>
       </c>
       <c r="O38">
-        <v>3.447991233432354</v>
+        <v>3.426337627343186</v>
       </c>
       <c r="P38">
-        <v>7.82459200096342</v>
+        <v>7.818286603057836</v>
       </c>
       <c r="Q38">
-        <v>5.121359807460892</v>
+        <v>4.978264618899019</v>
       </c>
       <c r="R38">
-        <v>8.056851358371445</v>
+        <v>8.039275555641741</v>
       </c>
       <c r="S38">
-        <v>3.496949665165691</v>
+        <v>3.439284480759893</v>
       </c>
       <c r="T38">
-        <v>4.458278450231906</v>
+        <v>4.494873671543929</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>28.04049216832902</v>
+        <v>27.21215071504338</v>
       </c>
       <c r="C39">
-        <v>26.46582288921605</v>
+        <v>26.35634132158809</v>
       </c>
       <c r="D39">
-        <v>27.835350249066</v>
+        <v>27.43043255759651</v>
       </c>
       <c r="E39">
-        <v>26.28189534063916</v>
+        <v>26.27426517773179</v>
       </c>
       <c r="F39">
-        <v>28.45942773361339</v>
+        <v>28.24598617010767</v>
       </c>
       <c r="G39">
-        <v>29.73587922342571</v>
+        <v>29.69657292235807</v>
       </c>
       <c r="H39">
-        <v>26.96860498108611</v>
+        <v>26.90506932349284</v>
       </c>
       <c r="I39">
-        <v>28.2195997424014</v>
+        <v>28.20358321281788</v>
       </c>
       <c r="J39">
-        <v>22.35856146480007</v>
+        <v>22.17215723728856</v>
       </c>
       <c r="K39">
-        <v>32.71706781554695</v>
+        <v>32.41120309845395</v>
       </c>
       <c r="L39">
-        <v>28.24089026327042</v>
+        <v>28.09512577118074</v>
       </c>
       <c r="M39">
-        <v>35.16688580796139</v>
+        <v>35.03892401196455</v>
       </c>
       <c r="N39">
-        <v>20.55019546946156</v>
+        <v>20.44875342176199</v>
       </c>
       <c r="O39">
-        <v>30.96230335022726</v>
+        <v>30.76785809936398</v>
       </c>
       <c r="P39">
-        <v>27.09201182230214</v>
+        <v>27.07017989616704</v>
       </c>
       <c r="Q39">
-        <v>24.44947352587245</v>
+        <v>23.76633425115747</v>
       </c>
       <c r="R39">
-        <v>30.11337671576107</v>
+        <v>30.04768520115573</v>
       </c>
       <c r="S39">
-        <v>33.15979403609203</v>
+        <v>32.61298443886012</v>
       </c>
       <c r="T39">
-        <v>34.73307772197938</v>
+        <v>35.01817984834329</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.023450108578578</v>
+        <v>4.875052857258296</v>
       </c>
       <c r="C40">
-        <v>5.717943467735615</v>
+        <v>5.694289964986948</v>
       </c>
       <c r="D40">
-        <v>5.314179065347053</v>
+        <v>5.236874303598348</v>
       </c>
       <c r="E40">
-        <v>3.932538149356567</v>
+        <v>3.931396454424366</v>
       </c>
       <c r="F40">
-        <v>4.189977217072117</v>
+        <v>4.158552998123087</v>
       </c>
       <c r="G40">
-        <v>3.602241683286837</v>
+        <v>3.597480068704742</v>
       </c>
       <c r="H40">
-        <v>5.586415990337816</v>
+        <v>5.573254886388069</v>
       </c>
       <c r="I40">
-        <v>4.539001591110194</v>
+        <v>4.536425401017944</v>
       </c>
       <c r="J40">
-        <v>4.427047716590847</v>
+        <v>4.390139241460779</v>
       </c>
       <c r="K40">
-        <v>5.589723263084916</v>
+        <v>5.537466161863906</v>
       </c>
       <c r="L40">
-        <v>4.982310345529698</v>
+        <v>4.95659430293405</v>
       </c>
       <c r="M40">
-        <v>5.750007444471943</v>
+        <v>5.729084884436125</v>
       </c>
       <c r="N40">
-        <v>3.997417459148138</v>
+        <v>3.977684984429414</v>
       </c>
       <c r="O40">
-        <v>5.675759254678197</v>
+        <v>5.640115122533636</v>
       </c>
       <c r="P40">
-        <v>6.2745925418664</v>
+        <v>6.269536201207745</v>
       </c>
       <c r="Q40">
-        <v>4.587590252707582</v>
+        <v>4.459409043627241</v>
       </c>
       <c r="R40">
-        <v>5.762279179802677</v>
+        <v>5.749708924049794</v>
       </c>
       <c r="S40">
-        <v>3.974306392366963</v>
+        <v>3.908769529402102</v>
       </c>
       <c r="T40">
-        <v>7.642628945743936</v>
+        <v>7.705362510010345</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.801340298455556</v>
+        <v>2.718586177021438</v>
       </c>
       <c r="C41">
-        <v>3.954366115283258</v>
+        <v>3.938008029495094</v>
       </c>
       <c r="D41">
-        <v>3.319099921347578</v>
+        <v>3.27081735023268</v>
       </c>
       <c r="E41">
-        <v>4.336015200382406</v>
+        <v>4.334756367945896</v>
       </c>
       <c r="F41">
-        <v>3.015384081066045</v>
+        <v>2.992769139583127</v>
       </c>
       <c r="G41">
-        <v>2.148132154377035</v>
+        <v>2.14529265100945</v>
       </c>
       <c r="H41">
-        <v>2.906232540530865</v>
+        <v>2.899385712683777</v>
       </c>
       <c r="I41">
-        <v>2.462087385527326</v>
+        <v>2.460689984578785</v>
       </c>
       <c r="J41">
-        <v>4.050464033478272</v>
+        <v>4.01669515168271</v>
       </c>
       <c r="K41">
-        <v>3.140518614175099</v>
+        <v>3.111158591973063</v>
       </c>
       <c r="L41">
-        <v>2.385474691018671</v>
+        <v>2.373162136297925</v>
       </c>
       <c r="M41">
-        <v>2.082780474330948</v>
+        <v>2.075201858140197</v>
       </c>
       <c r="N41">
-        <v>4.374027675462095</v>
+        <v>4.352436137573667</v>
       </c>
       <c r="O41">
-        <v>3.125913507833281</v>
+        <v>3.106282570517919</v>
       </c>
       <c r="P41">
-        <v>3.750935874420698</v>
+        <v>3.747913206503491</v>
       </c>
       <c r="Q41">
-        <v>2.637033694344164</v>
+        <v>2.563352709620836</v>
       </c>
       <c r="R41">
-        <v>3.432711792964576</v>
+        <v>3.425223425286254</v>
       </c>
       <c r="S41">
-        <v>1.844166158081718</v>
+        <v>1.813755602665367</v>
       </c>
       <c r="T41">
-        <v>1.610950899262571</v>
+        <v>1.624174188327939</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.40693659072474</v>
+        <v>11.06996538578383</v>
       </c>
       <c r="C42">
-        <v>10.09800066809358</v>
+        <v>10.05622811684215</v>
       </c>
       <c r="D42">
-        <v>11.98329283279806</v>
+        <v>11.80897322745297</v>
       </c>
       <c r="E42">
-        <v>12.63728290560996</v>
+        <v>12.63361404816926</v>
       </c>
       <c r="F42">
-        <v>8.794810733244253</v>
+        <v>8.728850933517732</v>
       </c>
       <c r="G42">
-        <v>10.09323084772686</v>
+        <v>10.07988913459086</v>
       </c>
       <c r="H42">
-        <v>10.76341439677708</v>
+        <v>10.73805674063847</v>
       </c>
       <c r="I42">
-        <v>10.73198213139365</v>
+        <v>10.72589100640016</v>
       </c>
       <c r="J42">
-        <v>14.75463628195139</v>
+        <v>14.63162628496745</v>
       </c>
       <c r="K42">
-        <v>12.15605246152791</v>
+        <v>12.04240818362149</v>
       </c>
       <c r="L42">
-        <v>11.26747548510578</v>
+        <v>11.20931875470853</v>
       </c>
       <c r="M42">
-        <v>11.14782693296998</v>
+        <v>11.10726331970054</v>
       </c>
       <c r="N42">
-        <v>13.35918120479507</v>
+        <v>13.29323620203255</v>
       </c>
       <c r="O42">
-        <v>11.98113838624009</v>
+        <v>11.90589606874232</v>
       </c>
       <c r="P42">
-        <v>10.79110565672256</v>
+        <v>10.7824097125764</v>
       </c>
       <c r="Q42">
-        <v>11.57820397111914</v>
+        <v>11.25469901486875</v>
       </c>
       <c r="R42">
-        <v>10.91293756053451</v>
+        <v>10.88913128321425</v>
       </c>
       <c r="S42">
-        <v>7.829090286218094</v>
+        <v>7.69998750284617</v>
       </c>
       <c r="T42">
-        <v>10.4270580641663</v>
+        <v>10.51264726675898</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.14013594058302</v>
+        <v>1.106455295596609</v>
       </c>
       <c r="C43">
-        <v>1.141004140530598</v>
+        <v>1.136284131540203</v>
       </c>
       <c r="D43">
-        <v>0.7668161335780297</v>
+        <v>0.7556613460214983</v>
       </c>
       <c r="E43">
-        <v>0.6706442875159206</v>
+        <v>0.6704495859884883</v>
       </c>
       <c r="F43">
-        <v>0.7304612633034724</v>
+        <v>0.7249829102044848</v>
       </c>
       <c r="G43">
-        <v>1.581370190693874</v>
+        <v>1.579279860276947</v>
       </c>
       <c r="H43">
-        <v>1.023543959746388</v>
+        <v>1.021132580344164</v>
       </c>
       <c r="I43">
-        <v>0.5845569436804143</v>
+        <v>0.5842251681177851</v>
       </c>
       <c r="J43">
-        <v>0.5159780309313763</v>
+        <v>0.5116763013044462</v>
       </c>
       <c r="K43">
-        <v>0.7689810514630507</v>
+        <v>0.761792015664315</v>
       </c>
       <c r="L43">
-        <v>0.652637478875247</v>
+        <v>0.6492689104717692</v>
       </c>
       <c r="M43">
-        <v>0.587778538768243</v>
+        <v>0.5856397881868038</v>
       </c>
       <c r="N43">
-        <v>0.7886405873292258</v>
+        <v>0.7847476162771229</v>
       </c>
       <c r="O43">
-        <v>1.085577892221103</v>
+        <v>1.078760393432434</v>
       </c>
       <c r="P43">
-        <v>0.4844729818960793</v>
+        <v>0.4840825724121109</v>
       </c>
       <c r="Q43">
-        <v>0.6518351383874852</v>
+        <v>0.6336223051663301</v>
       </c>
       <c r="R43">
-        <v>0.6903600176768424</v>
+        <v>0.6888540160214246</v>
       </c>
       <c r="S43">
-        <v>0.4663577242703669</v>
+        <v>0.4586674207933094</v>
       </c>
       <c r="T43">
-        <v>0.8373940571924322</v>
+        <v>0.8442677016250125</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.479892106751715</v>
+        <v>6.288470243946347</v>
       </c>
       <c r="C44">
-        <v>6.236374396344455</v>
+        <v>6.210576292575501</v>
       </c>
       <c r="D44">
-        <v>7.134330635118306</v>
+        <v>7.030548334371108</v>
       </c>
       <c r="E44">
-        <v>7.477956425431586</v>
+        <v>7.475785424253752</v>
       </c>
       <c r="F44">
-        <v>4.637679281677472</v>
+        <v>4.602897362441964</v>
       </c>
       <c r="G44">
-        <v>5.639803098736728</v>
+        <v>5.632348138454722</v>
       </c>
       <c r="H44">
-        <v>5.470229919231469</v>
+        <v>5.457342539430083</v>
       </c>
       <c r="I44">
-        <v>4.519365311348319</v>
+        <v>4.51680026617161</v>
       </c>
       <c r="J44">
-        <v>5.420323671467231</v>
+        <v>5.375134214693242</v>
       </c>
       <c r="K44">
-        <v>6.496351922759852</v>
+        <v>6.435618948332134</v>
       </c>
       <c r="L44">
-        <v>4.58217661311669</v>
+        <v>4.558525848553336</v>
       </c>
       <c r="M44">
-        <v>6.836119961761089</v>
+        <v>6.811245362607393</v>
       </c>
       <c r="N44">
-        <v>4.749915031476024</v>
+        <v>4.726467998677337</v>
       </c>
       <c r="O44">
-        <v>7.455219562857396</v>
+        <v>7.408400305848535</v>
       </c>
       <c r="P44">
-        <v>5.815246197605126</v>
+        <v>5.810560018288644</v>
       </c>
       <c r="Q44">
-        <v>5.10651323706378</v>
+        <v>4.963832874421261</v>
       </c>
       <c r="R44">
-        <v>4.348154627464628</v>
+        <v>4.338669246070424</v>
       </c>
       <c r="S44">
-        <v>4.8681586972185</v>
+        <v>4.787882085922611</v>
       </c>
       <c r="T44">
-        <v>7.235197308051653</v>
+        <v>7.294586520654677</v>
       </c>
     </row>
   </sheetData>
